--- a/left_hip_Data.xlsx
+++ b/left_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>491.9469909667969</v>
+        <v>406.2979736328125</v>
       </c>
       <c r="C2" t="n">
-        <v>487.8992309570312</v>
+        <v>397.9762573242188</v>
       </c>
       <c r="D2" t="n">
-        <v>485.4366455078125</v>
+        <v>397.4781799316406</v>
       </c>
       <c r="E2" t="n">
-        <v>484.1882934570312</v>
+        <v>396.545654296875</v>
       </c>
       <c r="F2" t="n">
-        <v>482.668212890625</v>
+        <v>396.8755493164062</v>
       </c>
       <c r="G2" t="n">
-        <v>481.3570556640625</v>
+        <v>397.4492797851562</v>
       </c>
       <c r="H2" t="n">
-        <v>479.9949340820312</v>
+        <v>397.8313598632812</v>
       </c>
       <c r="I2" t="n">
-        <v>479.019287109375</v>
+        <v>398.1913452148438</v>
       </c>
       <c r="J2" t="n">
-        <v>478.7660217285156</v>
+        <v>398.6260375976562</v>
       </c>
       <c r="K2" t="n">
-        <v>477.958984375</v>
+        <v>398.0794677734375</v>
       </c>
       <c r="L2" t="n">
-        <v>475.8515014648438</v>
+        <v>397.6067810058594</v>
       </c>
       <c r="M2" t="n">
-        <v>472.9438781738281</v>
+        <v>397.2315979003906</v>
       </c>
       <c r="N2" t="n">
-        <v>470.2687072753906</v>
+        <v>396.7768859863281</v>
       </c>
       <c r="O2" t="n">
-        <v>468.588623046875</v>
+        <v>396.50244140625</v>
       </c>
       <c r="P2" t="n">
-        <v>467.6154174804688</v>
+        <v>396.1583862304688</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.5105590820312</v>
+        <v>395.8448486328125</v>
       </c>
       <c r="R2" t="n">
-        <v>465.9423217773438</v>
+        <v>395.5880737304688</v>
       </c>
       <c r="S2" t="n">
-        <v>465.2275390625</v>
+        <v>395.3680725097656</v>
       </c>
       <c r="T2" t="n">
-        <v>464.5535278320312</v>
+        <v>395.1585693359375</v>
       </c>
       <c r="U2" t="n">
-        <v>462.9486694335938</v>
+        <v>394.96630859375</v>
       </c>
       <c r="V2" t="n">
-        <v>459.861328125</v>
+        <v>394.806640625</v>
       </c>
       <c r="W2" t="n">
-        <v>458.0807495117188</v>
+        <v>394.6769409179688</v>
       </c>
       <c r="X2" t="n">
-        <v>456.8323364257812</v>
+        <v>394.5726318359375</v>
       </c>
       <c r="Y2" t="n">
-        <v>455.5771484375</v>
+        <v>394.487060546875</v>
       </c>
       <c r="Z2" t="n">
-        <v>454.9534606933594</v>
+        <v>394.4102172851562</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.1219482421875</v>
+        <v>394.304931640625</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.5763549804688</v>
+        <v>394.1277465820312</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.9908447265625</v>
+        <v>394.0032653808594</v>
       </c>
       <c r="AD2" t="n">
-        <v>453.662353515625</v>
+        <v>393.9871826171875</v>
       </c>
       <c r="AE2" t="n">
-        <v>452.1452026367188</v>
+        <v>393.8752746582031</v>
       </c>
       <c r="AF2" t="n">
-        <v>450.5552978515625</v>
+        <v>393.7408142089844</v>
       </c>
       <c r="AG2" t="n">
-        <v>448.7134399414062</v>
+        <v>393.5472412109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>447.5164489746094</v>
+        <v>393.3751220703125</v>
       </c>
       <c r="AI2" t="n">
-        <v>447.1996765136719</v>
+        <v>393.1976318359375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>447.1405639648438</v>
+        <v>393.0389404296875</v>
       </c>
       <c r="AK2" t="n">
-        <v>447.3773803710938</v>
+        <v>392.876220703125</v>
       </c>
       <c r="AL2" t="n">
-        <v>447.8891296386719</v>
+        <v>392.5148315429688</v>
       </c>
       <c r="AM2" t="n">
-        <v>448.3991088867188</v>
+        <v>392.37060546875</v>
       </c>
       <c r="AN2" t="n">
-        <v>448.7295837402344</v>
+        <v>392.3155517578125</v>
       </c>
       <c r="AO2" t="n">
-        <v>448.5481567382812</v>
+        <v>392.2687377929688</v>
       </c>
       <c r="AP2" t="n">
-        <v>447.5036010742188</v>
+        <v>392.136962890625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>446.4739685058594</v>
+        <v>393.7698364257812</v>
       </c>
       <c r="AR2" t="n">
-        <v>445.3814086914062</v>
+        <v>400.542236328125</v>
       </c>
       <c r="AS2" t="n">
-        <v>445.3965454101562</v>
+        <v>404.8074951171875</v>
       </c>
       <c r="AT2" t="n">
-        <v>445.2854614257812</v>
+        <v>416.8765869140625</v>
       </c>
       <c r="AU2" t="n">
-        <v>445.3943481445312</v>
+        <v>422.2095336914062</v>
       </c>
       <c r="AV2" t="n">
-        <v>445.7620239257812</v>
+        <v>425.0031127929688</v>
       </c>
       <c r="AW2" t="n">
-        <v>446.1363220214844</v>
+        <v>428.220458984375</v>
       </c>
       <c r="AX2" t="n">
-        <v>446.3177185058594</v>
+        <v>431.7645874023438</v>
       </c>
       <c r="AY2" t="n">
-        <v>446.361328125</v>
+        <v>437.0352783203125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>446.3158569335938</v>
+        <v>444.3481750488281</v>
       </c>
       <c r="BA2" t="n">
-        <v>446.0079956054688</v>
+        <v>449.8859252929688</v>
       </c>
       <c r="BB2" t="n">
-        <v>445.3424377441406</v>
+        <v>453.3447875976562</v>
       </c>
       <c r="BC2" t="n">
-        <v>444.6460571289062</v>
+        <v>456.64697265625</v>
       </c>
       <c r="BD2" t="n">
-        <v>443.9956970214844</v>
+        <v>459.6520385742188</v>
       </c>
       <c r="BE2" t="n">
-        <v>443.7445373535156</v>
+        <v>462.880615234375</v>
       </c>
       <c r="BF2" t="n">
-        <v>443.4431457519531</v>
+        <v>464.4462280273438</v>
       </c>
       <c r="BG2" t="n">
-        <v>443.0506591796875</v>
+        <v>464.3485107421875</v>
       </c>
       <c r="BH2" t="n">
-        <v>442.4305725097656</v>
+        <v>462.6997375488281</v>
       </c>
       <c r="BI2" t="n">
-        <v>441.6501159667969</v>
+        <v>460.55615234375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>440.7440795898438</v>
+        <v>446.9792175292969</v>
       </c>
       <c r="BK2" t="n">
-        <v>438.9433288574219</v>
+        <v>435.3753051757812</v>
       </c>
       <c r="BL2" t="n">
-        <v>436.83935546875</v>
+        <v>427.8417663574219</v>
       </c>
       <c r="BM2" t="n">
-        <v>434.2608947753906</v>
+        <v>415.2249755859375</v>
       </c>
       <c r="BN2" t="n">
-        <v>431.4340209960938</v>
+        <v>409.0946655273438</v>
       </c>
       <c r="BO2" t="n">
-        <v>428.3628540039062</v>
+        <v>402.5860290527344</v>
       </c>
       <c r="BP2" t="n">
-        <v>425.3705444335938</v>
+        <v>394.4623107910156</v>
       </c>
       <c r="BQ2" t="n">
-        <v>422.983642578125</v>
+        <v>386.7353820800781</v>
       </c>
       <c r="BR2" t="n">
-        <v>421.5301208496094</v>
+        <v>379.1583251953125</v>
       </c>
       <c r="BS2" t="n">
-        <v>420.6176452636719</v>
+        <v>372.1743469238281</v>
       </c>
       <c r="BT2" t="n">
-        <v>417.23974609375</v>
+        <v>364.3123779296875</v>
       </c>
       <c r="BU2" t="n">
-        <v>412.070556640625</v>
+        <v>356.5614013671875</v>
       </c>
       <c r="BV2" t="n">
-        <v>407.0867309570312</v>
+        <v>349.1391296386719</v>
       </c>
       <c r="BW2" t="n">
-        <v>403.0284118652344</v>
+        <v>343.0166015625</v>
       </c>
       <c r="BX2" t="n">
-        <v>399.0584716796875</v>
+        <v>335.8815002441406</v>
       </c>
       <c r="BY2" t="n">
-        <v>394.7721557617188</v>
+        <v>331.0440063476562</v>
       </c>
       <c r="BZ2" t="n">
-        <v>386.8121948242188</v>
+        <v>325.4523010253906</v>
       </c>
       <c r="CA2" t="n">
-        <v>375.7073974609375</v>
+        <v>319.9807434082031</v>
       </c>
       <c r="CB2" t="n">
-        <v>367.7081298828125</v>
+        <v>314.4186096191406</v>
       </c>
       <c r="CC2" t="n">
-        <v>363.7172241210938</v>
+        <v>309.3945007324219</v>
       </c>
       <c r="CD2" t="n">
-        <v>359.7735290527344</v>
+        <v>305.8499450683594</v>
       </c>
       <c r="CE2" t="n">
-        <v>355.2041015625</v>
+        <v>302.7714233398438</v>
       </c>
       <c r="CF2" t="n">
-        <v>346.9898071289062</v>
+        <v>300.9403991699219</v>
       </c>
       <c r="CG2" t="n">
-        <v>343.5689697265625</v>
+        <v>299.3948059082031</v>
       </c>
       <c r="CH2" t="n">
-        <v>342.9251098632812</v>
+        <v>298.5540161132812</v>
       </c>
       <c r="CI2" t="n">
-        <v>342.1773986816406</v>
+        <v>298.5471496582031</v>
       </c>
       <c r="CJ2" t="n">
-        <v>341.23681640625</v>
+        <v>298.6991271972656</v>
       </c>
       <c r="CK2" t="n">
-        <v>339.71337890625</v>
+        <v>298.7821350097656</v>
       </c>
       <c r="CL2" t="n">
-        <v>335.348388671875</v>
+        <v>300.7178344726562</v>
       </c>
       <c r="CM2" t="n">
-        <v>334.645751953125</v>
+        <v>304.4495849609375</v>
       </c>
       <c r="CN2" t="n">
-        <v>334.3438415527344</v>
+        <v>311.1258239746094</v>
       </c>
       <c r="CO2" t="n">
-        <v>334.1901245117188</v>
+        <v>317.842041015625</v>
       </c>
       <c r="CP2" t="n">
-        <v>334.1547241210938</v>
+        <v>323.9906311035156</v>
       </c>
       <c r="CQ2" t="n">
-        <v>334.1322326660156</v>
+        <v>330.5226135253906</v>
       </c>
       <c r="CR2" t="n">
-        <v>334.141357421875</v>
+        <v>342.058349609375</v>
       </c>
       <c r="CS2" t="n">
-        <v>334.1901245117188</v>
+        <v>346.8788146972656</v>
       </c>
       <c r="CT2" t="n">
-        <v>332.2344665527344</v>
+        <v>351.7359619140625</v>
       </c>
       <c r="CU2" t="n">
-        <v>329.4915466308594</v>
+        <v>359.2173767089844</v>
       </c>
       <c r="CV2" t="n">
-        <v>326.2037963867188</v>
+        <v>369.2750549316406</v>
       </c>
       <c r="CW2" t="n">
-        <v>322.7772216796875</v>
+        <v>376.4344787597656</v>
       </c>
       <c r="CX2" t="n">
-        <v>322.9246215820312</v>
+        <v>382.431396484375</v>
       </c>
       <c r="CY2" t="n">
-        <v>323.8130493164062</v>
+        <v>386.8485717773438</v>
       </c>
       <c r="CZ2" t="n">
-        <v>324.2663879394531</v>
+        <v>390.8297119140625</v>
       </c>
       <c r="DA2" t="n">
-        <v>324.70751953125</v>
+        <v>396.5493774414062</v>
       </c>
       <c r="DB2" t="n">
-        <v>325.2019653320312</v>
+        <v>408.5664672851562</v>
       </c>
       <c r="DC2" t="n">
-        <v>326.6708068847656</v>
+        <v>414.0356140136719</v>
       </c>
       <c r="DD2" t="n">
-        <v>328.8762817382812</v>
+        <v>418.3147888183594</v>
       </c>
       <c r="DE2" t="n">
-        <v>331.1725463867188</v>
+        <v>422.1113891601562</v>
       </c>
       <c r="DF2" t="n">
-        <v>332.3907775878906</v>
+        <v>425.8499755859375</v>
       </c>
       <c r="DG2" t="n">
-        <v>332.698486328125</v>
+        <v>429.5000915527344</v>
       </c>
       <c r="DH2" t="n">
-        <v>332.7781372070312</v>
+        <v>432.5636596679688</v>
       </c>
       <c r="DI2" t="n">
-        <v>332.7258605957031</v>
+        <v>433.650634765625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.7270202636719</v>
+        <v>434.9359130859375</v>
       </c>
       <c r="DK2" t="n">
-        <v>332.6839599609375</v>
+        <v>435.9952392578125</v>
       </c>
       <c r="DL2" t="n">
-        <v>332.8664855957031</v>
+        <v>437.0040893554688</v>
       </c>
       <c r="DM2" t="n">
-        <v>333.0216064453125</v>
+        <v>436.1724243164062</v>
       </c>
       <c r="DN2" t="n">
-        <v>334.3622436523438</v>
+        <v>433.5200805664062</v>
       </c>
       <c r="DO2" t="n">
-        <v>335.8272705078125</v>
+        <v>428.9236450195312</v>
       </c>
       <c r="DP2" t="n">
-        <v>337.7250671386719</v>
+        <v>425.7944030761719</v>
       </c>
       <c r="DQ2" t="n">
-        <v>339.5105590820312</v>
+        <v>417.9314880371094</v>
       </c>
       <c r="DR2" t="n">
-        <v>339.6795654296875</v>
+        <v>415.5872192382812</v>
       </c>
       <c r="DS2" t="n">
-        <v>339.81298828125</v>
+        <v>413.2918090820312</v>
       </c>
       <c r="DT2" t="n">
-        <v>338.1939392089844</v>
+        <v>407.3126220703125</v>
       </c>
       <c r="DU2" t="n">
-        <v>335.4759216308594</v>
+        <v>403.17138671875</v>
       </c>
       <c r="DV2" t="n">
-        <v>331.1395874023438</v>
+        <v>399.3701782226562</v>
       </c>
       <c r="DW2" t="n">
-        <v>330.3017578125</v>
+        <v>394.4256896972656</v>
       </c>
       <c r="DX2" t="n">
-        <v>330.0799865722656</v>
+        <v>392.5863952636719</v>
       </c>
       <c r="DY2" t="n">
-        <v>328.4192504882812</v>
+        <v>388.4591369628906</v>
       </c>
       <c r="DZ2" t="n">
-        <v>327.8333129882812</v>
+        <v>388.257568359375</v>
       </c>
       <c r="EA2" t="n">
-        <v>328.2806091308594</v>
+        <v>388.5777282714844</v>
       </c>
       <c r="EB2" t="n">
-        <v>328.0960693359375</v>
+        <v>388.1600952148438</v>
       </c>
       <c r="EC2" t="n">
-        <v>327.6672058105469</v>
+        <v>387.0919189453125</v>
       </c>
       <c r="ED2" t="n">
-        <v>327.6717529296875</v>
+        <v>385.16796875</v>
       </c>
       <c r="EE2" t="n">
-        <v>327.7560119628906</v>
+        <v>384.0447998046875</v>
       </c>
       <c r="EF2" t="n">
-        <v>328.0809936523438</v>
+        <v>383.8329467773438</v>
       </c>
       <c r="EG2" t="n">
-        <v>328.5703125</v>
+        <v>385.3587036132812</v>
       </c>
       <c r="EH2" t="n">
-        <v>329.2459716796875</v>
+        <v>389.5158081054688</v>
       </c>
       <c r="EI2" t="n">
-        <v>329.7059631347656</v>
+        <v>391.7459106445312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>330.5431518554688</v>
+        <v>392.3946533203125</v>
       </c>
       <c r="EK2" t="n">
-        <v>330.4439086914062</v>
+        <v>393.2169189453125</v>
       </c>
       <c r="EL2" t="n">
-        <v>329.8025817871094</v>
+        <v>395.3874206542969</v>
       </c>
       <c r="EM2" t="n">
-        <v>328.6512756347656</v>
+        <v>402.8602294921875</v>
       </c>
       <c r="EN2" t="n">
-        <v>325.7535400390625</v>
+        <v>405.1207885742188</v>
       </c>
       <c r="EO2" t="n">
-        <v>324.1461791992188</v>
+        <v>407.1991577148438</v>
       </c>
       <c r="EP2" t="n">
-        <v>323.6139526367188</v>
+        <v>408.442626953125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>324.1624145507812</v>
+        <v>410.7721557617188</v>
       </c>
       <c r="ER2" t="n">
-        <v>325.0426635742188</v>
+        <v>411.8569641113281</v>
       </c>
       <c r="ES2" t="n">
-        <v>326.5060729980469</v>
+        <v>410.8678588867188</v>
       </c>
       <c r="ET2" t="n">
-        <v>327.0721130371094</v>
+        <v>398.5999755859375</v>
       </c>
       <c r="EU2" t="n">
-        <v>326.9864501953125</v>
+        <v>383.5400085449219</v>
       </c>
       <c r="EV2" t="n">
-        <v>325.9839477539062</v>
+        <v>372.4130859375</v>
       </c>
       <c r="EW2" t="n">
-        <v>325.2069091796875</v>
+        <v>361.9967041015625</v>
       </c>
       <c r="EX2" t="n">
-        <v>324.5581359863281</v>
+        <v>358.6593627929688</v>
       </c>
       <c r="EY2" t="n">
-        <v>324.3898315429688</v>
+        <v>352.3031005859375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>324.1965026855469</v>
+        <v>337.3764038085938</v>
       </c>
       <c r="FA2" t="n">
-        <v>324.18994140625</v>
+        <v>330.416259765625</v>
       </c>
       <c r="FB2" t="n">
-        <v>324.1625366210938</v>
+        <v>328.5650024414062</v>
       </c>
       <c r="FC2" t="n">
-        <v>324.0465698242188</v>
+        <v>331.6224365234375</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.8978576660156</v>
+        <v>333.9052124023438</v>
       </c>
       <c r="FE2" t="n">
-        <v>323.7154541015625</v>
+        <v>341.1700439453125</v>
       </c>
       <c r="FF2" t="n">
-        <v>323.6091613769531</v>
+        <v>346.1630554199219</v>
       </c>
       <c r="FG2" t="n">
-        <v>323.7615356445312</v>
+        <v>348.3023681640625</v>
       </c>
       <c r="FH2" t="n">
-        <v>323.847900390625</v>
+        <v>344.0377807617188</v>
       </c>
       <c r="FI2" t="n">
-        <v>324.0177001953125</v>
+        <v>344.0736083984375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>324.1946411132812</v>
+        <v>347.2289428710938</v>
       </c>
       <c r="FK2" t="n">
-        <v>324.1602783203125</v>
+        <v>357.5651550292969</v>
       </c>
       <c r="FL2" t="n">
-        <v>324.4789428710938</v>
+        <v>362.7178955078125</v>
       </c>
       <c r="FM2" t="n">
-        <v>324.6406555175781</v>
+        <v>373.0743713378906</v>
       </c>
       <c r="FN2" t="n">
-        <v>325.8788757324219</v>
+        <v>383.3453674316406</v>
       </c>
       <c r="FO2" t="n">
-        <v>327.0221252441406</v>
+        <v>386.6898803710938</v>
       </c>
       <c r="FP2" t="n">
-        <v>332.673095703125</v>
+        <v>390.971923828125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>337.7023315429688</v>
+        <v>402.8133544921875</v>
       </c>
       <c r="FR2" t="n">
-        <v>339.3060302734375</v>
+        <v>408.6678466796875</v>
       </c>
       <c r="FS2" t="n">
-        <v>343.8861083984375</v>
+        <v>414.95654296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>357.1967163085938</v>
+        <v>419.6222534179688</v>
       </c>
       <c r="FU2" t="n">
-        <v>363.7615356445312</v>
+        <v>422.127197265625</v>
       </c>
       <c r="FV2" t="n">
-        <v>376.356201171875</v>
+        <v>414.8521728515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>383.5159606933594</v>
+        <v>410.2412414550781</v>
       </c>
       <c r="FX2" t="n">
-        <v>394.0294799804688</v>
+        <v>406.3758544921875</v>
       </c>
       <c r="FY2" t="n">
-        <v>400.5193481445312</v>
+        <v>412.0198974609375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>404.7404479980469</v>
+        <v>420.5562133789062</v>
       </c>
       <c r="GA2" t="n">
-        <v>406.7061767578125</v>
+        <v>459.4681396484375</v>
       </c>
       <c r="GB2" t="n">
-        <v>409.14697265625</v>
+        <v>454.897705078125</v>
       </c>
       <c r="GC2" t="n">
-        <v>409.8993530273438</v>
+        <v>418.7083740234375</v>
       </c>
       <c r="GD2" t="n">
-        <v>412.0321044921875</v>
+        <v>399.7204284667969</v>
       </c>
       <c r="GE2" t="n">
-        <v>412.8102416992188</v>
+        <v>368.2762145996094</v>
       </c>
       <c r="GF2" t="n">
-        <v>405.716796875</v>
+        <v>355.7726440429688</v>
       </c>
       <c r="GG2" t="n">
-        <v>398.3809814453125</v>
+        <v>349.9096069335938</v>
       </c>
       <c r="GH2" t="n">
-        <v>388.7888793945312</v>
+        <v>348.6104125976562</v>
       </c>
       <c r="GI2" t="n">
-        <v>379.8827514648438</v>
+        <v>346.9801330566406</v>
       </c>
       <c r="GJ2" t="n">
-        <v>372.7246398925781</v>
+        <v>342.3970947265625</v>
       </c>
       <c r="GK2" t="n">
-        <v>369.2948608398438</v>
+        <v>316.8436584472656</v>
       </c>
       <c r="GL2" t="n">
-        <v>363.556884765625</v>
+        <v>312.1065979003906</v>
       </c>
       <c r="GM2" t="n">
-        <v>357.7889709472656</v>
+        <v>329.9971923828125</v>
       </c>
       <c r="GN2" t="n">
-        <v>350.5789184570312</v>
+        <v>331.4833984375</v>
       </c>
       <c r="GO2" t="n">
-        <v>351.3296508789062</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>352.6775512695312</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>352.7699279785156</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>353.6210632324219</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>354.3617248535156</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>381.0172119140625</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>406.7351684570312</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>427.3139038085938</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>440.711181640625</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>447.5105590820312</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>452.309814453125</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>466.4212646484375</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>356.5233764648438</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>361.7192077636719</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>376.6953125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>400.4903869628906</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>410.1400146484375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>413.72216796875</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>544.6642456054688</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>547.2708740234375</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>550.3108520507812</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>427.6849975585938</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>391.7901306152344</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>500.2980041503906</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>506.85205078125</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>491.5098266601562</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>460.0135498046875</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>445.7314758300781</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>448.7603149414062</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>462.009521484375</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>476.4233093261719</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>480.5626220703125</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>483.542236328125</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>372.449951171875</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>372.3080749511719</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>369.9042358398438</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>369.0669555664062</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>369.1309204101562</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>369.7332153320312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>485.4921264648438</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>482.9438781738281</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>481.3045654296875</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>480.8161010742188</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>502.3763732910156</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>506.0464172363281</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>505.865966796875</v>
-      </c>
-      <c r="II2" t="n">
-        <v>502.2291870117188</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>499.7881469726562</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>498.5140686035156</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>498.7439575195312</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>499.220947265625</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>499.0669250488281</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>500.9392700195312</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>502.2276306152344</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>503.3506774902344</v>
+        <v>322.546142578125</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>431.377685546875</v>
+        <v>484.7306518554688</v>
       </c>
       <c r="C3" t="n">
-        <v>422.1516723632812</v>
+        <v>467.9541931152344</v>
       </c>
       <c r="D3" t="n">
-        <v>415.6932373046875</v>
+        <v>452.7707824707031</v>
       </c>
       <c r="E3" t="n">
-        <v>411.38037109375</v>
+        <v>454.5784301757812</v>
       </c>
       <c r="F3" t="n">
-        <v>408.0105895996094</v>
+        <v>456.0327758789062</v>
       </c>
       <c r="G3" t="n">
-        <v>406.4452514648438</v>
+        <v>458.912841796875</v>
       </c>
       <c r="H3" t="n">
-        <v>407.6500244140625</v>
+        <v>464.3306884765625</v>
       </c>
       <c r="I3" t="n">
-        <v>408.5967712402344</v>
+        <v>467.2495727539062</v>
       </c>
       <c r="J3" t="n">
-        <v>408.7001037597656</v>
+        <v>467.8738708496094</v>
       </c>
       <c r="K3" t="n">
-        <v>407.7142639160156</v>
+        <v>468.4873046875</v>
       </c>
       <c r="L3" t="n">
-        <v>409.1340637207031</v>
+        <v>468.9816284179688</v>
       </c>
       <c r="M3" t="n">
-        <v>410.4117736816406</v>
+        <v>469.3548889160156</v>
       </c>
       <c r="N3" t="n">
-        <v>409.7257385253906</v>
+        <v>469.9127197265625</v>
       </c>
       <c r="O3" t="n">
-        <v>404.546875</v>
+        <v>469.4072875976562</v>
       </c>
       <c r="P3" t="n">
-        <v>399.2563171386719</v>
+        <v>469.3752746582031</v>
       </c>
       <c r="Q3" t="n">
-        <v>395.47021484375</v>
+        <v>469.3054504394531</v>
       </c>
       <c r="R3" t="n">
-        <v>395.2625732421875</v>
+        <v>469.3121032714844</v>
       </c>
       <c r="S3" t="n">
-        <v>395.3264465332031</v>
+        <v>469.3451843261719</v>
       </c>
       <c r="T3" t="n">
-        <v>395.4851989746094</v>
+        <v>469.3320922851562</v>
       </c>
       <c r="U3" t="n">
-        <v>395.7503356933594</v>
+        <v>469.3080749511719</v>
       </c>
       <c r="V3" t="n">
-        <v>395.890380859375</v>
+        <v>469.2849731445312</v>
       </c>
       <c r="W3" t="n">
-        <v>395.6794738769531</v>
+        <v>469.0426635742188</v>
       </c>
       <c r="X3" t="n">
-        <v>394.993408203125</v>
+        <v>468.7914733886719</v>
       </c>
       <c r="Y3" t="n">
-        <v>394.5572509765625</v>
+        <v>468.4339904785156</v>
       </c>
       <c r="Z3" t="n">
-        <v>394.0987548828125</v>
+        <v>467.5841674804688</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.5419006347656</v>
+        <v>466.6766357421875</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.604736328125</v>
+        <v>465.822021484375</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.8757019042969</v>
+        <v>464.1421508789062</v>
       </c>
       <c r="AD3" t="n">
-        <v>397.2849426269531</v>
+        <v>461.7859497070312</v>
       </c>
       <c r="AE3" t="n">
-        <v>397.6554870605469</v>
+        <v>461.31005859375</v>
       </c>
       <c r="AF3" t="n">
-        <v>398.048095703125</v>
+        <v>460.9634399414062</v>
       </c>
       <c r="AG3" t="n">
-        <v>398.2040100097656</v>
+        <v>461.0695190429688</v>
       </c>
       <c r="AH3" t="n">
-        <v>398.5848999023438</v>
+        <v>461.1614074707031</v>
       </c>
       <c r="AI3" t="n">
-        <v>399.8116760253906</v>
+        <v>460.9684753417969</v>
       </c>
       <c r="AJ3" t="n">
-        <v>400.64111328125</v>
+        <v>460.7943725585938</v>
       </c>
       <c r="AK3" t="n">
-        <v>400.75341796875</v>
+        <v>460.6624755859375</v>
       </c>
       <c r="AL3" t="n">
-        <v>400.4696960449219</v>
+        <v>460.395751953125</v>
       </c>
       <c r="AM3" t="n">
-        <v>400.1240539550781</v>
+        <v>460.5118103027344</v>
       </c>
       <c r="AN3" t="n">
-        <v>397.71240234375</v>
+        <v>460.5234375</v>
       </c>
       <c r="AO3" t="n">
-        <v>396.1043701171875</v>
+        <v>460.5513916015625</v>
       </c>
       <c r="AP3" t="n">
-        <v>396.2208251953125</v>
+        <v>460.8071899414062</v>
       </c>
       <c r="AQ3" t="n">
-        <v>395.9114990234375</v>
+        <v>460.6122741699219</v>
       </c>
       <c r="AR3" t="n">
-        <v>396.4574890136719</v>
+        <v>459.7956237792969</v>
       </c>
       <c r="AS3" t="n">
-        <v>397.6169128417969</v>
+        <v>458.7758483886719</v>
       </c>
       <c r="AT3" t="n">
-        <v>398.615234375</v>
+        <v>456.0439453125</v>
       </c>
       <c r="AU3" t="n">
-        <v>399.0984191894531</v>
+        <v>453.3197937011719</v>
       </c>
       <c r="AV3" t="n">
-        <v>399.4052429199219</v>
+        <v>452.0284423828125</v>
       </c>
       <c r="AW3" t="n">
-        <v>399.6805419921875</v>
+        <v>451.2551574707031</v>
       </c>
       <c r="AX3" t="n">
-        <v>400.191162109375</v>
+        <v>451.2804870605469</v>
       </c>
       <c r="AY3" t="n">
-        <v>400.6043395996094</v>
+        <v>451.0019226074219</v>
       </c>
       <c r="AZ3" t="n">
-        <v>401.041748046875</v>
+        <v>448.4784545898438</v>
       </c>
       <c r="BA3" t="n">
-        <v>401.5052490234375</v>
+        <v>444.9931640625</v>
       </c>
       <c r="BB3" t="n">
-        <v>401.9055786132812</v>
+        <v>444.0553588867188</v>
       </c>
       <c r="BC3" t="n">
-        <v>402.3870849609375</v>
+        <v>440.0140075683594</v>
       </c>
       <c r="BD3" t="n">
-        <v>402.5718078613281</v>
+        <v>438.6685180664062</v>
       </c>
       <c r="BE3" t="n">
-        <v>402.6207580566406</v>
+        <v>436.594970703125</v>
       </c>
       <c r="BF3" t="n">
-        <v>402.7174987792969</v>
+        <v>435.7300720214844</v>
       </c>
       <c r="BG3" t="n">
-        <v>402.8717346191406</v>
+        <v>435.4393005371094</v>
       </c>
       <c r="BH3" t="n">
-        <v>403.1084289550781</v>
+        <v>434.7615661621094</v>
       </c>
       <c r="BI3" t="n">
-        <v>403.1213684082031</v>
+        <v>434.955322265625</v>
       </c>
       <c r="BJ3" t="n">
-        <v>403.4765625</v>
+        <v>435.9771423339844</v>
       </c>
       <c r="BK3" t="n">
-        <v>403.877197265625</v>
+        <v>437.0875549316406</v>
       </c>
       <c r="BL3" t="n">
-        <v>404.1228942871094</v>
+        <v>437.85595703125</v>
       </c>
       <c r="BM3" t="n">
-        <v>404.4592895507812</v>
+        <v>441.1204223632812</v>
       </c>
       <c r="BN3" t="n">
-        <v>404.5224304199219</v>
+        <v>440.3996887207031</v>
       </c>
       <c r="BO3" t="n">
-        <v>404.1434631347656</v>
+        <v>441.1919860839844</v>
       </c>
       <c r="BP3" t="n">
-        <v>403.9502258300781</v>
+        <v>446.1388854980469</v>
       </c>
       <c r="BQ3" t="n">
-        <v>403.8099670410156</v>
+        <v>449.4378967285156</v>
       </c>
       <c r="BR3" t="n">
-        <v>401.8475036621094</v>
+        <v>450.8498229980469</v>
       </c>
       <c r="BS3" t="n">
-        <v>401.7536010742188</v>
+        <v>449.9983520507812</v>
       </c>
       <c r="BT3" t="n">
-        <v>402.5213317871094</v>
+        <v>449.1259460449219</v>
       </c>
       <c r="BU3" t="n">
-        <v>400.9651184082031</v>
+        <v>449.1984558105469</v>
       </c>
       <c r="BV3" t="n">
-        <v>399.5324401855469</v>
+        <v>449.2935791015625</v>
       </c>
       <c r="BW3" t="n">
-        <v>398.6450805664062</v>
+        <v>449.8480224609375</v>
       </c>
       <c r="BX3" t="n">
-        <v>398.34033203125</v>
+        <v>451.7474670410156</v>
       </c>
       <c r="BY3" t="n">
-        <v>398.6211547851562</v>
+        <v>453.0713806152344</v>
       </c>
       <c r="BZ3" t="n">
-        <v>395.9796752929688</v>
+        <v>454.5502014160156</v>
       </c>
       <c r="CA3" t="n">
-        <v>393.1087951660156</v>
+        <v>454.5318298339844</v>
       </c>
       <c r="CB3" t="n">
-        <v>392.7891540527344</v>
+        <v>454.2005004882812</v>
       </c>
       <c r="CC3" t="n">
-        <v>393.2367858886719</v>
+        <v>453.6467895507812</v>
       </c>
       <c r="CD3" t="n">
-        <v>393.8930358886719</v>
+        <v>452.7909851074219</v>
       </c>
       <c r="CE3" t="n">
-        <v>395.9835205078125</v>
+        <v>451.925537109375</v>
       </c>
       <c r="CF3" t="n">
-        <v>397.5956115722656</v>
+        <v>449.481689453125</v>
       </c>
       <c r="CG3" t="n">
-        <v>397.2166442871094</v>
+        <v>444.4725952148438</v>
       </c>
       <c r="CH3" t="n">
-        <v>395.7823791503906</v>
+        <v>438.1286926269531</v>
       </c>
       <c r="CI3" t="n">
-        <v>393.0786437988281</v>
+        <v>429.4882202148438</v>
       </c>
       <c r="CJ3" t="n">
-        <v>388.1145324707031</v>
+        <v>424.5042419433594</v>
       </c>
       <c r="CK3" t="n">
-        <v>385.5276794433594</v>
+        <v>422.2257995605469</v>
       </c>
       <c r="CL3" t="n">
-        <v>382.1190185546875</v>
+        <v>421.9543151855469</v>
       </c>
       <c r="CM3" t="n">
-        <v>382.1011047363281</v>
+        <v>423.50634765625</v>
       </c>
       <c r="CN3" t="n">
-        <v>382.1518859863281</v>
+        <v>425.8989868164062</v>
       </c>
       <c r="CO3" t="n">
-        <v>382.0206298828125</v>
+        <v>427.2512817382812</v>
       </c>
       <c r="CP3" t="n">
-        <v>381.8871459960938</v>
+        <v>430.2154541015625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>381.8076171875</v>
+        <v>430.9322814941406</v>
       </c>
       <c r="CR3" t="n">
-        <v>381.7157592773438</v>
+        <v>432.2967224121094</v>
       </c>
       <c r="CS3" t="n">
-        <v>381.6638488769531</v>
+        <v>431.9036254882812</v>
       </c>
       <c r="CT3" t="n">
-        <v>381.36181640625</v>
+        <v>431.4577941894531</v>
       </c>
       <c r="CU3" t="n">
-        <v>380.8565063476562</v>
+        <v>431.5875549316406</v>
       </c>
       <c r="CV3" t="n">
-        <v>380.2301025390625</v>
+        <v>431.5364685058594</v>
       </c>
       <c r="CW3" t="n">
-        <v>379.7135925292969</v>
+        <v>432.38525390625</v>
       </c>
       <c r="CX3" t="n">
-        <v>379.6996765136719</v>
+        <v>431.9841918945312</v>
       </c>
       <c r="CY3" t="n">
-        <v>379.2954711914062</v>
+        <v>432.0480041503906</v>
       </c>
       <c r="CZ3" t="n">
-        <v>378.9364929199219</v>
+        <v>431.973876953125</v>
       </c>
       <c r="DA3" t="n">
-        <v>378.5357055664062</v>
+        <v>431.6784362792969</v>
       </c>
       <c r="DB3" t="n">
-        <v>378.136474609375</v>
+        <v>431.9776611328125</v>
       </c>
       <c r="DC3" t="n">
-        <v>378.2654113769531</v>
+        <v>432.138916015625</v>
       </c>
       <c r="DD3" t="n">
-        <v>379.0158996582031</v>
+        <v>432.1821899414062</v>
       </c>
       <c r="DE3" t="n">
-        <v>379.8667297363281</v>
+        <v>431.8914489746094</v>
       </c>
       <c r="DF3" t="n">
-        <v>381.6070861816406</v>
+        <v>431.7575073242188</v>
       </c>
       <c r="DG3" t="n">
-        <v>384.144287109375</v>
+        <v>431.4644775390625</v>
       </c>
       <c r="DH3" t="n">
-        <v>385.1557312011719</v>
+        <v>431.4449768066406</v>
       </c>
       <c r="DI3" t="n">
-        <v>387.4521179199219</v>
+        <v>431.6905517578125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>387.2378234863281</v>
+        <v>432.1921997070312</v>
       </c>
       <c r="DK3" t="n">
-        <v>386.9964904785156</v>
+        <v>433.6443176269531</v>
       </c>
       <c r="DL3" t="n">
-        <v>386.1986389160156</v>
+        <v>435.8019714355469</v>
       </c>
       <c r="DM3" t="n">
-        <v>385.303466796875</v>
+        <v>436.6223449707031</v>
       </c>
       <c r="DN3" t="n">
-        <v>383.5834045410156</v>
+        <v>437.3750305175781</v>
       </c>
       <c r="DO3" t="n">
-        <v>382.6248779296875</v>
+        <v>439.5726928710938</v>
       </c>
       <c r="DP3" t="n">
-        <v>381.5753784179688</v>
+        <v>440.2077331542969</v>
       </c>
       <c r="DQ3" t="n">
-        <v>381.8936157226562</v>
+        <v>433.1316833496094</v>
       </c>
       <c r="DR3" t="n">
-        <v>381.9192810058594</v>
+        <v>422.5287475585938</v>
       </c>
       <c r="DS3" t="n">
-        <v>381.9647521972656</v>
+        <v>414.6763305664062</v>
       </c>
       <c r="DT3" t="n">
-        <v>381.5279541015625</v>
+        <v>398.7597961425781</v>
       </c>
       <c r="DU3" t="n">
-        <v>380.8185424804688</v>
+        <v>392.4977722167969</v>
       </c>
       <c r="DV3" t="n">
-        <v>379.8056945800781</v>
+        <v>385.3739318847656</v>
       </c>
       <c r="DW3" t="n">
-        <v>379.6126403808594</v>
+        <v>371.5132446289062</v>
       </c>
       <c r="DX3" t="n">
-        <v>379.567626953125</v>
+        <v>365.1045532226562</v>
       </c>
       <c r="DY3" t="n">
-        <v>379.2801208496094</v>
+        <v>362.2078857421875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>379.2367553710938</v>
+        <v>361.8685302734375</v>
       </c>
       <c r="EA3" t="n">
-        <v>379.4754638671875</v>
+        <v>363.3895568847656</v>
       </c>
       <c r="EB3" t="n">
-        <v>379.7657165527344</v>
+        <v>375.8397216796875</v>
       </c>
       <c r="EC3" t="n">
-        <v>379.6677551269531</v>
+        <v>383.5495910644531</v>
       </c>
       <c r="ED3" t="n">
-        <v>379.6705017089844</v>
+        <v>397.8036499023438</v>
       </c>
       <c r="EE3" t="n">
-        <v>379.7009887695312</v>
+        <v>414.4201049804688</v>
       </c>
       <c r="EF3" t="n">
-        <v>379.8561096191406</v>
+        <v>418.2527465820312</v>
       </c>
       <c r="EG3" t="n">
-        <v>380.5769653320312</v>
+        <v>433.6868286132812</v>
       </c>
       <c r="EH3" t="n">
-        <v>381.7457275390625</v>
+        <v>451.2689819335938</v>
       </c>
       <c r="EI3" t="n">
-        <v>382.7215881347656</v>
+        <v>450.6240539550781</v>
       </c>
       <c r="EJ3" t="n">
-        <v>386.3144836425781</v>
+        <v>450.0890197753906</v>
       </c>
       <c r="EK3" t="n">
-        <v>390.3150939941406</v>
+        <v>449.4610290527344</v>
       </c>
       <c r="EL3" t="n">
-        <v>396.2188415527344</v>
+        <v>447.2866516113281</v>
       </c>
       <c r="EM3" t="n">
-        <v>391.6456909179688</v>
+        <v>441.1395874023438</v>
       </c>
       <c r="EN3" t="n">
-        <v>393.9846801757812</v>
+        <v>438.3379516601562</v>
       </c>
       <c r="EO3" t="n">
-        <v>396.5547485351562</v>
+        <v>436.0698852539062</v>
       </c>
       <c r="EP3" t="n">
-        <v>396.8615112304688</v>
+        <v>436.0740356445312</v>
       </c>
       <c r="EQ3" t="n">
-        <v>397.3171691894531</v>
+        <v>436.5595703125</v>
       </c>
       <c r="ER3" t="n">
-        <v>396.9768981933594</v>
+        <v>437.1340637207031</v>
       </c>
       <c r="ES3" t="n">
-        <v>396.8005981445312</v>
+        <v>440.7670593261719</v>
       </c>
       <c r="ET3" t="n">
-        <v>396.9950256347656</v>
+        <v>464.9387512207031</v>
       </c>
       <c r="EU3" t="n">
-        <v>396.9267883300781</v>
+        <v>483.2796020507812</v>
       </c>
       <c r="EV3" t="n">
-        <v>397.1278381347656</v>
+        <v>491.2484130859375</v>
       </c>
       <c r="EW3" t="n">
-        <v>397.5791320800781</v>
+        <v>497.7214660644531</v>
       </c>
       <c r="EX3" t="n">
-        <v>398.3408508300781</v>
+        <v>504.0523376464844</v>
       </c>
       <c r="EY3" t="n">
-        <v>399.2288818359375</v>
+        <v>511.2709350585938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>401.7196350097656</v>
+        <v>514.5565185546875</v>
       </c>
       <c r="FA3" t="n">
-        <v>403.5263061523438</v>
+        <v>512.8902587890625</v>
       </c>
       <c r="FB3" t="n">
-        <v>403.9810791015625</v>
+        <v>510.2985229492188</v>
       </c>
       <c r="FC3" t="n">
-        <v>404.62158203125</v>
+        <v>503.2249145507812</v>
       </c>
       <c r="FD3" t="n">
-        <v>404.6001281738281</v>
+        <v>498.6770324707031</v>
       </c>
       <c r="FE3" t="n">
-        <v>403.6260070800781</v>
+        <v>485.4255981445312</v>
       </c>
       <c r="FF3" t="n">
-        <v>402.7955322265625</v>
+        <v>481.0807800292969</v>
       </c>
       <c r="FG3" t="n">
-        <v>401.6686401367188</v>
+        <v>475.8760986328125</v>
       </c>
       <c r="FH3" t="n">
-        <v>400.8270874023438</v>
+        <v>463.9073486328125</v>
       </c>
       <c r="FI3" t="n">
-        <v>399.0907897949219</v>
+        <v>461.2972412109375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>397.7974548339844</v>
+        <v>461.9416198730469</v>
       </c>
       <c r="FK3" t="n">
-        <v>397.8315124511719</v>
+        <v>462.6963195800781</v>
       </c>
       <c r="FL3" t="n">
-        <v>396.0095825195312</v>
+        <v>464.3082275390625</v>
       </c>
       <c r="FM3" t="n">
-        <v>394.8924255371094</v>
+        <v>468.5761108398438</v>
       </c>
       <c r="FN3" t="n">
-        <v>389.290283203125</v>
+        <v>470.0140075683594</v>
       </c>
       <c r="FO3" t="n">
-        <v>389.8228149414062</v>
+        <v>471.8381958007812</v>
       </c>
       <c r="FP3" t="n">
-        <v>392.9058532714844</v>
+        <v>475.8425903320312</v>
       </c>
       <c r="FQ3" t="n">
-        <v>396.0535278320312</v>
+        <v>485.6046752929688</v>
       </c>
       <c r="FR3" t="n">
-        <v>397.1646118164062</v>
+        <v>488.6449890136719</v>
       </c>
       <c r="FS3" t="n">
-        <v>400.532470703125</v>
+        <v>488.0474853515625</v>
       </c>
       <c r="FT3" t="n">
-        <v>406.0986328125</v>
+        <v>489.9641418457031</v>
       </c>
       <c r="FU3" t="n">
-        <v>408.718994140625</v>
+        <v>485.5210266113281</v>
       </c>
       <c r="FV3" t="n">
-        <v>409.4404907226562</v>
+        <v>511.2531127929688</v>
       </c>
       <c r="FW3" t="n">
-        <v>410.7276916503906</v>
+        <v>514.3193969726562</v>
       </c>
       <c r="FX3" t="n">
-        <v>406.9372253417969</v>
+        <v>518.0989990234375</v>
       </c>
       <c r="FY3" t="n">
-        <v>403.9753723144531</v>
+        <v>531.8871459960938</v>
       </c>
       <c r="FZ3" t="n">
-        <v>400.4591674804688</v>
+        <v>529.2163696289062</v>
       </c>
       <c r="GA3" t="n">
-        <v>400.7171325683594</v>
+        <v>538.7107543945312</v>
       </c>
       <c r="GB3" t="n">
-        <v>401.8063659667969</v>
+        <v>547.6062622070312</v>
       </c>
       <c r="GC3" t="n">
-        <v>402.7428283691406</v>
+        <v>570.8629150390625</v>
       </c>
       <c r="GD3" t="n">
-        <v>405.6632690429688</v>
+        <v>576.218994140625</v>
       </c>
       <c r="GE3" t="n">
-        <v>406.2796630859375</v>
+        <v>577.6672973632812</v>
       </c>
       <c r="GF3" t="n">
-        <v>402.6977233886719</v>
+        <v>559.496826171875</v>
       </c>
       <c r="GG3" t="n">
-        <v>409.4428100585938</v>
+        <v>555.6547241210938</v>
       </c>
       <c r="GH3" t="n">
-        <v>413.2887268066406</v>
+        <v>563.1505126953125</v>
       </c>
       <c r="GI3" t="n">
-        <v>412.5702209472656</v>
+        <v>565.3736572265625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>418.7596740722656</v>
+        <v>565.8823852539062</v>
       </c>
       <c r="GK3" t="n">
-        <v>421.8856811523438</v>
+        <v>564.8587036132812</v>
       </c>
       <c r="GL3" t="n">
-        <v>422.3838195800781</v>
+        <v>562.707275390625</v>
       </c>
       <c r="GM3" t="n">
-        <v>424.4165649414062</v>
+        <v>559.4744262695312</v>
       </c>
       <c r="GN3" t="n">
-        <v>423.30908203125</v>
+        <v>572.3209838867188</v>
       </c>
       <c r="GO3" t="n">
-        <v>425.5296020507812</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>429.6705322265625</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>432.9781799316406</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>441.8153076171875</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>449.2504577636719</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>458.9507751464844</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>487.470947265625</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>497.9720458984375</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>503.282958984375</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>512.9609375</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>593.2871704101562</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>621.8746337890625</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>664.655517578125</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>677.8492431640625</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>673.152587890625</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>657.01416015625</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>646.2039184570312</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>641.911865234375</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>655.5263671875</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>687.2330322265625</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>692.42236328125</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>662.0685424804688</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>593.4447631835938</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>693.3929443359375</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>733.9410400390625</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>744.4310913085938</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>740.150634765625</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>743.4496459960938</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>752.8428344726562</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>757.2012329101562</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>738.6714477539062</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>739.8474731445312</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>740.7334594726562</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>665.105712890625</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>665.2276000976562</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>666.6155395507812</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>666.9173583984375</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>666.8856811523438</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>666.5488891601562</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>737.1972045898438</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>732.408203125</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>726.1787109375</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>725.5338745117188</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>706.2949829101562</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>692.3187866210938</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>692.1622924804688</v>
-      </c>
-      <c r="II3" t="n">
-        <v>689.4231567382812</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>687.7077026367188</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>686.8397827148438</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>686.9915161132812</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>687.3004760742188</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>687.2020263671875</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>688.4111328125</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>689.2564697265625</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>690.0050659179688</v>
+        <v>584.9337768554688</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1294.062255859375</v>
+        <v>1009.883666992188</v>
       </c>
       <c r="C4" t="n">
-        <v>1285.595336914062</v>
+        <v>1033.908813476562</v>
       </c>
       <c r="D4" t="n">
-        <v>1286.918579101562</v>
+        <v>1028.939697265625</v>
       </c>
       <c r="E4" t="n">
-        <v>1283.603149414062</v>
+        <v>1029.765869140625</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.989501953125</v>
+        <v>1028.98046875</v>
       </c>
       <c r="G4" t="n">
-        <v>1272.95654296875</v>
+        <v>1028.410400390625</v>
       </c>
       <c r="H4" t="n">
-        <v>1261.589233398438</v>
+        <v>1028.528442382812</v>
       </c>
       <c r="I4" t="n">
-        <v>1250.647705078125</v>
+        <v>1028.580932617188</v>
       </c>
       <c r="J4" t="n">
-        <v>1240.668090820312</v>
+        <v>1028.660400390625</v>
       </c>
       <c r="K4" t="n">
-        <v>1238.739135742188</v>
+        <v>1028.79248046875</v>
       </c>
       <c r="L4" t="n">
-        <v>1237.394897460938</v>
+        <v>1029.01220703125</v>
       </c>
       <c r="M4" t="n">
-        <v>1232.799926757812</v>
+        <v>1029.151245117188</v>
       </c>
       <c r="N4" t="n">
-        <v>1228.103881835938</v>
+        <v>1029.06396484375</v>
       </c>
       <c r="O4" t="n">
-        <v>1226.431030273438</v>
+        <v>1028.977172851562</v>
       </c>
       <c r="P4" t="n">
-        <v>1225.819091796875</v>
+        <v>1029.099487304688</v>
       </c>
       <c r="Q4" t="n">
-        <v>1223.566650390625</v>
+        <v>1029.188598632812</v>
       </c>
       <c r="R4" t="n">
-        <v>1219.53173828125</v>
+        <v>1029.05029296875</v>
       </c>
       <c r="S4" t="n">
-        <v>1218.468994140625</v>
+        <v>1028.851806640625</v>
       </c>
       <c r="T4" t="n">
-        <v>1215.894653320312</v>
+        <v>1028.871337890625</v>
       </c>
       <c r="U4" t="n">
-        <v>1211.949951171875</v>
+        <v>1028.855346679688</v>
       </c>
       <c r="V4" t="n">
-        <v>1207.5009765625</v>
+        <v>1028.85400390625</v>
       </c>
       <c r="W4" t="n">
-        <v>1204.550903320312</v>
+        <v>1028.913452148438</v>
       </c>
       <c r="X4" t="n">
-        <v>1204.35107421875</v>
+        <v>1028.911865234375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1202.36279296875</v>
+        <v>1028.91015625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1196.58251953125</v>
+        <v>1028.908325195312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.9580078125</v>
+        <v>1028.943969726562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1178.275390625</v>
+        <v>1028.991333007812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.457275390625</v>
+        <v>1029.094482421875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1176.271606445312</v>
+        <v>1029.371826171875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1175.883422851562</v>
+        <v>1029.713623046875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1175.83642578125</v>
+        <v>1030.0439453125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1175.877197265625</v>
+        <v>1030.413818359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1172.010375976562</v>
+        <v>1030.698852539062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1160.010498046875</v>
+        <v>1031.461059570312</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1149.793579101562</v>
+        <v>1032.114135742188</v>
       </c>
       <c r="AK4" t="n">
-        <v>1142.9619140625</v>
+        <v>1032.798828125</v>
       </c>
       <c r="AL4" t="n">
-        <v>1133.946166992188</v>
+        <v>1034.533813476562</v>
       </c>
       <c r="AM4" t="n">
-        <v>1127.02001953125</v>
+        <v>1034.383911132812</v>
       </c>
       <c r="AN4" t="n">
-        <v>1125.296630859375</v>
+        <v>1034.320556640625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1122.845825195312</v>
+        <v>1034.199462890625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1119.866333007812</v>
+        <v>1034.212280273438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1115.578735351562</v>
+        <v>1034.633544921875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1112.181274414062</v>
+        <v>1034.320434570312</v>
       </c>
       <c r="AS4" t="n">
-        <v>1106.609375</v>
+        <v>1034.224853515625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1102.114501953125</v>
+        <v>1035.202758789062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1100.950073242188</v>
+        <v>1035.77880859375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1100.287719726562</v>
+        <v>1035.743286132812</v>
       </c>
       <c r="AW4" t="n">
-        <v>1098.494750976562</v>
+        <v>1036.6015625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1096.928344726562</v>
+        <v>1036.611328125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1095.427612304688</v>
+        <v>1038.912719726562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1093.72412109375</v>
+        <v>1045.605590820312</v>
       </c>
       <c r="BA4" t="n">
-        <v>1091.415893554688</v>
+        <v>1060.684204101562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1088.69775390625</v>
+        <v>1073.336547851562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1086.29638671875</v>
+        <v>1080.813720703125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1084.296875</v>
+        <v>1082.906127929688</v>
       </c>
       <c r="BE4" t="n">
-        <v>1084.145141601562</v>
+        <v>1086.175048828125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1084.422729492188</v>
+        <v>1090.187744140625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1084.509887695312</v>
+        <v>1092.628051757812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1084.500366210938</v>
+        <v>1099.774291992188</v>
       </c>
       <c r="BI4" t="n">
-        <v>1084.860229492188</v>
+        <v>1099.6806640625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1084.520751953125</v>
+        <v>1098.88916015625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1083.742309570312</v>
+        <v>1098.017944335938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1082.506103515625</v>
+        <v>1098.535400390625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1080.56298828125</v>
+        <v>1099.172973632812</v>
       </c>
       <c r="BN4" t="n">
-        <v>1077.083251953125</v>
+        <v>1096.449951171875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1071.071411132812</v>
+        <v>1094.737548828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1063.203125</v>
+        <v>1088.790283203125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1054.256958007812</v>
+        <v>1085.283203125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1048.933349609375</v>
+        <v>1081.3837890625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1041.47119140625</v>
+        <v>1081.134643554688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1038.143188476562</v>
+        <v>1077.619995117188</v>
       </c>
       <c r="BU4" t="n">
-        <v>1038.591674804688</v>
+        <v>1075.677856445312</v>
       </c>
       <c r="BV4" t="n">
-        <v>1038.671997070312</v>
+        <v>1075.358520507812</v>
       </c>
       <c r="BW4" t="n">
-        <v>1037.258056640625</v>
+        <v>1076.316040039062</v>
       </c>
       <c r="BX4" t="n">
-        <v>1034.187744140625</v>
+        <v>1076.624877929688</v>
       </c>
       <c r="BY4" t="n">
-        <v>1031.00439453125</v>
+        <v>1077.185302734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1028.029418945312</v>
+        <v>1076.66015625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1027.584838867188</v>
+        <v>1077.271606445312</v>
       </c>
       <c r="CB4" t="n">
-        <v>1026.79931640625</v>
+        <v>1078.384643554688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1023.314514160156</v>
+        <v>1079.59326171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1015.616149902344</v>
+        <v>1080.994506835938</v>
       </c>
       <c r="CE4" t="n">
-        <v>999.5664672851562</v>
+        <v>1083.129760742188</v>
       </c>
       <c r="CF4" t="n">
-        <v>987.6178588867188</v>
+        <v>1085.9541015625</v>
       </c>
       <c r="CG4" t="n">
-        <v>988.93359375</v>
+        <v>1087.41552734375</v>
       </c>
       <c r="CH4" t="n">
-        <v>992.3262329101562</v>
+        <v>1087.203979492188</v>
       </c>
       <c r="CI4" t="n">
-        <v>996.8176879882812</v>
+        <v>1087.700805664062</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1001.234619140625</v>
+        <v>1088.50439453125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1003.951965332031</v>
+        <v>1090.305297851562</v>
       </c>
       <c r="CL4" t="n">
-        <v>1009.118530273438</v>
+        <v>1091.879150390625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1010.6669921875</v>
+        <v>1095.480590820312</v>
       </c>
       <c r="CN4" t="n">
-        <v>1010.738037109375</v>
+        <v>1104.545166015625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1012.254028320312</v>
+        <v>1110.22802734375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1013.15966796875</v>
+        <v>1113.394775390625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1013.785827636719</v>
+        <v>1114.773193359375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1014.524658203125</v>
+        <v>1111.344970703125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1015.236755371094</v>
+        <v>1111.726196289062</v>
       </c>
       <c r="CT4" t="n">
-        <v>1015.733825683594</v>
+        <v>1111.714111328125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1016.912231445312</v>
+        <v>1109.893188476562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1018.710205078125</v>
+        <v>1110.057250976562</v>
       </c>
       <c r="CW4" t="n">
-        <v>1020.556335449219</v>
+        <v>1105.529418945312</v>
       </c>
       <c r="CX4" t="n">
-        <v>1020.263488769531</v>
+        <v>1107.70947265625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1019.772277832031</v>
+        <v>1107.438842773438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1019.415893554688</v>
+        <v>1107.790649414062</v>
       </c>
       <c r="DA4" t="n">
-        <v>1019.213012695312</v>
+        <v>1109.296997070312</v>
       </c>
       <c r="DB4" t="n">
-        <v>1019.006896972656</v>
+        <v>1107.924438476562</v>
       </c>
       <c r="DC4" t="n">
-        <v>1018.455810546875</v>
+        <v>1107.177978515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1017.180114746094</v>
+        <v>1107.031372070312</v>
       </c>
       <c r="DE4" t="n">
-        <v>1015.847290039062</v>
+        <v>1108.540893554688</v>
       </c>
       <c r="DF4" t="n">
-        <v>1016.083129882812</v>
+        <v>1109.231079101562</v>
       </c>
       <c r="DG4" t="n">
-        <v>1017.28515625</v>
+        <v>1110.696411132812</v>
       </c>
       <c r="DH4" t="n">
-        <v>1017.483093261719</v>
+        <v>1109.296142578125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1017.840698242188</v>
+        <v>1106.670654296875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1017.857543945312</v>
+        <v>1102.447875976562</v>
       </c>
       <c r="DK4" t="n">
-        <v>1017.965942382812</v>
+        <v>1094.597534179688</v>
       </c>
       <c r="DL4" t="n">
-        <v>1019.353210449219</v>
+        <v>1082.260620117188</v>
       </c>
       <c r="DM4" t="n">
-        <v>1020.666442871094</v>
+        <v>1077.224975585938</v>
       </c>
       <c r="DN4" t="n">
-        <v>1021.330688476562</v>
+        <v>1071.951416015625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1020.573486328125</v>
+        <v>1058.140747070312</v>
       </c>
       <c r="DP4" t="n">
-        <v>1019.654113769531</v>
+        <v>1052.068969726562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1018.721862792969</v>
+        <v>1048.083984375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1018.616088867188</v>
+        <v>1049.56494140625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1018.526733398438</v>
+        <v>1051.860473632812</v>
       </c>
       <c r="DT4" t="n">
-        <v>1019.317077636719</v>
+        <v>1069.2958984375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1020.67919921875</v>
+        <v>1086.736328125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1023.056579589844</v>
+        <v>1097.5126953125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1023.78662109375</v>
+        <v>1115.88037109375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1024.280517578125</v>
+        <v>1123.16845703125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1025.870239257812</v>
+        <v>1135.238159179688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1026.289306640625</v>
+        <v>1139.98291015625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1025.814697265625</v>
+        <v>1145.654663085938</v>
       </c>
       <c r="EB4" t="n">
-        <v>1025.120727539062</v>
+        <v>1149.641723632812</v>
       </c>
       <c r="EC4" t="n">
-        <v>1025.429565429688</v>
+        <v>1153.91259765625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1025.455444335938</v>
+        <v>1162.365112304688</v>
       </c>
       <c r="EE4" t="n">
-        <v>1025.434692382812</v>
+        <v>1181.549926757812</v>
       </c>
       <c r="EF4" t="n">
-        <v>1025.2900390625</v>
+        <v>1190.282592773438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1025.071166992188</v>
+        <v>1195.646240234375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1024.759887695312</v>
+        <v>1205.66845703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1024.531494140625</v>
+        <v>1222.179809570312</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1024.173583984375</v>
+        <v>1239.556640625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1024.248168945312</v>
+        <v>1253.386108398438</v>
       </c>
       <c r="EL4" t="n">
-        <v>1023.631591796875</v>
+        <v>1264.41796875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1022.231384277344</v>
+        <v>1277.427368164062</v>
       </c>
       <c r="EN4" t="n">
-        <v>1021.732482910156</v>
+        <v>1282.208984375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1018.946228027344</v>
+        <v>1285.138671875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1013.750244140625</v>
+        <v>1283.137817382812</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1005.958435058594</v>
+        <v>1278.700439453125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1006.865295410156</v>
+        <v>1275.220825195312</v>
       </c>
       <c r="ES4" t="n">
-        <v>1009.013549804688</v>
+        <v>1273.29345703125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1010.33544921875</v>
+        <v>1273.000122070312</v>
       </c>
       <c r="EU4" t="n">
-        <v>1010.927795410156</v>
+        <v>1273.400512695312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1009.982055664062</v>
+        <v>1274.670043945312</v>
       </c>
       <c r="EW4" t="n">
-        <v>1008.7373046875</v>
+        <v>1272.399780273438</v>
       </c>
       <c r="EX4" t="n">
-        <v>1006.774169921875</v>
+        <v>1252.759155273438</v>
       </c>
       <c r="EY4" t="n">
-        <v>1005.36962890625</v>
+        <v>1229.811279296875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1002.508850097656</v>
+        <v>1219.12109375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1002.328857421875</v>
+        <v>1223.768310546875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1002.360900878906</v>
+        <v>1226.800415039062</v>
       </c>
       <c r="FC4" t="n">
-        <v>1003.461608886719</v>
+        <v>1213.917602539062</v>
       </c>
       <c r="FD4" t="n">
-        <v>1004.838195800781</v>
+        <v>1213.974243164062</v>
       </c>
       <c r="FE4" t="n">
-        <v>1006.939819335938</v>
+        <v>1201.737060546875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1008.333435058594</v>
+        <v>1170.296875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1010.864501953125</v>
+        <v>1150.43359375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1010.186828613281</v>
+        <v>1146.218872070312</v>
       </c>
       <c r="FI4" t="n">
-        <v>1009.339599609375</v>
+        <v>1129.530517578125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1009.164855957031</v>
+        <v>1112.637939453125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1009.9501953125</v>
+        <v>1094.734252929688</v>
       </c>
       <c r="FL4" t="n">
-        <v>1008.865295410156</v>
+        <v>1085.595581054688</v>
       </c>
       <c r="FM4" t="n">
-        <v>1008.42919921875</v>
+        <v>1054.45703125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1006.465454101562</v>
+        <v>1033.784423828125</v>
       </c>
       <c r="FO4" t="n">
-        <v>1003.911560058594</v>
+        <v>1028.680541992188</v>
       </c>
       <c r="FP4" t="n">
-        <v>984.4406127929688</v>
+        <v>1019.088562011719</v>
       </c>
       <c r="FQ4" t="n">
-        <v>963.6639404296875</v>
+        <v>978.3694458007812</v>
       </c>
       <c r="FR4" t="n">
-        <v>956.3375244140625</v>
+        <v>967.1168212890625</v>
       </c>
       <c r="FS4" t="n">
-        <v>937.6641235351562</v>
+        <v>952.9789428710938</v>
       </c>
       <c r="FT4" t="n">
-        <v>907.1287231445312</v>
+        <v>935.544189453125</v>
       </c>
       <c r="FU4" t="n">
-        <v>892.389404296875</v>
+        <v>920.0918579101562</v>
       </c>
       <c r="FV4" t="n">
-        <v>887.6804809570312</v>
+        <v>891.5772094726562</v>
       </c>
       <c r="FW4" t="n">
-        <v>881.5064697265625</v>
+        <v>854.982177734375</v>
       </c>
       <c r="FX4" t="n">
-        <v>861.9537963867188</v>
+        <v>838.3828125</v>
       </c>
       <c r="FY4" t="n">
-        <v>855.82177734375</v>
+        <v>787.1249389648438</v>
       </c>
       <c r="FZ4" t="n">
-        <v>856.3500366210938</v>
+        <v>774.5311279296875</v>
       </c>
       <c r="GA4" t="n">
-        <v>856.553955078125</v>
+        <v>672.3765258789062</v>
       </c>
       <c r="GB4" t="n">
-        <v>854.8143310546875</v>
+        <v>644.97021484375</v>
       </c>
       <c r="GC4" t="n">
-        <v>852.447509765625</v>
+        <v>648.8009033203125</v>
       </c>
       <c r="GD4" t="n">
-        <v>840.4308471679688</v>
+        <v>659.7059326171875</v>
       </c>
       <c r="GE4" t="n">
-        <v>834.538330078125</v>
+        <v>666.7905883789062</v>
       </c>
       <c r="GF4" t="n">
-        <v>806.280029296875</v>
+        <v>730.3939819335938</v>
       </c>
       <c r="GG4" t="n">
-        <v>779.5066528320312</v>
+        <v>727.7171020507812</v>
       </c>
       <c r="GH4" t="n">
-        <v>761.8516235351562</v>
+        <v>705.513427734375</v>
       </c>
       <c r="GI4" t="n">
-        <v>758.281005859375</v>
+        <v>697.0924682617188</v>
       </c>
       <c r="GJ4" t="n">
-        <v>729.844482421875</v>
+        <v>692.031494140625</v>
       </c>
       <c r="GK4" t="n">
-        <v>712.1026611328125</v>
+        <v>690.9818725585938</v>
       </c>
       <c r="GL4" t="n">
-        <v>701.8356323242188</v>
+        <v>691.3093872070312</v>
       </c>
       <c r="GM4" t="n">
-        <v>682.5596923828125</v>
+        <v>682.0769653320312</v>
       </c>
       <c r="GN4" t="n">
-        <v>678.78466796875</v>
+        <v>650.9898071289062</v>
       </c>
       <c r="GO4" t="n">
-        <v>664.7765502929688</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>649.9769287109375</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>645.0136108398438</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>627.8679809570312</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>611.492919921875</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>607.319580078125</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>599.3572387695312</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>594.0203857421875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>584.9365844726562</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>578.0617065429688</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>582.1583862304688</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>564.6661987304688</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>506.1108093261719</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>505.9726257324219</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>510.7134399414062</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>526.9121704101562</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>537.7938232421875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>542.4136962890625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>606.948486328125</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>580.2902221679688</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>580.4644165039062</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>589.5363159179688</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>659.034912109375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>588.301513671875</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>532.9008178710938</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>511.9520874023438</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>519.111328125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>519.9722900390625</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>514.2279663085938</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>497.9119873046875</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>486.3022155761719</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>481.9593200683594</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>479.3165893554688</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>584.2782592773438</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>584.564697265625</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>589.5704956054688</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>591.262451171875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>591.1509399414062</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>590.0728149414062</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>493.5108032226562</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>496.5312805175781</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>503.353515625</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>503.6179504394531</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>488.8843994140625</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>480.7832946777344</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>481.0040588378906</v>
-      </c>
-      <c r="II4" t="n">
-        <v>483.6954956054688</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>485.3944702148438</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>486.259765625</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>486.1063537597656</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>485.7912292480469</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>485.892822265625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>484.6371154785156</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>483.7568664550781</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>482.9771728515625</v>
+        <v>634.9498901367188</v>
       </c>
     </row>
   </sheetData>

--- a/left_hip_Data.xlsx
+++ b/left_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>264.8307800292969</v>
       </c>
       <c r="B2" t="n">
-        <v>406.2979736328125</v>
+        <v>264.7064819335938</v>
       </c>
       <c r="C2" t="n">
-        <v>397.9762573242188</v>
+        <v>264.75927734375</v>
       </c>
       <c r="D2" t="n">
-        <v>397.4781799316406</v>
+        <v>264.8166809082031</v>
       </c>
       <c r="E2" t="n">
-        <v>396.545654296875</v>
+        <v>264.899169921875</v>
       </c>
       <c r="F2" t="n">
-        <v>396.8755493164062</v>
+        <v>264.9577331542969</v>
       </c>
       <c r="G2" t="n">
-        <v>397.4492797851562</v>
+        <v>264.9839172363281</v>
       </c>
       <c r="H2" t="n">
-        <v>397.8313598632812</v>
+        <v>265.0387878417969</v>
       </c>
       <c r="I2" t="n">
-        <v>398.1913452148438</v>
+        <v>265.13427734375</v>
       </c>
       <c r="J2" t="n">
-        <v>398.6260375976562</v>
+        <v>265.2203369140625</v>
       </c>
       <c r="K2" t="n">
-        <v>398.0794677734375</v>
+        <v>265.2728576660156</v>
       </c>
       <c r="L2" t="n">
-        <v>397.6067810058594</v>
+        <v>265.4422302246094</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2315979003906</v>
+        <v>265.6182556152344</v>
       </c>
       <c r="N2" t="n">
-        <v>396.7768859863281</v>
+        <v>265.7499084472656</v>
       </c>
       <c r="O2" t="n">
-        <v>396.50244140625</v>
+        <v>265.8767395019531</v>
       </c>
       <c r="P2" t="n">
-        <v>396.1583862304688</v>
+        <v>265.8952941894531</v>
       </c>
       <c r="Q2" t="n">
-        <v>395.8448486328125</v>
+        <v>265.3544921875</v>
       </c>
       <c r="R2" t="n">
-        <v>395.5880737304688</v>
+        <v>264.7079162597656</v>
       </c>
       <c r="S2" t="n">
-        <v>395.3680725097656</v>
+        <v>266.274658203125</v>
       </c>
       <c r="T2" t="n">
-        <v>395.1585693359375</v>
+        <v>266.0032958984375</v>
       </c>
       <c r="U2" t="n">
-        <v>394.96630859375</v>
+        <v>264.6439819335938</v>
       </c>
       <c r="V2" t="n">
-        <v>394.806640625</v>
+        <v>261.4276733398438</v>
       </c>
       <c r="W2" t="n">
-        <v>394.6769409179688</v>
+        <v>259.7080688476562</v>
       </c>
       <c r="X2" t="n">
-        <v>394.5726318359375</v>
+        <v>263.8031005859375</v>
       </c>
       <c r="Y2" t="n">
-        <v>394.487060546875</v>
+        <v>271.7049560546875</v>
       </c>
       <c r="Z2" t="n">
-        <v>394.4102172851562</v>
+        <v>278.5283203125</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.304931640625</v>
+        <v>283.8299560546875</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.1277465820312</v>
+        <v>288.3672180175781</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.0032653808594</v>
+        <v>290.7447204589844</v>
       </c>
       <c r="AD2" t="n">
-        <v>393.9871826171875</v>
+        <v>291.7364501953125</v>
       </c>
       <c r="AE2" t="n">
-        <v>393.8752746582031</v>
+        <v>292.09423828125</v>
       </c>
       <c r="AF2" t="n">
-        <v>393.7408142089844</v>
+        <v>292.1664428710938</v>
       </c>
       <c r="AG2" t="n">
-        <v>393.5472412109375</v>
+        <v>293.6059875488281</v>
       </c>
       <c r="AH2" t="n">
-        <v>393.3751220703125</v>
+        <v>295.7304992675781</v>
       </c>
       <c r="AI2" t="n">
-        <v>393.1976318359375</v>
+        <v>298.1957397460938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>393.0389404296875</v>
+        <v>299.1091613769531</v>
       </c>
       <c r="AK2" t="n">
-        <v>392.876220703125</v>
+        <v>300.3394470214844</v>
       </c>
       <c r="AL2" t="n">
-        <v>392.5148315429688</v>
+        <v>302.5678100585938</v>
       </c>
       <c r="AM2" t="n">
-        <v>392.37060546875</v>
+        <v>304.6680603027344</v>
       </c>
       <c r="AN2" t="n">
-        <v>392.3155517578125</v>
+        <v>307.7423095703125</v>
       </c>
       <c r="AO2" t="n">
-        <v>392.2687377929688</v>
+        <v>309.7982177734375</v>
       </c>
       <c r="AP2" t="n">
-        <v>392.136962890625</v>
+        <v>314.86767578125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>393.7698364257812</v>
+        <v>318.8474426269531</v>
       </c>
       <c r="AR2" t="n">
-        <v>400.542236328125</v>
+        <v>318.2940063476562</v>
       </c>
       <c r="AS2" t="n">
-        <v>404.8074951171875</v>
+        <v>313.4598083496094</v>
       </c>
       <c r="AT2" t="n">
-        <v>416.8765869140625</v>
+        <v>310.4355773925781</v>
       </c>
       <c r="AU2" t="n">
-        <v>422.2095336914062</v>
+        <v>312.914794921875</v>
       </c>
       <c r="AV2" t="n">
-        <v>425.0031127929688</v>
+        <v>320.4692993164062</v>
       </c>
       <c r="AW2" t="n">
-        <v>428.220458984375</v>
+        <v>327.8848266601562</v>
       </c>
       <c r="AX2" t="n">
-        <v>431.7645874023438</v>
+        <v>334.1226806640625</v>
       </c>
       <c r="AY2" t="n">
-        <v>437.0352783203125</v>
+        <v>336.2561645507812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>444.3481750488281</v>
+        <v>335.346435546875</v>
       </c>
       <c r="BA2" t="n">
-        <v>449.8859252929688</v>
+        <v>334.3379211425781</v>
       </c>
       <c r="BB2" t="n">
-        <v>453.3447875976562</v>
+        <v>334.9705200195312</v>
       </c>
       <c r="BC2" t="n">
-        <v>456.64697265625</v>
+        <v>334.9517517089844</v>
       </c>
       <c r="BD2" t="n">
-        <v>459.6520385742188</v>
+        <v>335.6412963867188</v>
       </c>
       <c r="BE2" t="n">
-        <v>462.880615234375</v>
+        <v>337.402587890625</v>
       </c>
       <c r="BF2" t="n">
-        <v>464.4462280273438</v>
+        <v>340.3545837402344</v>
       </c>
       <c r="BG2" t="n">
-        <v>464.3485107421875</v>
+        <v>342.9174194335938</v>
       </c>
       <c r="BH2" t="n">
-        <v>462.6997375488281</v>
+        <v>345.4192504882812</v>
       </c>
       <c r="BI2" t="n">
-        <v>460.55615234375</v>
+        <v>351.5082397460938</v>
       </c>
       <c r="BJ2" t="n">
-        <v>446.9792175292969</v>
+        <v>355.4585571289062</v>
       </c>
       <c r="BK2" t="n">
-        <v>435.3753051757812</v>
+        <v>358.2433776855469</v>
       </c>
       <c r="BL2" t="n">
-        <v>427.8417663574219</v>
+        <v>359.8983764648438</v>
       </c>
       <c r="BM2" t="n">
-        <v>415.2249755859375</v>
+        <v>360.7202758789062</v>
       </c>
       <c r="BN2" t="n">
-        <v>409.0946655273438</v>
+        <v>361.1158447265625</v>
       </c>
       <c r="BO2" t="n">
-        <v>402.5860290527344</v>
+        <v>362.0908203125</v>
       </c>
       <c r="BP2" t="n">
-        <v>394.4623107910156</v>
+        <v>363.6196594238281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>386.7353820800781</v>
+        <v>366.1317138671875</v>
       </c>
       <c r="BR2" t="n">
-        <v>379.1583251953125</v>
+        <v>368.4557495117188</v>
       </c>
       <c r="BS2" t="n">
-        <v>372.1743469238281</v>
+        <v>372.0437622070312</v>
       </c>
       <c r="BT2" t="n">
-        <v>364.3123779296875</v>
+        <v>374.687744140625</v>
       </c>
       <c r="BU2" t="n">
-        <v>356.5614013671875</v>
+        <v>379.1658020019531</v>
       </c>
       <c r="BV2" t="n">
-        <v>349.1391296386719</v>
+        <v>382.2692260742188</v>
       </c>
       <c r="BW2" t="n">
-        <v>343.0166015625</v>
+        <v>385.419189453125</v>
       </c>
       <c r="BX2" t="n">
-        <v>335.8815002441406</v>
+        <v>386.986328125</v>
       </c>
       <c r="BY2" t="n">
-        <v>331.0440063476562</v>
+        <v>387.6336975097656</v>
       </c>
       <c r="BZ2" t="n">
-        <v>325.4523010253906</v>
+        <v>387.5225219726562</v>
       </c>
       <c r="CA2" t="n">
-        <v>319.9807434082031</v>
+        <v>387.9409484863281</v>
       </c>
       <c r="CB2" t="n">
-        <v>314.4186096191406</v>
+        <v>388.6146545410156</v>
       </c>
       <c r="CC2" t="n">
-        <v>309.3945007324219</v>
+        <v>389.5083923339844</v>
       </c>
       <c r="CD2" t="n">
-        <v>305.8499450683594</v>
+        <v>390.1684265136719</v>
       </c>
       <c r="CE2" t="n">
-        <v>302.7714233398438</v>
+        <v>390.5173034667969</v>
       </c>
       <c r="CF2" t="n">
-        <v>300.9403991699219</v>
+        <v>390.5125122070312</v>
       </c>
       <c r="CG2" t="n">
-        <v>299.3948059082031</v>
+        <v>390.2753295898438</v>
       </c>
       <c r="CH2" t="n">
-        <v>298.5540161132812</v>
+        <v>389.9057312011719</v>
       </c>
       <c r="CI2" t="n">
-        <v>298.5471496582031</v>
+        <v>389.7308959960938</v>
       </c>
       <c r="CJ2" t="n">
-        <v>298.6991271972656</v>
+        <v>389.3963623046875</v>
       </c>
       <c r="CK2" t="n">
-        <v>298.7821350097656</v>
+        <v>388.7075500488281</v>
       </c>
       <c r="CL2" t="n">
-        <v>300.7178344726562</v>
+        <v>387.6109619140625</v>
       </c>
       <c r="CM2" t="n">
-        <v>304.4495849609375</v>
+        <v>386.2197875976562</v>
       </c>
       <c r="CN2" t="n">
-        <v>311.1258239746094</v>
+        <v>384.9677124023438</v>
       </c>
       <c r="CO2" t="n">
-        <v>317.842041015625</v>
+        <v>384.2760620117188</v>
       </c>
       <c r="CP2" t="n">
-        <v>323.9906311035156</v>
+        <v>382.7149047851562</v>
       </c>
       <c r="CQ2" t="n">
-        <v>330.5226135253906</v>
+        <v>381.7777099609375</v>
       </c>
       <c r="CR2" t="n">
-        <v>342.058349609375</v>
+        <v>380.0601196289062</v>
       </c>
       <c r="CS2" t="n">
-        <v>346.8788146972656</v>
+        <v>379.6419982910156</v>
       </c>
       <c r="CT2" t="n">
-        <v>351.7359619140625</v>
+        <v>378.5700073242188</v>
       </c>
       <c r="CU2" t="n">
-        <v>359.2173767089844</v>
+        <v>375.957763671875</v>
       </c>
       <c r="CV2" t="n">
-        <v>369.2750549316406</v>
+        <v>372.8609619140625</v>
       </c>
       <c r="CW2" t="n">
-        <v>376.4344787597656</v>
+        <v>370.2351684570312</v>
       </c>
       <c r="CX2" t="n">
-        <v>382.431396484375</v>
+        <v>368.8436279296875</v>
       </c>
       <c r="CY2" t="n">
-        <v>386.8485717773438</v>
+        <v>367.0081176757812</v>
       </c>
       <c r="CZ2" t="n">
-        <v>390.8297119140625</v>
+        <v>365.7452392578125</v>
       </c>
       <c r="DA2" t="n">
-        <v>396.5493774414062</v>
+        <v>363.7767944335938</v>
       </c>
       <c r="DB2" t="n">
-        <v>408.5664672851562</v>
+        <v>363.3525390625</v>
       </c>
       <c r="DC2" t="n">
-        <v>414.0356140136719</v>
+        <v>363.0470275878906</v>
       </c>
       <c r="DD2" t="n">
-        <v>418.3147888183594</v>
+        <v>362.7478332519531</v>
       </c>
       <c r="DE2" t="n">
-        <v>422.1113891601562</v>
+        <v>362.4593811035156</v>
       </c>
       <c r="DF2" t="n">
-        <v>425.8499755859375</v>
+        <v>362.3092041015625</v>
       </c>
       <c r="DG2" t="n">
-        <v>429.5000915527344</v>
+        <v>362.2454833984375</v>
       </c>
       <c r="DH2" t="n">
-        <v>432.5636596679688</v>
+        <v>362.2421875</v>
       </c>
       <c r="DI2" t="n">
-        <v>433.650634765625</v>
+        <v>362.2691650390625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>434.9359130859375</v>
+        <v>362.3213195800781</v>
       </c>
       <c r="DK2" t="n">
-        <v>435.9952392578125</v>
+        <v>362.4192504882812</v>
       </c>
       <c r="DL2" t="n">
-        <v>437.0040893554688</v>
+        <v>362.4795532226562</v>
       </c>
       <c r="DM2" t="n">
-        <v>436.1724243164062</v>
+        <v>362.4468383789062</v>
       </c>
       <c r="DN2" t="n">
-        <v>433.5200805664062</v>
+        <v>362.5332336425781</v>
       </c>
       <c r="DO2" t="n">
-        <v>428.9236450195312</v>
+        <v>362.5287475585938</v>
       </c>
       <c r="DP2" t="n">
-        <v>425.7944030761719</v>
+        <v>362.490478515625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>417.9314880371094</v>
+        <v>362.3701171875</v>
       </c>
       <c r="DR2" t="n">
-        <v>415.5872192382812</v>
+        <v>362.2952270507812</v>
       </c>
       <c r="DS2" t="n">
-        <v>413.2918090820312</v>
+        <v>362.19140625</v>
       </c>
       <c r="DT2" t="n">
-        <v>407.3126220703125</v>
+        <v>361.7981567382812</v>
       </c>
       <c r="DU2" t="n">
-        <v>403.17138671875</v>
+        <v>361.6330261230469</v>
       </c>
       <c r="DV2" t="n">
-        <v>399.3701782226562</v>
+        <v>361.5072021484375</v>
       </c>
       <c r="DW2" t="n">
-        <v>394.4256896972656</v>
+        <v>361.4072265625</v>
       </c>
       <c r="DX2" t="n">
-        <v>392.5863952636719</v>
+        <v>361.4824829101562</v>
       </c>
       <c r="DY2" t="n">
-        <v>388.4591369628906</v>
+        <v>361.4920349121094</v>
       </c>
       <c r="DZ2" t="n">
-        <v>388.257568359375</v>
+        <v>361.381591796875</v>
       </c>
       <c r="EA2" t="n">
-        <v>388.5777282714844</v>
+        <v>361.71875</v>
       </c>
       <c r="EB2" t="n">
-        <v>388.1600952148438</v>
+        <v>362.3138122558594</v>
       </c>
       <c r="EC2" t="n">
-        <v>387.0919189453125</v>
+        <v>363.6490478515625</v>
       </c>
       <c r="ED2" t="n">
-        <v>385.16796875</v>
+        <v>363.9123229980469</v>
       </c>
       <c r="EE2" t="n">
-        <v>384.0447998046875</v>
+        <v>363.9215393066406</v>
       </c>
       <c r="EF2" t="n">
-        <v>383.8329467773438</v>
+        <v>363.7699890136719</v>
       </c>
       <c r="EG2" t="n">
-        <v>385.3587036132812</v>
+        <v>363.278564453125</v>
       </c>
       <c r="EH2" t="n">
-        <v>389.5158081054688</v>
+        <v>363.5655212402344</v>
       </c>
       <c r="EI2" t="n">
-        <v>391.7459106445312</v>
+        <v>364.0113525390625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>392.3946533203125</v>
+        <v>364.1064453125</v>
       </c>
       <c r="EK2" t="n">
-        <v>393.2169189453125</v>
+        <v>364.2669982910156</v>
       </c>
       <c r="EL2" t="n">
-        <v>395.3874206542969</v>
+        <v>364.2996826171875</v>
       </c>
       <c r="EM2" t="n">
-        <v>402.8602294921875</v>
+        <v>364.4768676757812</v>
       </c>
       <c r="EN2" t="n">
-        <v>405.1207885742188</v>
+        <v>365.7730712890625</v>
       </c>
       <c r="EO2" t="n">
-        <v>407.1991577148438</v>
+        <v>367.5508117675781</v>
       </c>
       <c r="EP2" t="n">
-        <v>408.442626953125</v>
+        <v>369.5554809570312</v>
       </c>
       <c r="EQ2" t="n">
-        <v>410.7721557617188</v>
+        <v>369.6966857910156</v>
       </c>
       <c r="ER2" t="n">
-        <v>411.8569641113281</v>
+        <v>369.572509765625</v>
       </c>
       <c r="ES2" t="n">
-        <v>410.8678588867188</v>
+        <v>369.7510986328125</v>
       </c>
       <c r="ET2" t="n">
-        <v>398.5999755859375</v>
+        <v>369.9752807617188</v>
       </c>
       <c r="EU2" t="n">
-        <v>383.5400085449219</v>
+        <v>369.9766235351562</v>
       </c>
       <c r="EV2" t="n">
-        <v>372.4130859375</v>
+        <v>369.83740234375</v>
       </c>
       <c r="EW2" t="n">
-        <v>361.9967041015625</v>
+        <v>369.618408203125</v>
       </c>
       <c r="EX2" t="n">
-        <v>358.6593627929688</v>
+        <v>369.4778442382812</v>
       </c>
       <c r="EY2" t="n">
-        <v>352.3031005859375</v>
+        <v>369.3929443359375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>337.3764038085938</v>
+        <v>369.377685546875</v>
       </c>
       <c r="FA2" t="n">
-        <v>330.416259765625</v>
+        <v>369.3566589355469</v>
       </c>
       <c r="FB2" t="n">
-        <v>328.5650024414062</v>
+        <v>369.3200073242188</v>
       </c>
       <c r="FC2" t="n">
-        <v>331.6224365234375</v>
+        <v>369.2918701171875</v>
       </c>
       <c r="FD2" t="n">
-        <v>333.9052124023438</v>
+        <v>369.4055786132812</v>
       </c>
       <c r="FE2" t="n">
-        <v>341.1700439453125</v>
+        <v>369.62353515625</v>
       </c>
       <c r="FF2" t="n">
-        <v>346.1630554199219</v>
+        <v>369.7156066894531</v>
       </c>
       <c r="FG2" t="n">
-        <v>348.3023681640625</v>
+        <v>369.7808227539062</v>
       </c>
       <c r="FH2" t="n">
-        <v>344.0377807617188</v>
+        <v>369.7164916992188</v>
       </c>
       <c r="FI2" t="n">
-        <v>344.0736083984375</v>
+        <v>369.753662109375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>347.2289428710938</v>
+        <v>369.81494140625</v>
       </c>
       <c r="FK2" t="n">
-        <v>357.5651550292969</v>
+        <v>369.8526306152344</v>
       </c>
       <c r="FL2" t="n">
-        <v>362.7178955078125</v>
+        <v>369.9251708984375</v>
       </c>
       <c r="FM2" t="n">
-        <v>373.0743713378906</v>
+        <v>369.9522705078125</v>
       </c>
       <c r="FN2" t="n">
-        <v>383.3453674316406</v>
+        <v>369.9732055664062</v>
       </c>
       <c r="FO2" t="n">
-        <v>386.6898803710938</v>
+        <v>369.9920043945312</v>
       </c>
       <c r="FP2" t="n">
-        <v>390.971923828125</v>
+        <v>370.0208740234375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>402.8133544921875</v>
+        <v>369.9728393554688</v>
       </c>
       <c r="FR2" t="n">
-        <v>408.6678466796875</v>
+        <v>369.8578186035156</v>
       </c>
       <c r="FS2" t="n">
-        <v>414.95654296875</v>
+        <v>369.6083984375</v>
       </c>
       <c r="FT2" t="n">
-        <v>419.6222534179688</v>
+        <v>370.0382080078125</v>
       </c>
       <c r="FU2" t="n">
-        <v>422.127197265625</v>
+        <v>370.4687194824219</v>
       </c>
       <c r="FV2" t="n">
-        <v>414.8521728515625</v>
+        <v>370.5615844726562</v>
       </c>
       <c r="FW2" t="n">
-        <v>410.2412414550781</v>
+        <v>370.8376770019531</v>
       </c>
       <c r="FX2" t="n">
-        <v>406.3758544921875</v>
+        <v>370.9747619628906</v>
       </c>
       <c r="FY2" t="n">
-        <v>412.0198974609375</v>
+        <v>370.8550415039062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>420.5562133789062</v>
+        <v>370.6532592773438</v>
       </c>
       <c r="GA2" t="n">
-        <v>459.4681396484375</v>
+        <v>369.9930114746094</v>
       </c>
       <c r="GB2" t="n">
-        <v>454.897705078125</v>
+        <v>369.578857421875</v>
       </c>
       <c r="GC2" t="n">
-        <v>418.7083740234375</v>
+        <v>368.7536315917969</v>
       </c>
       <c r="GD2" t="n">
-        <v>399.7204284667969</v>
+        <v>368.0194091796875</v>
       </c>
       <c r="GE2" t="n">
-        <v>368.2762145996094</v>
+        <v>368.1575317382812</v>
       </c>
       <c r="GF2" t="n">
-        <v>355.7726440429688</v>
+        <v>368.4981994628906</v>
       </c>
       <c r="GG2" t="n">
-        <v>349.9096069335938</v>
+        <v>368.3356018066406</v>
       </c>
       <c r="GH2" t="n">
-        <v>348.6104125976562</v>
+        <v>368.1347045898438</v>
       </c>
       <c r="GI2" t="n">
-        <v>346.9801330566406</v>
+        <v>367.8125305175781</v>
       </c>
       <c r="GJ2" t="n">
-        <v>342.3970947265625</v>
+        <v>367.5372619628906</v>
       </c>
       <c r="GK2" t="n">
-        <v>316.8436584472656</v>
+        <v>366.7810668945312</v>
       </c>
       <c r="GL2" t="n">
-        <v>312.1065979003906</v>
+        <v>366.5535888671875</v>
       </c>
       <c r="GM2" t="n">
-        <v>329.9971923828125</v>
+        <v>366.7924499511719</v>
       </c>
       <c r="GN2" t="n">
-        <v>331.4833984375</v>
+        <v>366.8078918457031</v>
       </c>
       <c r="GO2" t="n">
-        <v>322.546142578125</v>
+        <v>366.7889709472656</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>366.655517578125</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>366.3885192871094</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>366.0463256835938</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>365.8642272949219</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>365.4809265136719</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>364.864501953125</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>362.9056396484375</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>361.9228515625</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>361.5576477050781</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>360.6427001953125</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>360.2889404296875</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>359.765869140625</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>357.7291259765625</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>355.3052368164062</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>354.2911987304688</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>353.5534057617188</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>353.3885498046875</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>353.7898254394531</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>354.69873046875</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>354.0853271484375</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>353.9907531738281</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>353.9791259765625</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>353.4298400878906</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>349.8741149902344</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>345.7462768554688</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>344.1396484375</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>344.3363037109375</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>344.8250732421875</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>346.0111694335938</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>346.6727905273438</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>346.0269165039062</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>342.734130859375</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>340.825927734375</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>334.5307922363281</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>330.2439575195312</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>325.8458251953125</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>320.2798156738281</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>316.8646850585938</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>317.2492980957031</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>318.256103515625</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>320.8099670410156</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>322.0313110351562</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>322.8214111328125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>324.768310546875</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>333.0196838378906</v>
+      </c>
+      <c r="II2" t="n">
+        <v>338.7260131835938</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>341.343017578125</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>355.6210327148438</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>374.4315795898438</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>381.4135131835938</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>318.025146484375</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>302.7659301757812</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>263.4308471679688</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>255.4366149902344</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>263.5605773925781</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>304.7395324707031</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>306.5295715332031</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>281.6548156738281</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>255.7040710449219</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>247.7047882080078</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>231.9945068359375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>215.9483642578125</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>209.6717529296875</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>215.1541290283203</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>212.7854766845703</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>212.3967895507812</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>229.8115539550781</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>242.193115234375</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>271.9202270507812</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>300.7024230957031</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>317.3582458496094</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>314.500244140625</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>268.9737854003906</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>241.8323974609375</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>219.5613250732422</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>212.3080596923828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>383.9794921875</v>
       </c>
       <c r="B3" t="n">
-        <v>484.7306518554688</v>
+        <v>384.3684692382812</v>
       </c>
       <c r="C3" t="n">
-        <v>467.9541931152344</v>
+        <v>384.295654296875</v>
       </c>
       <c r="D3" t="n">
-        <v>452.7707824707031</v>
+        <v>384.2435913085938</v>
       </c>
       <c r="E3" t="n">
-        <v>454.5784301757812</v>
+        <v>384.2045593261719</v>
       </c>
       <c r="F3" t="n">
-        <v>456.0327758789062</v>
+        <v>384.1790771484375</v>
       </c>
       <c r="G3" t="n">
-        <v>458.912841796875</v>
+        <v>384.2051086425781</v>
       </c>
       <c r="H3" t="n">
-        <v>464.3306884765625</v>
+        <v>384.224365234375</v>
       </c>
       <c r="I3" t="n">
-        <v>467.2495727539062</v>
+        <v>384.2396240234375</v>
       </c>
       <c r="J3" t="n">
-        <v>467.8738708496094</v>
+        <v>384.2583923339844</v>
       </c>
       <c r="K3" t="n">
-        <v>468.4873046875</v>
+        <v>384.3118286132812</v>
       </c>
       <c r="L3" t="n">
-        <v>468.9816284179688</v>
+        <v>384.4214172363281</v>
       </c>
       <c r="M3" t="n">
-        <v>469.3548889160156</v>
+        <v>384.5111999511719</v>
       </c>
       <c r="N3" t="n">
-        <v>469.9127197265625</v>
+        <v>384.6337280273438</v>
       </c>
       <c r="O3" t="n">
-        <v>469.4072875976562</v>
+        <v>384.3548278808594</v>
       </c>
       <c r="P3" t="n">
-        <v>469.3752746582031</v>
+        <v>383.8069763183594</v>
       </c>
       <c r="Q3" t="n">
-        <v>469.3054504394531</v>
+        <v>383.4907531738281</v>
       </c>
       <c r="R3" t="n">
-        <v>469.3121032714844</v>
+        <v>380.8390808105469</v>
       </c>
       <c r="S3" t="n">
-        <v>469.3451843261719</v>
+        <v>377.3171691894531</v>
       </c>
       <c r="T3" t="n">
-        <v>469.3320922851562</v>
+        <v>379.9339294433594</v>
       </c>
       <c r="U3" t="n">
-        <v>469.3080749511719</v>
+        <v>383.8685913085938</v>
       </c>
       <c r="V3" t="n">
-        <v>469.2849731445312</v>
+        <v>392.5384826660156</v>
       </c>
       <c r="W3" t="n">
-        <v>469.0426635742188</v>
+        <v>402.0540771484375</v>
       </c>
       <c r="X3" t="n">
-        <v>468.7914733886719</v>
+        <v>405.4187927246094</v>
       </c>
       <c r="Y3" t="n">
-        <v>468.4339904785156</v>
+        <v>406.1445007324219</v>
       </c>
       <c r="Z3" t="n">
-        <v>467.5841674804688</v>
+        <v>405.0418395996094</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.6766357421875</v>
+        <v>403.7806396484375</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.822021484375</v>
+        <v>403.7552795410156</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.1421508789062</v>
+        <v>403.8099365234375</v>
       </c>
       <c r="AD3" t="n">
-        <v>461.7859497070312</v>
+        <v>404.267578125</v>
       </c>
       <c r="AE3" t="n">
-        <v>461.31005859375</v>
+        <v>404.5386047363281</v>
       </c>
       <c r="AF3" t="n">
-        <v>460.9634399414062</v>
+        <v>405.8231506347656</v>
       </c>
       <c r="AG3" t="n">
-        <v>461.0695190429688</v>
+        <v>406.6917724609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>461.1614074707031</v>
+        <v>405.2233276367188</v>
       </c>
       <c r="AI3" t="n">
-        <v>460.9684753417969</v>
+        <v>403.3881530761719</v>
       </c>
       <c r="AJ3" t="n">
-        <v>460.7943725585938</v>
+        <v>403.0126647949219</v>
       </c>
       <c r="AK3" t="n">
-        <v>460.6624755859375</v>
+        <v>402.4619140625</v>
       </c>
       <c r="AL3" t="n">
-        <v>460.395751953125</v>
+        <v>401.2127380371094</v>
       </c>
       <c r="AM3" t="n">
-        <v>460.5118103027344</v>
+        <v>400.0657348632812</v>
       </c>
       <c r="AN3" t="n">
-        <v>460.5234375</v>
+        <v>399.5232238769531</v>
       </c>
       <c r="AO3" t="n">
-        <v>460.5513916015625</v>
+        <v>398.6636962890625</v>
       </c>
       <c r="AP3" t="n">
-        <v>460.8071899414062</v>
+        <v>373.4400024414062</v>
       </c>
       <c r="AQ3" t="n">
-        <v>460.6122741699219</v>
+        <v>354.6712341308594</v>
       </c>
       <c r="AR3" t="n">
-        <v>459.7956237792969</v>
+        <v>349.6763000488281</v>
       </c>
       <c r="AS3" t="n">
-        <v>458.7758483886719</v>
+        <v>360.6283569335938</v>
       </c>
       <c r="AT3" t="n">
-        <v>456.0439453125</v>
+        <v>373.1962890625</v>
       </c>
       <c r="AU3" t="n">
-        <v>453.3197937011719</v>
+        <v>383.5830383300781</v>
       </c>
       <c r="AV3" t="n">
-        <v>452.0284423828125</v>
+        <v>384.1672973632812</v>
       </c>
       <c r="AW3" t="n">
-        <v>451.2551574707031</v>
+        <v>384.4275817871094</v>
       </c>
       <c r="AX3" t="n">
-        <v>451.2804870605469</v>
+        <v>383.7930603027344</v>
       </c>
       <c r="AY3" t="n">
-        <v>451.0019226074219</v>
+        <v>383.3503723144531</v>
       </c>
       <c r="AZ3" t="n">
-        <v>448.4784545898438</v>
+        <v>382.8241577148438</v>
       </c>
       <c r="BA3" t="n">
-        <v>444.9931640625</v>
+        <v>377.7362670898438</v>
       </c>
       <c r="BB3" t="n">
-        <v>444.0553588867188</v>
+        <v>370.803466796875</v>
       </c>
       <c r="BC3" t="n">
-        <v>440.0140075683594</v>
+        <v>371.1893310546875</v>
       </c>
       <c r="BD3" t="n">
-        <v>438.6685180664062</v>
+        <v>367.10205078125</v>
       </c>
       <c r="BE3" t="n">
-        <v>436.594970703125</v>
+        <v>363.5095520019531</v>
       </c>
       <c r="BF3" t="n">
-        <v>435.7300720214844</v>
+        <v>358.851318359375</v>
       </c>
       <c r="BG3" t="n">
-        <v>435.4393005371094</v>
+        <v>356.7478942871094</v>
       </c>
       <c r="BH3" t="n">
-        <v>434.7615661621094</v>
+        <v>355.9138793945312</v>
       </c>
       <c r="BI3" t="n">
-        <v>434.955322265625</v>
+        <v>357.3730773925781</v>
       </c>
       <c r="BJ3" t="n">
-        <v>435.9771423339844</v>
+        <v>356.168212890625</v>
       </c>
       <c r="BK3" t="n">
-        <v>437.0875549316406</v>
+        <v>355.1129455566406</v>
       </c>
       <c r="BL3" t="n">
-        <v>437.85595703125</v>
+        <v>354.1154174804688</v>
       </c>
       <c r="BM3" t="n">
-        <v>441.1204223632812</v>
+        <v>354.5033264160156</v>
       </c>
       <c r="BN3" t="n">
-        <v>440.3996887207031</v>
+        <v>356.1954040527344</v>
       </c>
       <c r="BO3" t="n">
-        <v>441.1919860839844</v>
+        <v>360.1593627929688</v>
       </c>
       <c r="BP3" t="n">
-        <v>446.1388854980469</v>
+        <v>361.7175598144531</v>
       </c>
       <c r="BQ3" t="n">
-        <v>449.4378967285156</v>
+        <v>359.2680969238281</v>
       </c>
       <c r="BR3" t="n">
-        <v>450.8498229980469</v>
+        <v>358.0171203613281</v>
       </c>
       <c r="BS3" t="n">
-        <v>449.9983520507812</v>
+        <v>358.1604309082031</v>
       </c>
       <c r="BT3" t="n">
-        <v>449.1259460449219</v>
+        <v>361.5335693359375</v>
       </c>
       <c r="BU3" t="n">
-        <v>449.1984558105469</v>
+        <v>361.0451354980469</v>
       </c>
       <c r="BV3" t="n">
-        <v>449.2935791015625</v>
+        <v>358.9424133300781</v>
       </c>
       <c r="BW3" t="n">
-        <v>449.8480224609375</v>
+        <v>357.1974487304688</v>
       </c>
       <c r="BX3" t="n">
-        <v>451.7474670410156</v>
+        <v>355.4053955078125</v>
       </c>
       <c r="BY3" t="n">
-        <v>453.0713806152344</v>
+        <v>353.9515991210938</v>
       </c>
       <c r="BZ3" t="n">
-        <v>454.5502014160156</v>
+        <v>352.6566467285156</v>
       </c>
       <c r="CA3" t="n">
-        <v>454.5318298339844</v>
+        <v>351.1982421875</v>
       </c>
       <c r="CB3" t="n">
-        <v>454.2005004882812</v>
+        <v>349.6209106445312</v>
       </c>
       <c r="CC3" t="n">
-        <v>453.6467895507812</v>
+        <v>348.4884338378906</v>
       </c>
       <c r="CD3" t="n">
-        <v>452.7909851074219</v>
+        <v>347.7302551269531</v>
       </c>
       <c r="CE3" t="n">
-        <v>451.925537109375</v>
+        <v>346.7136840820312</v>
       </c>
       <c r="CF3" t="n">
-        <v>449.481689453125</v>
+        <v>345.7262268066406</v>
       </c>
       <c r="CG3" t="n">
-        <v>444.4725952148438</v>
+        <v>345.1415710449219</v>
       </c>
       <c r="CH3" t="n">
-        <v>438.1286926269531</v>
+        <v>344.5266723632812</v>
       </c>
       <c r="CI3" t="n">
-        <v>429.4882202148438</v>
+        <v>344.6014099121094</v>
       </c>
       <c r="CJ3" t="n">
-        <v>424.5042419433594</v>
+        <v>344.7498779296875</v>
       </c>
       <c r="CK3" t="n">
-        <v>422.2257995605469</v>
+        <v>344.8978271484375</v>
       </c>
       <c r="CL3" t="n">
-        <v>421.9543151855469</v>
+        <v>347.3841247558594</v>
       </c>
       <c r="CM3" t="n">
-        <v>423.50634765625</v>
+        <v>349.6829528808594</v>
       </c>
       <c r="CN3" t="n">
-        <v>425.8989868164062</v>
+        <v>352.2376708984375</v>
       </c>
       <c r="CO3" t="n">
-        <v>427.2512817382812</v>
+        <v>353.05224609375</v>
       </c>
       <c r="CP3" t="n">
-        <v>430.2154541015625</v>
+        <v>354.7514343261719</v>
       </c>
       <c r="CQ3" t="n">
-        <v>430.9322814941406</v>
+        <v>355.2581787109375</v>
       </c>
       <c r="CR3" t="n">
-        <v>432.2967224121094</v>
+        <v>356.6387939453125</v>
       </c>
       <c r="CS3" t="n">
-        <v>431.9036254882812</v>
+        <v>356.00439453125</v>
       </c>
       <c r="CT3" t="n">
-        <v>431.4577941894531</v>
+        <v>355.9345092773438</v>
       </c>
       <c r="CU3" t="n">
-        <v>431.5875549316406</v>
+        <v>355.6747436523438</v>
       </c>
       <c r="CV3" t="n">
-        <v>431.5364685058594</v>
+        <v>354.3237915039062</v>
       </c>
       <c r="CW3" t="n">
-        <v>432.38525390625</v>
+        <v>353.1777038574219</v>
       </c>
       <c r="CX3" t="n">
-        <v>431.9841918945312</v>
+        <v>351.8245849609375</v>
       </c>
       <c r="CY3" t="n">
-        <v>432.0480041503906</v>
+        <v>350.5891723632812</v>
       </c>
       <c r="CZ3" t="n">
-        <v>431.973876953125</v>
+        <v>350.4224853515625</v>
       </c>
       <c r="DA3" t="n">
-        <v>431.6784362792969</v>
+        <v>349.4206848144531</v>
       </c>
       <c r="DB3" t="n">
-        <v>431.9776611328125</v>
+        <v>349.3005981445312</v>
       </c>
       <c r="DC3" t="n">
-        <v>432.138916015625</v>
+        <v>349.1337890625</v>
       </c>
       <c r="DD3" t="n">
-        <v>432.1821899414062</v>
+        <v>349.0107116699219</v>
       </c>
       <c r="DE3" t="n">
-        <v>431.8914489746094</v>
+        <v>348.9199829101562</v>
       </c>
       <c r="DF3" t="n">
-        <v>431.7575073242188</v>
+        <v>348.8562927246094</v>
       </c>
       <c r="DG3" t="n">
-        <v>431.4644775390625</v>
+        <v>348.83544921875</v>
       </c>
       <c r="DH3" t="n">
-        <v>431.4449768066406</v>
+        <v>348.7122497558594</v>
       </c>
       <c r="DI3" t="n">
-        <v>431.6905517578125</v>
+        <v>348.537109375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>432.1921997070312</v>
+        <v>348.29248046875</v>
       </c>
       <c r="DK3" t="n">
-        <v>433.6443176269531</v>
+        <v>347.9436340332031</v>
       </c>
       <c r="DL3" t="n">
-        <v>435.8019714355469</v>
+        <v>347.6722412109375</v>
       </c>
       <c r="DM3" t="n">
-        <v>436.6223449707031</v>
+        <v>347.595947265625</v>
       </c>
       <c r="DN3" t="n">
-        <v>437.3750305175781</v>
+        <v>347.1970520019531</v>
       </c>
       <c r="DO3" t="n">
-        <v>439.5726928710938</v>
+        <v>346.7950744628906</v>
       </c>
       <c r="DP3" t="n">
-        <v>440.2077331542969</v>
+        <v>346.72265625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>433.1316833496094</v>
+        <v>346.6890869140625</v>
       </c>
       <c r="DR3" t="n">
-        <v>422.5287475585938</v>
+        <v>346.6427307128906</v>
       </c>
       <c r="DS3" t="n">
-        <v>414.6763305664062</v>
+        <v>346.6193237304688</v>
       </c>
       <c r="DT3" t="n">
-        <v>398.7597961425781</v>
+        <v>346.5107727050781</v>
       </c>
       <c r="DU3" t="n">
-        <v>392.4977722167969</v>
+        <v>346.4614562988281</v>
       </c>
       <c r="DV3" t="n">
-        <v>385.3739318847656</v>
+        <v>346.4140930175781</v>
       </c>
       <c r="DW3" t="n">
-        <v>371.5132446289062</v>
+        <v>346.3914184570312</v>
       </c>
       <c r="DX3" t="n">
-        <v>365.1045532226562</v>
+        <v>346.4224853515625</v>
       </c>
       <c r="DY3" t="n">
-        <v>362.2078857421875</v>
+        <v>346.4044189453125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>361.8685302734375</v>
+        <v>346.5426940917969</v>
       </c>
       <c r="EA3" t="n">
-        <v>363.3895568847656</v>
+        <v>346.7840270996094</v>
       </c>
       <c r="EB3" t="n">
-        <v>375.8397216796875</v>
+        <v>347.1280212402344</v>
       </c>
       <c r="EC3" t="n">
-        <v>383.5495910644531</v>
+        <v>347.9921875</v>
       </c>
       <c r="ED3" t="n">
-        <v>397.8036499023438</v>
+        <v>348.2578430175781</v>
       </c>
       <c r="EE3" t="n">
-        <v>414.4201049804688</v>
+        <v>348.9082336425781</v>
       </c>
       <c r="EF3" t="n">
-        <v>418.2527465820312</v>
+        <v>349.5004272460938</v>
       </c>
       <c r="EG3" t="n">
-        <v>433.6868286132812</v>
+        <v>351.1771240234375</v>
       </c>
       <c r="EH3" t="n">
-        <v>451.2689819335938</v>
+        <v>350.9274597167969</v>
       </c>
       <c r="EI3" t="n">
-        <v>450.6240539550781</v>
+        <v>350.4859619140625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>450.0890197753906</v>
+        <v>350.5537414550781</v>
       </c>
       <c r="EK3" t="n">
-        <v>449.4610290527344</v>
+        <v>350.7812805175781</v>
       </c>
       <c r="EL3" t="n">
-        <v>447.2866516113281</v>
+        <v>350.8823852539062</v>
       </c>
       <c r="EM3" t="n">
-        <v>441.1395874023438</v>
+        <v>350.7426147460938</v>
       </c>
       <c r="EN3" t="n">
-        <v>438.3379516601562</v>
+        <v>350.824951171875</v>
       </c>
       <c r="EO3" t="n">
-        <v>436.0698852539062</v>
+        <v>351.1388854980469</v>
       </c>
       <c r="EP3" t="n">
-        <v>436.0740356445312</v>
+        <v>351.4884643554688</v>
       </c>
       <c r="EQ3" t="n">
-        <v>436.5595703125</v>
+        <v>351.3953552246094</v>
       </c>
       <c r="ER3" t="n">
-        <v>437.1340637207031</v>
+        <v>350.7852172851562</v>
       </c>
       <c r="ES3" t="n">
-        <v>440.7670593261719</v>
+        <v>350.5642395019531</v>
       </c>
       <c r="ET3" t="n">
-        <v>464.9387512207031</v>
+        <v>349.6774291992188</v>
       </c>
       <c r="EU3" t="n">
-        <v>483.2796020507812</v>
+        <v>349.521240234375</v>
       </c>
       <c r="EV3" t="n">
-        <v>491.2484130859375</v>
+        <v>349.4837341308594</v>
       </c>
       <c r="EW3" t="n">
-        <v>497.7214660644531</v>
+        <v>349.3968811035156</v>
       </c>
       <c r="EX3" t="n">
-        <v>504.0523376464844</v>
+        <v>349.361572265625</v>
       </c>
       <c r="EY3" t="n">
-        <v>511.2709350585938</v>
+        <v>349.4301147460938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>514.5565185546875</v>
+        <v>349.4596252441406</v>
       </c>
       <c r="FA3" t="n">
-        <v>512.8902587890625</v>
+        <v>349.5291748046875</v>
       </c>
       <c r="FB3" t="n">
-        <v>510.2985229492188</v>
+        <v>349.5960998535156</v>
       </c>
       <c r="FC3" t="n">
-        <v>503.2249145507812</v>
+        <v>349.6551818847656</v>
       </c>
       <c r="FD3" t="n">
-        <v>498.6770324707031</v>
+        <v>349.6878356933594</v>
       </c>
       <c r="FE3" t="n">
-        <v>485.4255981445312</v>
+        <v>349.6220397949219</v>
       </c>
       <c r="FF3" t="n">
-        <v>481.0807800292969</v>
+        <v>349.8398132324219</v>
       </c>
       <c r="FG3" t="n">
-        <v>475.8760986328125</v>
+        <v>349.8325805664062</v>
       </c>
       <c r="FH3" t="n">
-        <v>463.9073486328125</v>
+        <v>349.7559509277344</v>
       </c>
       <c r="FI3" t="n">
-        <v>461.2972412109375</v>
+        <v>349.6963806152344</v>
       </c>
       <c r="FJ3" t="n">
-        <v>461.9416198730469</v>
+        <v>349.7449645996094</v>
       </c>
       <c r="FK3" t="n">
-        <v>462.6963195800781</v>
+        <v>349.8485412597656</v>
       </c>
       <c r="FL3" t="n">
-        <v>464.3082275390625</v>
+        <v>349.7073059082031</v>
       </c>
       <c r="FM3" t="n">
-        <v>468.5761108398438</v>
+        <v>349.739501953125</v>
       </c>
       <c r="FN3" t="n">
-        <v>470.0140075683594</v>
+        <v>349.7507934570312</v>
       </c>
       <c r="FO3" t="n">
-        <v>471.8381958007812</v>
+        <v>349.7610473632812</v>
       </c>
       <c r="FP3" t="n">
-        <v>475.8425903320312</v>
+        <v>349.7930908203125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>485.6046752929688</v>
+        <v>350.0308837890625</v>
       </c>
       <c r="FR3" t="n">
-        <v>488.6449890136719</v>
+        <v>350.3798828125</v>
       </c>
       <c r="FS3" t="n">
-        <v>488.0474853515625</v>
+        <v>352.0177307128906</v>
       </c>
       <c r="FT3" t="n">
-        <v>489.9641418457031</v>
+        <v>352.1326599121094</v>
       </c>
       <c r="FU3" t="n">
-        <v>485.5210266113281</v>
+        <v>352.3807983398438</v>
       </c>
       <c r="FV3" t="n">
-        <v>511.2531127929688</v>
+        <v>352.4549865722656</v>
       </c>
       <c r="FW3" t="n">
-        <v>514.3193969726562</v>
+        <v>352.3983764648438</v>
       </c>
       <c r="FX3" t="n">
-        <v>518.0989990234375</v>
+        <v>352.1882629394531</v>
       </c>
       <c r="FY3" t="n">
-        <v>531.8871459960938</v>
+        <v>352.1075439453125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>529.2163696289062</v>
+        <v>352.1453552246094</v>
       </c>
       <c r="GA3" t="n">
-        <v>538.7107543945312</v>
+        <v>352.3666381835938</v>
       </c>
       <c r="GB3" t="n">
-        <v>547.6062622070312</v>
+        <v>352.5105590820312</v>
       </c>
       <c r="GC3" t="n">
-        <v>570.8629150390625</v>
+        <v>352.9197998046875</v>
       </c>
       <c r="GD3" t="n">
-        <v>576.218994140625</v>
+        <v>353.5863342285156</v>
       </c>
       <c r="GE3" t="n">
-        <v>577.6672973632812</v>
+        <v>353.0946655273438</v>
       </c>
       <c r="GF3" t="n">
-        <v>559.496826171875</v>
+        <v>351.6288146972656</v>
       </c>
       <c r="GG3" t="n">
-        <v>555.6547241210938</v>
+        <v>351.9154357910156</v>
       </c>
       <c r="GH3" t="n">
-        <v>563.1505126953125</v>
+        <v>352.115966796875</v>
       </c>
       <c r="GI3" t="n">
-        <v>565.3736572265625</v>
+        <v>351.8416748046875</v>
       </c>
       <c r="GJ3" t="n">
-        <v>565.8823852539062</v>
+        <v>351.7848815917969</v>
       </c>
       <c r="GK3" t="n">
-        <v>564.8587036132812</v>
+        <v>351.32861328125</v>
       </c>
       <c r="GL3" t="n">
-        <v>562.707275390625</v>
+        <v>350.8341064453125</v>
       </c>
       <c r="GM3" t="n">
-        <v>559.4744262695312</v>
+        <v>350.3825988769531</v>
       </c>
       <c r="GN3" t="n">
-        <v>572.3209838867188</v>
+        <v>350.3341674804688</v>
       </c>
       <c r="GO3" t="n">
-        <v>584.9337768554688</v>
+        <v>350.3568420410156</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>350.2404479980469</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>350.1287536621094</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>350.06005859375</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>350.0867614746094</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>350.4662475585938</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>351.3320922851562</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>352.8084411621094</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>352.0785522460938</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>351.312744140625</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>348.7891235351562</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>347.4328002929688</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>347.6165466308594</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>348.8541259765625</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>348.9669494628906</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>349.2166748046875</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>349.8466796875</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>350.2432250976562</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>353.1962585449219</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>356.1114807128906</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>354.1053771972656</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>351.1029968261719</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>348.4962158203125</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>348.1509704589844</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>352.9784545898438</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>358.4373779296875</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>360.0736083984375</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>359.4650268554688</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>360.0593566894531</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>359.2418212890625</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>359.3793334960938</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>360.8519592285156</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>363.5530395507812</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>365.4331970214844</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>368.5353393554688</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>365.8575134277344</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>364.7288208007812</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>368.1214294433594</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>371.5823974609375</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>360.3897399902344</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>356.9658508300781</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>357.7783813476562</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>361.6266784667969</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>366.59619140625</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>373.3444519042969</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>379.3987426757812</v>
+      </c>
+      <c r="II3" t="n">
+        <v>398.5290222167969</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>425.5027465820312</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>432.3472900390625</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>450.2922973632812</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>549.8309326171875</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>708.4661865234375</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>661.6210327148438</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>668.9100341796875</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>653.2315673828125</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>620.7081909179688</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>639.4400024414062</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>501.1810607910156</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>451.9658813476562</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>436.5967102050781</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>454.6547546386719</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>447.5098571777344</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>463.2469177246094</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>513.3421020507812</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>556.5274658203125</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>569.8388671875</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>551.766357421875</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>531.5156860351562</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>525.6475219726562</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>509.3376159667969</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>527.1988525390625</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>514.6924438476562</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>508.1448974609375</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>541.9758911132812</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>540.55078125</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>555.8545532226562</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>564.6056518554688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>842.368896484375</v>
       </c>
       <c r="B4" t="n">
-        <v>1009.883666992188</v>
+        <v>842.4635009765625</v>
       </c>
       <c r="C4" t="n">
-        <v>1033.908813476562</v>
+        <v>842.53125</v>
       </c>
       <c r="D4" t="n">
-        <v>1028.939697265625</v>
+        <v>842.6162719726562</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.765869140625</v>
+        <v>842.6822509765625</v>
       </c>
       <c r="F4" t="n">
-        <v>1028.98046875</v>
+        <v>842.677001953125</v>
       </c>
       <c r="G4" t="n">
-        <v>1028.410400390625</v>
+        <v>842.6376953125</v>
       </c>
       <c r="H4" t="n">
-        <v>1028.528442382812</v>
+        <v>842.5987548828125</v>
       </c>
       <c r="I4" t="n">
-        <v>1028.580932617188</v>
+        <v>842.54443359375</v>
       </c>
       <c r="J4" t="n">
-        <v>1028.660400390625</v>
+        <v>842.4944458007812</v>
       </c>
       <c r="K4" t="n">
-        <v>1028.79248046875</v>
+        <v>842.3944091796875</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.01220703125</v>
+        <v>842.2213745117188</v>
       </c>
       <c r="M4" t="n">
-        <v>1029.151245117188</v>
+        <v>842.0057983398438</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.06396484375</v>
+        <v>841.5628051757812</v>
       </c>
       <c r="O4" t="n">
-        <v>1028.977172851562</v>
+        <v>840.4342651367188</v>
       </c>
       <c r="P4" t="n">
-        <v>1029.099487304688</v>
+        <v>837.9097290039062</v>
       </c>
       <c r="Q4" t="n">
-        <v>1029.188598632812</v>
+        <v>831.2672729492188</v>
       </c>
       <c r="R4" t="n">
-        <v>1029.05029296875</v>
+        <v>820.7908325195312</v>
       </c>
       <c r="S4" t="n">
-        <v>1028.851806640625</v>
+        <v>826.6661376953125</v>
       </c>
       <c r="T4" t="n">
-        <v>1028.871337890625</v>
+        <v>833.5414428710938</v>
       </c>
       <c r="U4" t="n">
-        <v>1028.855346679688</v>
+        <v>837.1115112304688</v>
       </c>
       <c r="V4" t="n">
-        <v>1028.85400390625</v>
+        <v>832.8547973632812</v>
       </c>
       <c r="W4" t="n">
-        <v>1028.913452148438</v>
+        <v>825.7740478515625</v>
       </c>
       <c r="X4" t="n">
-        <v>1028.911865234375</v>
+        <v>819.1456298828125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1028.91015625</v>
+        <v>816.6923828125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1028.908325195312</v>
+        <v>814.249267578125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1028.943969726562</v>
+        <v>812.02490234375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1028.991333007812</v>
+        <v>811.0366821289062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1029.094482421875</v>
+        <v>811.3399658203125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1029.371826171875</v>
+        <v>810.1541137695312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1029.713623046875</v>
+        <v>809.8492431640625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1030.0439453125</v>
+        <v>808.5560302734375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1030.413818359375</v>
+        <v>810.3218994140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1030.698852539062</v>
+        <v>818.2183227539062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1031.461059570312</v>
+        <v>828.9107055664062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1032.114135742188</v>
+        <v>831.1659545898438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1032.798828125</v>
+        <v>834.726806640625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1034.533813476562</v>
+        <v>840.7607421875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1034.383911132812</v>
+        <v>846.7655029296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1034.320556640625</v>
+        <v>856.3045043945312</v>
       </c>
       <c r="AO4" t="n">
-        <v>1034.199462890625</v>
+        <v>876.7113037109375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1034.212280273438</v>
+        <v>881.9158325195312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1034.633544921875</v>
+        <v>924.361083984375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1034.320434570312</v>
+        <v>970.4111938476562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1034.224853515625</v>
+        <v>968.4769287109375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1035.202758789062</v>
+        <v>980.6693115234375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1035.77880859375</v>
+        <v>1007.4140625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1035.743286132812</v>
+        <v>1042.557983398438</v>
       </c>
       <c r="AW4" t="n">
-        <v>1036.6015625</v>
+        <v>1078.07421875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1036.611328125</v>
+        <v>1111.889892578125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1038.912719726562</v>
+        <v>1145.981689453125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1045.605590820312</v>
+        <v>1162.108642578125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1060.684204101562</v>
+        <v>1173.177490234375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1073.336547851562</v>
+        <v>1193.259643554688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1080.813720703125</v>
+        <v>1217.102661132812</v>
       </c>
       <c r="BD4" t="n">
-        <v>1082.906127929688</v>
+        <v>1239.265014648438</v>
       </c>
       <c r="BE4" t="n">
-        <v>1086.175048828125</v>
+        <v>1263.139404296875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1090.187744140625</v>
+        <v>1291.081176757812</v>
       </c>
       <c r="BG4" t="n">
-        <v>1092.628051757812</v>
+        <v>1318.1962890625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1099.774291992188</v>
+        <v>1337.648315429688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1099.6806640625</v>
+        <v>1387.0576171875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1098.88916015625</v>
+        <v>1414.460083007812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1098.017944335938</v>
+        <v>1434.760009765625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1098.535400390625</v>
+        <v>1454.344604492188</v>
       </c>
       <c r="BM4" t="n">
-        <v>1099.172973632812</v>
+        <v>1470.657470703125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1096.449951171875</v>
+        <v>1489.556030273438</v>
       </c>
       <c r="BO4" t="n">
-        <v>1094.737548828125</v>
+        <v>1504.174072265625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1088.790283203125</v>
+        <v>1526.115600585938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1085.283203125</v>
+        <v>1547.309692382812</v>
       </c>
       <c r="BR4" t="n">
-        <v>1081.3837890625</v>
+        <v>1569.376953125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1081.134643554688</v>
+        <v>1591.375854492188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1077.619995117188</v>
+        <v>1609.46484375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1075.677856445312</v>
+        <v>1629.544189453125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1075.358520507812</v>
+        <v>1661.299072265625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1076.316040039062</v>
+        <v>1673.325561523438</v>
       </c>
       <c r="BX4" t="n">
-        <v>1076.624877929688</v>
+        <v>1693.836547851562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1077.185302734375</v>
+        <v>1715.353515625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1076.66015625</v>
+        <v>1737.789428710938</v>
       </c>
       <c r="CA4" t="n">
-        <v>1077.271606445312</v>
+        <v>1761.190307617188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1078.384643554688</v>
+        <v>1784.367065429688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1079.59326171875</v>
+        <v>1801.598266601562</v>
       </c>
       <c r="CD4" t="n">
-        <v>1080.994506835938</v>
+        <v>1818.719482421875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1083.129760742188</v>
+        <v>1838.012573242188</v>
       </c>
       <c r="CF4" t="n">
-        <v>1085.9541015625</v>
+        <v>1857.313842773438</v>
       </c>
       <c r="CG4" t="n">
-        <v>1087.41552734375</v>
+        <v>1871.79541015625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1087.203979492188</v>
+        <v>1885.709228515625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1087.700805664062</v>
+        <v>1889.506713867188</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1088.50439453125</v>
+        <v>1897.335327148438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1090.305297851562</v>
+        <v>1914.756713867188</v>
       </c>
       <c r="CL4" t="n">
-        <v>1091.879150390625</v>
+        <v>1922.765869140625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1095.480590820312</v>
+        <v>1932.522338867188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1104.545166015625</v>
+        <v>1938.330322265625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1110.22802734375</v>
+        <v>1946.410888671875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1113.394775390625</v>
+        <v>1950.21630859375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1114.773193359375</v>
+        <v>1953.263793945312</v>
       </c>
       <c r="CR4" t="n">
-        <v>1111.344970703125</v>
+        <v>1956.9794921875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1111.726196289062</v>
+        <v>1961.413696289062</v>
       </c>
       <c r="CT4" t="n">
-        <v>1111.714111328125</v>
+        <v>1968.164428710938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1109.893188476562</v>
+        <v>1978.729125976562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1110.057250976562</v>
+        <v>2000.4755859375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1105.529418945312</v>
+        <v>2012.422119140625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1107.70947265625</v>
+        <v>2028.37060546875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1107.438842773438</v>
+        <v>2045.364868164062</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1107.790649414062</v>
+        <v>2048.47802734375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1109.296997070312</v>
+        <v>2055.284912109375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1107.924438476562</v>
+        <v>2056.01513671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1107.177978515625</v>
+        <v>2056.576171875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1107.031372070312</v>
+        <v>2057.68603515625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1108.540893554688</v>
+        <v>2057.888916015625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1109.231079101562</v>
+        <v>2058.365478515625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1110.696411132812</v>
+        <v>2058.704345703125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1109.296142578125</v>
+        <v>2060.1708984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1106.670654296875</v>
+        <v>2060.96337890625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1102.447875976562</v>
+        <v>2062.277099609375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1094.597534179688</v>
+        <v>2063.840087890625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1082.260620117188</v>
+        <v>2065.26904296875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1077.224975585938</v>
+        <v>2066.7744140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1071.951416015625</v>
+        <v>2066.39013671875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1058.140747070312</v>
+        <v>2066.394287109375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1052.068969726562</v>
+        <v>2066.343505859375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1048.083984375</v>
+        <v>2066.355712890625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1049.56494140625</v>
+        <v>2066.345703125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1051.860473632812</v>
+        <v>2066.3388671875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1069.2958984375</v>
+        <v>2066.402099609375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1086.736328125</v>
+        <v>2066.42041015625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1097.5126953125</v>
+        <v>2066.401611328125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1115.88037109375</v>
+        <v>2065.826416015625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1123.16845703125</v>
+        <v>2064.52099609375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1135.238159179688</v>
+        <v>2063.66015625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1139.98291015625</v>
+        <v>2059.359619140625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1145.654663085938</v>
+        <v>2055.674560546875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1149.641723632812</v>
+        <v>2051.31591796875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1153.91259765625</v>
+        <v>2040.301513671875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1162.365112304688</v>
+        <v>2040.575439453125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1181.549926757812</v>
+        <v>2040.361572265625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1190.282592773438</v>
+        <v>2039.956909179688</v>
       </c>
       <c r="EG4" t="n">
-        <v>1195.646240234375</v>
+        <v>2039.854736328125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1205.66845703125</v>
+        <v>2039.551147460938</v>
       </c>
       <c r="EI4" t="n">
-        <v>1222.179809570312</v>
+        <v>2039.773803710938</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1239.556640625</v>
+        <v>2039.439453125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1253.386108398438</v>
+        <v>2039.30517578125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1264.41796875</v>
+        <v>2039.346435546875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1277.427368164062</v>
+        <v>2039.48486328125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1282.208984375</v>
+        <v>2039.533081054688</v>
       </c>
       <c r="EO4" t="n">
-        <v>1285.138671875</v>
+        <v>2039.191528320312</v>
       </c>
       <c r="EP4" t="n">
-        <v>1283.137817382812</v>
+        <v>2038.3955078125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1278.700439453125</v>
+        <v>2038.278564453125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1275.220825195312</v>
+        <v>2038.399291992188</v>
       </c>
       <c r="ES4" t="n">
-        <v>1273.29345703125</v>
+        <v>2038.322265625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1273.000122070312</v>
+        <v>2038.209594726562</v>
       </c>
       <c r="EU4" t="n">
-        <v>1273.400512695312</v>
+        <v>2038.213500976562</v>
       </c>
       <c r="EV4" t="n">
-        <v>1274.670043945312</v>
+        <v>2038.1767578125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1272.399780273438</v>
+        <v>2037.849609375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1252.759155273438</v>
+        <v>2037.187255859375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1229.811279296875</v>
+        <v>2035.898315429688</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1219.12109375</v>
+        <v>2033.960327148438</v>
       </c>
       <c r="FA4" t="n">
-        <v>1223.768310546875</v>
+        <v>2031.4140625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1226.800415039062</v>
+        <v>2029.870971679688</v>
       </c>
       <c r="FC4" t="n">
-        <v>1213.917602539062</v>
+        <v>2028.434448242188</v>
       </c>
       <c r="FD4" t="n">
-        <v>1213.974243164062</v>
+        <v>2026.977661132812</v>
       </c>
       <c r="FE4" t="n">
-        <v>1201.737060546875</v>
+        <v>2027.523315429688</v>
       </c>
       <c r="FF4" t="n">
-        <v>1170.296875</v>
+        <v>2027.938232421875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1150.43359375</v>
+        <v>2028.512573242188</v>
       </c>
       <c r="FH4" t="n">
-        <v>1146.218872070312</v>
+        <v>2029.869262695312</v>
       </c>
       <c r="FI4" t="n">
-        <v>1129.530517578125</v>
+        <v>2031.9091796875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1112.637939453125</v>
+        <v>2032.21533203125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1094.734252929688</v>
+        <v>2032.272338867188</v>
       </c>
       <c r="FL4" t="n">
-        <v>1085.595581054688</v>
+        <v>2032.236206054688</v>
       </c>
       <c r="FM4" t="n">
-        <v>1054.45703125</v>
+        <v>2032.21630859375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1033.784423828125</v>
+        <v>2032.192749023438</v>
       </c>
       <c r="FO4" t="n">
-        <v>1028.680541992188</v>
+        <v>2032.164184570312</v>
       </c>
       <c r="FP4" t="n">
-        <v>1019.088562011719</v>
+        <v>2032.059814453125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>978.3694458007812</v>
+        <v>2031.877807617188</v>
       </c>
       <c r="FR4" t="n">
-        <v>967.1168212890625</v>
+        <v>2031.84619140625</v>
       </c>
       <c r="FS4" t="n">
-        <v>952.9789428710938</v>
+        <v>2031.169189453125</v>
       </c>
       <c r="FT4" t="n">
-        <v>935.544189453125</v>
+        <v>2030.408203125</v>
       </c>
       <c r="FU4" t="n">
-        <v>920.0918579101562</v>
+        <v>2029.1982421875</v>
       </c>
       <c r="FV4" t="n">
-        <v>891.5772094726562</v>
+        <v>2028.034790039062</v>
       </c>
       <c r="FW4" t="n">
-        <v>854.982177734375</v>
+        <v>2024.02978515625</v>
       </c>
       <c r="FX4" t="n">
-        <v>838.3828125</v>
+        <v>2022.899780273438</v>
       </c>
       <c r="FY4" t="n">
-        <v>787.1249389648438</v>
+        <v>2023.425903320312</v>
       </c>
       <c r="FZ4" t="n">
-        <v>774.5311279296875</v>
+        <v>2023.911499023438</v>
       </c>
       <c r="GA4" t="n">
-        <v>672.3765258789062</v>
+        <v>2025.30859375</v>
       </c>
       <c r="GB4" t="n">
-        <v>644.97021484375</v>
+        <v>2025.970947265625</v>
       </c>
       <c r="GC4" t="n">
-        <v>648.8009033203125</v>
+        <v>2026.320068359375</v>
       </c>
       <c r="GD4" t="n">
-        <v>659.7059326171875</v>
+        <v>2026.632446289062</v>
       </c>
       <c r="GE4" t="n">
-        <v>666.7905883789062</v>
+        <v>2026.507446289062</v>
       </c>
       <c r="GF4" t="n">
-        <v>730.3939819335938</v>
+        <v>2025.528442382812</v>
       </c>
       <c r="GG4" t="n">
-        <v>727.7171020507812</v>
+        <v>2023.503295898438</v>
       </c>
       <c r="GH4" t="n">
-        <v>705.513427734375</v>
+        <v>2016.79248046875</v>
       </c>
       <c r="GI4" t="n">
-        <v>697.0924682617188</v>
+        <v>2015.266235351562</v>
       </c>
       <c r="GJ4" t="n">
-        <v>692.031494140625</v>
+        <v>2013.957641601562</v>
       </c>
       <c r="GK4" t="n">
-        <v>690.9818725585938</v>
+        <v>2012.638793945312</v>
       </c>
       <c r="GL4" t="n">
-        <v>691.3093872070312</v>
+        <v>2011.031494140625</v>
       </c>
       <c r="GM4" t="n">
-        <v>682.0769653320312</v>
+        <v>2010.759643554688</v>
       </c>
       <c r="GN4" t="n">
-        <v>650.9898071289062</v>
+        <v>2010.549072265625</v>
       </c>
       <c r="GO4" t="n">
-        <v>634.9498901367188</v>
+        <v>2010.501708984375</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2010.552490234375</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2010.634521484375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2010.704467773438</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2010.646240234375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2010.5390625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2010.707275390625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2011.330078125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2014.593017578125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2017.559448242188</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2023.110473632812</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2015.772705078125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2003.667846679688</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1966.36376953125</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1947.598510742188</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1933.251098632812</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1890.457641601562</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1876.91748046875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1833.157958984375</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1786.995239257812</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1752.483154296875</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1723.597412109375</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1673.232666015625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1628.0068359375</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1598.67822265625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1585.719116210938</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1565.534423828125</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1533.606079101562</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1499.3271484375</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1475.180053710938</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1434.209228515625</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1404.459106445312</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1369.338012695312</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1351.34619140625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1315.199829101562</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1268.435546875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1220.955810546875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1183.552124023438</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1149.366943359375</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1095.485961914062</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1076.802001953125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1036.188720703125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>990.502685546875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>939.8477783203125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>876.50732421875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>810.31787109375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>730.1705932617188</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>675.0619506835938</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>612.7916870117188</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>560.0377197265625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>539.7498168945312</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>506.1652221679688</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>530.9357299804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>509.690185546875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>516.85791015625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>549.2679443359375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>440.6293640136719</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>531.6253662109375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>592.9089965820312</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>694.5538940429688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>693.6110229492188</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>707.8738403320312</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>707.1439208984375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>697.46630859375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>674.9352416992188</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>713.6121215820312</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>741.1556396484375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>791.0846557617188</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>791.5848388671875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>846.4912719726562</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>864.9193725585938</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>907.7614135742188</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>911.6068725585938</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>815.1563110351562</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>803.6465454101562</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>774.8054809570312</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>792.679443359375</v>
       </c>
     </row>
   </sheetData>

--- a/left_hip_Data.xlsx
+++ b/left_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>264.8307800292969</v>
+        <v>455.9338989257812</v>
       </c>
       <c r="B2" t="n">
-        <v>264.7064819335938</v>
+        <v>457.7470397949219</v>
       </c>
       <c r="C2" t="n">
-        <v>264.75927734375</v>
+        <v>458.2316589355469</v>
       </c>
       <c r="D2" t="n">
-        <v>264.8166809082031</v>
+        <v>459.7465515136719</v>
       </c>
       <c r="E2" t="n">
-        <v>264.899169921875</v>
+        <v>460.8385925292969</v>
       </c>
       <c r="F2" t="n">
-        <v>264.9577331542969</v>
+        <v>461.9712829589844</v>
       </c>
       <c r="G2" t="n">
-        <v>264.9839172363281</v>
+        <v>463.5991821289062</v>
       </c>
       <c r="H2" t="n">
-        <v>265.0387878417969</v>
+        <v>464.64990234375</v>
       </c>
       <c r="I2" t="n">
-        <v>265.13427734375</v>
+        <v>465.1410522460938</v>
       </c>
       <c r="J2" t="n">
-        <v>265.2203369140625</v>
+        <v>465.2372436523438</v>
       </c>
       <c r="K2" t="n">
-        <v>265.2728576660156</v>
+        <v>464.5202026367188</v>
       </c>
       <c r="L2" t="n">
-        <v>265.4422302246094</v>
+        <v>463.655029296875</v>
       </c>
       <c r="M2" t="n">
-        <v>265.6182556152344</v>
+        <v>459.3792724609375</v>
       </c>
       <c r="N2" t="n">
-        <v>265.7499084472656</v>
+        <v>450.525390625</v>
       </c>
       <c r="O2" t="n">
-        <v>265.8767395019531</v>
+        <v>442.0540161132812</v>
       </c>
       <c r="P2" t="n">
-        <v>265.8952941894531</v>
+        <v>437.3889465332031</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.3544921875</v>
+        <v>434.56689453125</v>
       </c>
       <c r="R2" t="n">
-        <v>264.7079162597656</v>
+        <v>433.1122436523438</v>
       </c>
       <c r="S2" t="n">
-        <v>266.274658203125</v>
+        <v>431.9119567871094</v>
       </c>
       <c r="T2" t="n">
-        <v>266.0032958984375</v>
+        <v>429.7124938964844</v>
       </c>
       <c r="U2" t="n">
-        <v>264.6439819335938</v>
+        <v>425.9762573242188</v>
       </c>
       <c r="V2" t="n">
-        <v>261.4276733398438</v>
+        <v>421.4951782226562</v>
       </c>
       <c r="W2" t="n">
-        <v>259.7080688476562</v>
+        <v>417.2101440429688</v>
       </c>
       <c r="X2" t="n">
-        <v>263.8031005859375</v>
+        <v>415.1913757324219</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.7049560546875</v>
+        <v>413.4029541015625</v>
       </c>
       <c r="Z2" t="n">
-        <v>278.5283203125</v>
+        <v>410.3812255859375</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.8299560546875</v>
+        <v>406.7193298339844</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.3672180175781</v>
+        <v>403.1329956054688</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.7447204589844</v>
+        <v>401.7129516601562</v>
       </c>
       <c r="AD2" t="n">
-        <v>291.7364501953125</v>
+        <v>402.8339233398438</v>
       </c>
       <c r="AE2" t="n">
-        <v>292.09423828125</v>
+        <v>404.8558959960938</v>
       </c>
       <c r="AF2" t="n">
-        <v>292.1664428710938</v>
+        <v>406.4715576171875</v>
       </c>
       <c r="AG2" t="n">
-        <v>293.6059875488281</v>
+        <v>407.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>295.7304992675781</v>
+        <v>408.4515075683594</v>
       </c>
       <c r="AI2" t="n">
-        <v>298.1957397460938</v>
+        <v>408.9888305664062</v>
       </c>
       <c r="AJ2" t="n">
-        <v>299.1091613769531</v>
+        <v>408.8995361328125</v>
       </c>
       <c r="AK2" t="n">
-        <v>300.3394470214844</v>
+        <v>408.96630859375</v>
       </c>
       <c r="AL2" t="n">
-        <v>302.5678100585938</v>
+        <v>407.8129577636719</v>
       </c>
       <c r="AM2" t="n">
-        <v>304.6680603027344</v>
+        <v>405.8153686523438</v>
       </c>
       <c r="AN2" t="n">
-        <v>307.7423095703125</v>
+        <v>403.3244018554688</v>
       </c>
       <c r="AO2" t="n">
-        <v>309.7982177734375</v>
+        <v>401.0204467773438</v>
       </c>
       <c r="AP2" t="n">
-        <v>314.86767578125</v>
+        <v>399.6575622558594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>318.8474426269531</v>
+        <v>399.00048828125</v>
       </c>
       <c r="AR2" t="n">
-        <v>318.2940063476562</v>
+        <v>398.4212951660156</v>
       </c>
       <c r="AS2" t="n">
-        <v>313.4598083496094</v>
+        <v>398.3850708007812</v>
       </c>
       <c r="AT2" t="n">
-        <v>310.4355773925781</v>
+        <v>397.9660339355469</v>
       </c>
       <c r="AU2" t="n">
-        <v>312.914794921875</v>
+        <v>394.0432434082031</v>
       </c>
       <c r="AV2" t="n">
-        <v>320.4692993164062</v>
+        <v>387.0561218261719</v>
       </c>
       <c r="AW2" t="n">
-        <v>327.8848266601562</v>
+        <v>380.2102661132812</v>
       </c>
       <c r="AX2" t="n">
-        <v>334.1226806640625</v>
+        <v>374.4220275878906</v>
       </c>
       <c r="AY2" t="n">
-        <v>336.2561645507812</v>
+        <v>369.3968505859375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>335.346435546875</v>
+        <v>361.9488830566406</v>
       </c>
       <c r="BA2" t="n">
-        <v>334.3379211425781</v>
+        <v>353.9176025390625</v>
       </c>
       <c r="BB2" t="n">
-        <v>334.9705200195312</v>
+        <v>344.4198303222656</v>
       </c>
       <c r="BC2" t="n">
-        <v>334.9517517089844</v>
+        <v>336.1283874511719</v>
       </c>
       <c r="BD2" t="n">
-        <v>335.6412963867188</v>
+        <v>330.5491333007812</v>
       </c>
       <c r="BE2" t="n">
-        <v>337.402587890625</v>
+        <v>324.8746948242188</v>
       </c>
       <c r="BF2" t="n">
-        <v>340.3545837402344</v>
+        <v>319.2388610839844</v>
       </c>
       <c r="BG2" t="n">
-        <v>342.9174194335938</v>
+        <v>314.2266845703125</v>
       </c>
       <c r="BH2" t="n">
-        <v>345.4192504882812</v>
+        <v>308.9195556640625</v>
       </c>
       <c r="BI2" t="n">
-        <v>351.5082397460938</v>
+        <v>305.3297424316406</v>
       </c>
       <c r="BJ2" t="n">
-        <v>355.4585571289062</v>
+        <v>302.8565673828125</v>
       </c>
       <c r="BK2" t="n">
-        <v>358.2433776855469</v>
+        <v>301.6012878417969</v>
       </c>
       <c r="BL2" t="n">
-        <v>359.8983764648438</v>
+        <v>299.7310791015625</v>
       </c>
       <c r="BM2" t="n">
-        <v>360.7202758789062</v>
+        <v>295.7289123535156</v>
       </c>
       <c r="BN2" t="n">
-        <v>361.1158447265625</v>
+        <v>289.9255981445312</v>
       </c>
       <c r="BO2" t="n">
-        <v>362.0908203125</v>
+        <v>285.1169128417969</v>
       </c>
       <c r="BP2" t="n">
-        <v>363.6196594238281</v>
+        <v>282.0458679199219</v>
       </c>
       <c r="BQ2" t="n">
-        <v>366.1317138671875</v>
+        <v>279.9475708007812</v>
       </c>
       <c r="BR2" t="n">
-        <v>368.4557495117188</v>
+        <v>277.68798828125</v>
       </c>
       <c r="BS2" t="n">
-        <v>372.0437622070312</v>
+        <v>275.6317749023438</v>
       </c>
       <c r="BT2" t="n">
-        <v>374.687744140625</v>
+        <v>273.8739929199219</v>
       </c>
       <c r="BU2" t="n">
-        <v>379.1658020019531</v>
+        <v>272.3170471191406</v>
       </c>
       <c r="BV2" t="n">
-        <v>382.2692260742188</v>
+        <v>271.3055725097656</v>
       </c>
       <c r="BW2" t="n">
-        <v>385.419189453125</v>
+        <v>270.5365905761719</v>
       </c>
       <c r="BX2" t="n">
-        <v>386.986328125</v>
+        <v>270.0440368652344</v>
       </c>
       <c r="BY2" t="n">
-        <v>387.6336975097656</v>
+        <v>269.5378112792969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>387.5225219726562</v>
+        <v>269.3355712890625</v>
       </c>
       <c r="CA2" t="n">
-        <v>387.9409484863281</v>
+        <v>269.2247009277344</v>
       </c>
       <c r="CB2" t="n">
-        <v>388.6146545410156</v>
+        <v>269.1578369140625</v>
       </c>
       <c r="CC2" t="n">
-        <v>389.5083923339844</v>
+        <v>269.0740661621094</v>
       </c>
       <c r="CD2" t="n">
-        <v>390.1684265136719</v>
+        <v>268.9330749511719</v>
       </c>
       <c r="CE2" t="n">
-        <v>390.5173034667969</v>
+        <v>268.7612609863281</v>
       </c>
       <c r="CF2" t="n">
-        <v>390.5125122070312</v>
+        <v>268.5886535644531</v>
       </c>
       <c r="CG2" t="n">
-        <v>390.2753295898438</v>
+        <v>269.3198852539062</v>
       </c>
       <c r="CH2" t="n">
-        <v>389.9057312011719</v>
+        <v>271.283203125</v>
       </c>
       <c r="CI2" t="n">
-        <v>389.7308959960938</v>
+        <v>274.6774291992188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>389.3963623046875</v>
+        <v>277.1511840820312</v>
       </c>
       <c r="CK2" t="n">
-        <v>388.7075500488281</v>
+        <v>278.7710876464844</v>
       </c>
       <c r="CL2" t="n">
-        <v>387.6109619140625</v>
+        <v>279.8707580566406</v>
       </c>
       <c r="CM2" t="n">
-        <v>386.2197875976562</v>
+        <v>279.9239807128906</v>
       </c>
       <c r="CN2" t="n">
-        <v>384.9677124023438</v>
+        <v>279.9734191894531</v>
       </c>
       <c r="CO2" t="n">
-        <v>384.2760620117188</v>
+        <v>280.000732421875</v>
       </c>
       <c r="CP2" t="n">
-        <v>382.7149047851562</v>
+        <v>280.1304321289062</v>
       </c>
       <c r="CQ2" t="n">
-        <v>381.7777099609375</v>
+        <v>280.2023315429688</v>
       </c>
       <c r="CR2" t="n">
-        <v>380.0601196289062</v>
+        <v>280.3144836425781</v>
       </c>
       <c r="CS2" t="n">
-        <v>379.6419982910156</v>
+        <v>280.28759765625</v>
       </c>
       <c r="CT2" t="n">
-        <v>378.5700073242188</v>
+        <v>279.7884216308594</v>
       </c>
       <c r="CU2" t="n">
-        <v>375.957763671875</v>
+        <v>278.5640563964844</v>
       </c>
       <c r="CV2" t="n">
-        <v>372.8609619140625</v>
+        <v>276.7364807128906</v>
       </c>
       <c r="CW2" t="n">
-        <v>370.2351684570312</v>
+        <v>275.2087097167969</v>
       </c>
       <c r="CX2" t="n">
-        <v>368.8436279296875</v>
+        <v>274.7387390136719</v>
       </c>
       <c r="CY2" t="n">
-        <v>367.0081176757812</v>
+        <v>274.5570068359375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>365.7452392578125</v>
+        <v>274.3773193359375</v>
       </c>
       <c r="DA2" t="n">
-        <v>363.7767944335938</v>
+        <v>274.2861633300781</v>
       </c>
       <c r="DB2" t="n">
-        <v>363.3525390625</v>
+        <v>274.2842407226562</v>
       </c>
       <c r="DC2" t="n">
-        <v>363.0470275878906</v>
+        <v>274.3001098632812</v>
       </c>
       <c r="DD2" t="n">
-        <v>362.7478332519531</v>
+        <v>274.3110961914062</v>
       </c>
       <c r="DE2" t="n">
-        <v>362.4593811035156</v>
+        <v>275.7942199707031</v>
       </c>
       <c r="DF2" t="n">
-        <v>362.3092041015625</v>
+        <v>279.0211181640625</v>
       </c>
       <c r="DG2" t="n">
-        <v>362.2454833984375</v>
+        <v>283.9571228027344</v>
       </c>
       <c r="DH2" t="n">
-        <v>362.2421875</v>
+        <v>289.2780456542969</v>
       </c>
       <c r="DI2" t="n">
-        <v>362.2691650390625</v>
+        <v>294.4679565429688</v>
       </c>
       <c r="DJ2" t="n">
-        <v>362.3213195800781</v>
+        <v>298.7004089355469</v>
       </c>
       <c r="DK2" t="n">
-        <v>362.4192504882812</v>
+        <v>303.8504638671875</v>
       </c>
       <c r="DL2" t="n">
-        <v>362.4795532226562</v>
+        <v>317.2606811523438</v>
       </c>
       <c r="DM2" t="n">
-        <v>362.4468383789062</v>
+        <v>326.4966430664062</v>
       </c>
       <c r="DN2" t="n">
-        <v>362.5332336425781</v>
+        <v>335.3276062011719</v>
       </c>
       <c r="DO2" t="n">
-        <v>362.5287475585938</v>
+        <v>342.8385620117188</v>
       </c>
       <c r="DP2" t="n">
-        <v>362.490478515625</v>
+        <v>360.8201599121094</v>
       </c>
       <c r="DQ2" t="n">
-        <v>362.3701171875</v>
+        <v>370.2689819335938</v>
       </c>
       <c r="DR2" t="n">
-        <v>362.2952270507812</v>
+        <v>378.5348510742188</v>
       </c>
       <c r="DS2" t="n">
-        <v>362.19140625</v>
+        <v>390.9746704101562</v>
       </c>
       <c r="DT2" t="n">
-        <v>361.7981567382812</v>
+        <v>395.7967529296875</v>
       </c>
       <c r="DU2" t="n">
-        <v>361.6330261230469</v>
+        <v>397.7193603515625</v>
       </c>
       <c r="DV2" t="n">
-        <v>361.5072021484375</v>
+        <v>398.10009765625</v>
       </c>
       <c r="DW2" t="n">
-        <v>361.4072265625</v>
+        <v>401.0214233398438</v>
       </c>
       <c r="DX2" t="n">
-        <v>361.4824829101562</v>
+        <v>403.5302429199219</v>
       </c>
       <c r="DY2" t="n">
-        <v>361.4920349121094</v>
+        <v>406.2810974121094</v>
       </c>
       <c r="DZ2" t="n">
-        <v>361.381591796875</v>
+        <v>410.30078125</v>
       </c>
       <c r="EA2" t="n">
-        <v>361.71875</v>
+        <v>411.7981567382812</v>
       </c>
       <c r="EB2" t="n">
-        <v>362.3138122558594</v>
+        <v>413.8228149414062</v>
       </c>
       <c r="EC2" t="n">
-        <v>363.6490478515625</v>
+        <v>414.0788269042969</v>
       </c>
       <c r="ED2" t="n">
-        <v>363.9123229980469</v>
+        <v>413.4247131347656</v>
       </c>
       <c r="EE2" t="n">
-        <v>363.9215393066406</v>
+        <v>412.0805053710938</v>
       </c>
       <c r="EF2" t="n">
-        <v>363.7699890136719</v>
+        <v>409.3505554199219</v>
       </c>
       <c r="EG2" t="n">
-        <v>363.278564453125</v>
+        <v>402.4241943359375</v>
       </c>
       <c r="EH2" t="n">
-        <v>363.5655212402344</v>
+        <v>400.1214294433594</v>
       </c>
       <c r="EI2" t="n">
-        <v>364.0113525390625</v>
+        <v>396.8567504882812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>364.1064453125</v>
+        <v>395.2703247070312</v>
       </c>
       <c r="EK2" t="n">
-        <v>364.2669982910156</v>
+        <v>392.2439880371094</v>
       </c>
       <c r="EL2" t="n">
-        <v>364.2996826171875</v>
+        <v>387.4780883789062</v>
       </c>
       <c r="EM2" t="n">
-        <v>364.4768676757812</v>
+        <v>375.2739868164062</v>
       </c>
       <c r="EN2" t="n">
-        <v>365.7730712890625</v>
+        <v>370.8128051757812</v>
       </c>
       <c r="EO2" t="n">
-        <v>367.5508117675781</v>
+        <v>360.1353149414062</v>
       </c>
       <c r="EP2" t="n">
-        <v>369.5554809570312</v>
+        <v>356.2740783691406</v>
       </c>
       <c r="EQ2" t="n">
-        <v>369.6966857910156</v>
+        <v>348.0145874023438</v>
       </c>
       <c r="ER2" t="n">
-        <v>369.572509765625</v>
+        <v>343.2410278320312</v>
       </c>
       <c r="ES2" t="n">
-        <v>369.7510986328125</v>
+        <v>340.4805908203125</v>
       </c>
       <c r="ET2" t="n">
-        <v>369.9752807617188</v>
+        <v>340.2394104003906</v>
       </c>
       <c r="EU2" t="n">
-        <v>369.9766235351562</v>
+        <v>340.4976196289062</v>
       </c>
       <c r="EV2" t="n">
-        <v>369.83740234375</v>
+        <v>338.2805786132812</v>
       </c>
       <c r="EW2" t="n">
-        <v>369.618408203125</v>
+        <v>331.4049682617188</v>
       </c>
       <c r="EX2" t="n">
-        <v>369.4778442382812</v>
+        <v>329.3414001464844</v>
       </c>
       <c r="EY2" t="n">
-        <v>369.3929443359375</v>
+        <v>329.6171569824219</v>
       </c>
       <c r="EZ2" t="n">
-        <v>369.377685546875</v>
+        <v>334.7522583007812</v>
       </c>
       <c r="FA2" t="n">
-        <v>369.3566589355469</v>
+        <v>343.5821533203125</v>
       </c>
       <c r="FB2" t="n">
-        <v>369.3200073242188</v>
+        <v>353.1654052734375</v>
       </c>
       <c r="FC2" t="n">
-        <v>369.2918701171875</v>
+        <v>359.1664428710938</v>
       </c>
       <c r="FD2" t="n">
-        <v>369.4055786132812</v>
+        <v>364.489013671875</v>
       </c>
       <c r="FE2" t="n">
-        <v>369.62353515625</v>
+        <v>369.3772583007812</v>
       </c>
       <c r="FF2" t="n">
-        <v>369.7156066894531</v>
+        <v>377.76513671875</v>
       </c>
       <c r="FG2" t="n">
-        <v>369.7808227539062</v>
+        <v>381.0634155273438</v>
       </c>
       <c r="FH2" t="n">
-        <v>369.7164916992188</v>
+        <v>389.9347229003906</v>
       </c>
       <c r="FI2" t="n">
-        <v>369.753662109375</v>
+        <v>396.9119262695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>369.81494140625</v>
+        <v>405.5440063476562</v>
       </c>
       <c r="FK2" t="n">
-        <v>369.8526306152344</v>
+        <v>410.2032775878906</v>
       </c>
       <c r="FL2" t="n">
-        <v>369.9251708984375</v>
+        <v>428.8776245117188</v>
       </c>
       <c r="FM2" t="n">
-        <v>369.9522705078125</v>
+        <v>443.3630065917969</v>
       </c>
       <c r="FN2" t="n">
-        <v>369.9732055664062</v>
+        <v>456.8087158203125</v>
       </c>
       <c r="FO2" t="n">
-        <v>369.9920043945312</v>
+        <v>477.4567260742188</v>
       </c>
       <c r="FP2" t="n">
-        <v>370.0208740234375</v>
+        <v>492.2601623535156</v>
       </c>
       <c r="FQ2" t="n">
-        <v>369.9728393554688</v>
+        <v>503.4622802734375</v>
       </c>
       <c r="FR2" t="n">
-        <v>369.8578186035156</v>
+        <v>513.71142578125</v>
       </c>
       <c r="FS2" t="n">
-        <v>369.6083984375</v>
+        <v>511.9074096679688</v>
       </c>
       <c r="FT2" t="n">
-        <v>370.0382080078125</v>
+        <v>510.2665710449219</v>
       </c>
       <c r="FU2" t="n">
-        <v>370.4687194824219</v>
+        <v>513.36279296875</v>
       </c>
       <c r="FV2" t="n">
-        <v>370.5615844726562</v>
+        <v>520.4961547851562</v>
       </c>
       <c r="FW2" t="n">
-        <v>370.8376770019531</v>
+        <v>540.3644409179688</v>
       </c>
       <c r="FX2" t="n">
-        <v>370.9747619628906</v>
+        <v>543.4467163085938</v>
       </c>
       <c r="FY2" t="n">
-        <v>370.8550415039062</v>
+        <v>540.4482421875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>370.6532592773438</v>
+        <v>539.6400756835938</v>
       </c>
       <c r="GA2" t="n">
-        <v>369.9930114746094</v>
+        <v>528.5267333984375</v>
       </c>
       <c r="GB2" t="n">
-        <v>369.578857421875</v>
+        <v>523.60888671875</v>
       </c>
       <c r="GC2" t="n">
-        <v>368.7536315917969</v>
+        <v>544.5062866210938</v>
       </c>
       <c r="GD2" t="n">
-        <v>368.0194091796875</v>
+        <v>566.6175537109375</v>
       </c>
       <c r="GE2" t="n">
-        <v>368.1575317382812</v>
+        <v>566.7337036132812</v>
       </c>
       <c r="GF2" t="n">
-        <v>368.4981994628906</v>
+        <v>558.6380615234375</v>
       </c>
       <c r="GG2" t="n">
-        <v>368.3356018066406</v>
+        <v>529.9085693359375</v>
       </c>
       <c r="GH2" t="n">
-        <v>368.1347045898438</v>
+        <v>444.39697265625</v>
       </c>
       <c r="GI2" t="n">
-        <v>367.8125305175781</v>
+        <v>414.1348876953125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>367.5372619628906</v>
+        <v>431.9349975585938</v>
       </c>
       <c r="GK2" t="n">
-        <v>366.7810668945312</v>
+        <v>449.953857421875</v>
       </c>
       <c r="GL2" t="n">
-        <v>366.5535888671875</v>
+        <v>452.5418395996094</v>
       </c>
       <c r="GM2" t="n">
-        <v>366.7924499511719</v>
+        <v>444.4205932617188</v>
       </c>
       <c r="GN2" t="n">
-        <v>366.8078918457031</v>
+        <v>393.6545104980469</v>
       </c>
       <c r="GO2" t="n">
-        <v>366.7889709472656</v>
+        <v>389.1634521484375</v>
       </c>
       <c r="GP2" t="n">
-        <v>366.655517578125</v>
+        <v>364.0386962890625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>366.3885192871094</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>366.0463256835938</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>365.8642272949219</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>365.4809265136719</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>364.864501953125</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>362.9056396484375</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>361.9228515625</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>361.5576477050781</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>360.6427001953125</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>360.2889404296875</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>359.765869140625</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>357.7291259765625</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>355.3052368164062</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>354.2911987304688</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>353.5534057617188</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>353.3885498046875</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>353.7898254394531</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>354.69873046875</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>354.0853271484375</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>353.9907531738281</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>353.9791259765625</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>353.4298400878906</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>349.8741149902344</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>345.7462768554688</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>344.1396484375</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>344.3363037109375</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>344.8250732421875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>346.0111694335938</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>346.6727905273438</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>346.0269165039062</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>342.734130859375</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>340.825927734375</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>334.5307922363281</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>330.2439575195312</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>325.8458251953125</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>320.2798156738281</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>316.8646850585938</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>317.2492980957031</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>318.256103515625</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>320.8099670410156</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>322.0313110351562</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>322.8214111328125</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>324.768310546875</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>333.0196838378906</v>
-      </c>
-      <c r="II2" t="n">
-        <v>338.7260131835938</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>341.343017578125</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>355.6210327148438</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>374.4315795898438</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>381.4135131835938</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>318.025146484375</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>302.7659301757812</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>263.4308471679688</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>255.4366149902344</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>263.5605773925781</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>304.7395324707031</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>306.5295715332031</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>281.6548156738281</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>255.7040710449219</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>247.7047882080078</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>231.9945068359375</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>215.9483642578125</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>209.6717529296875</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>215.1541290283203</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>212.7854766845703</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>212.3967895507812</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>229.8115539550781</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>242.193115234375</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>271.9202270507812</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>300.7024230957031</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>317.3582458496094</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>314.500244140625</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>268.9737854003906</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>241.8323974609375</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>219.5613250732422</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>212.3080596923828</v>
+        <v>371.9141845703125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>383.9794921875</v>
+        <v>421.3059692382812</v>
       </c>
       <c r="B3" t="n">
-        <v>384.3684692382812</v>
+        <v>409.2008666992188</v>
       </c>
       <c r="C3" t="n">
-        <v>384.295654296875</v>
+        <v>408.2642822265625</v>
       </c>
       <c r="D3" t="n">
-        <v>384.2435913085938</v>
+        <v>407.5191955566406</v>
       </c>
       <c r="E3" t="n">
-        <v>384.2045593261719</v>
+        <v>406.9133605957031</v>
       </c>
       <c r="F3" t="n">
-        <v>384.1790771484375</v>
+        <v>405.0977478027344</v>
       </c>
       <c r="G3" t="n">
-        <v>384.2051086425781</v>
+        <v>402.0807495117188</v>
       </c>
       <c r="H3" t="n">
-        <v>384.224365234375</v>
+        <v>403.4573059082031</v>
       </c>
       <c r="I3" t="n">
-        <v>384.2396240234375</v>
+        <v>398.4131774902344</v>
       </c>
       <c r="J3" t="n">
-        <v>384.2583923339844</v>
+        <v>393.6434936523438</v>
       </c>
       <c r="K3" t="n">
-        <v>384.3118286132812</v>
+        <v>390.7123718261719</v>
       </c>
       <c r="L3" t="n">
-        <v>384.4214172363281</v>
+        <v>385.9372863769531</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5111999511719</v>
+        <v>377.0501403808594</v>
       </c>
       <c r="N3" t="n">
-        <v>384.6337280273438</v>
+        <v>369.939697265625</v>
       </c>
       <c r="O3" t="n">
-        <v>384.3548278808594</v>
+        <v>361.4425659179688</v>
       </c>
       <c r="P3" t="n">
-        <v>383.8069763183594</v>
+        <v>353.2471313476562</v>
       </c>
       <c r="Q3" t="n">
-        <v>383.4907531738281</v>
+        <v>349.763427734375</v>
       </c>
       <c r="R3" t="n">
-        <v>380.8390808105469</v>
+        <v>342.7666625976562</v>
       </c>
       <c r="S3" t="n">
-        <v>377.3171691894531</v>
+        <v>335.5662536621094</v>
       </c>
       <c r="T3" t="n">
-        <v>379.9339294433594</v>
+        <v>330.6173095703125</v>
       </c>
       <c r="U3" t="n">
-        <v>383.8685913085938</v>
+        <v>326.5520935058594</v>
       </c>
       <c r="V3" t="n">
-        <v>392.5384826660156</v>
+        <v>321.5531311035156</v>
       </c>
       <c r="W3" t="n">
-        <v>402.0540771484375</v>
+        <v>318.4898071289062</v>
       </c>
       <c r="X3" t="n">
-        <v>405.4187927246094</v>
+        <v>315.7902221679688</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.1445007324219</v>
+        <v>312.7927856445312</v>
       </c>
       <c r="Z3" t="n">
-        <v>405.0418395996094</v>
+        <v>312.7996215820312</v>
       </c>
       <c r="AA3" t="n">
-        <v>403.7806396484375</v>
+        <v>313.4803771972656</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.7552795410156</v>
+        <v>315.2736206054688</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.8099365234375</v>
+        <v>317.8966979980469</v>
       </c>
       <c r="AD3" t="n">
-        <v>404.267578125</v>
+        <v>318.8893432617188</v>
       </c>
       <c r="AE3" t="n">
-        <v>404.5386047363281</v>
+        <v>318.364990234375</v>
       </c>
       <c r="AF3" t="n">
-        <v>405.8231506347656</v>
+        <v>317.7244567871094</v>
       </c>
       <c r="AG3" t="n">
-        <v>406.6917724609375</v>
+        <v>317.3766784667969</v>
       </c>
       <c r="AH3" t="n">
-        <v>405.2233276367188</v>
+        <v>316.6405029296875</v>
       </c>
       <c r="AI3" t="n">
-        <v>403.3881530761719</v>
+        <v>316.1363830566406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>403.0126647949219</v>
+        <v>317.506103515625</v>
       </c>
       <c r="AK3" t="n">
-        <v>402.4619140625</v>
+        <v>318.3200988769531</v>
       </c>
       <c r="AL3" t="n">
-        <v>401.2127380371094</v>
+        <v>318.9931945800781</v>
       </c>
       <c r="AM3" t="n">
-        <v>400.0657348632812</v>
+        <v>319.558837890625</v>
       </c>
       <c r="AN3" t="n">
-        <v>399.5232238769531</v>
+        <v>318.4187927246094</v>
       </c>
       <c r="AO3" t="n">
-        <v>398.6636962890625</v>
+        <v>316.0956115722656</v>
       </c>
       <c r="AP3" t="n">
-        <v>373.4400024414062</v>
+        <v>314.9257507324219</v>
       </c>
       <c r="AQ3" t="n">
-        <v>354.6712341308594</v>
+        <v>315.4037475585938</v>
       </c>
       <c r="AR3" t="n">
-        <v>349.6763000488281</v>
+        <v>316.447509765625</v>
       </c>
       <c r="AS3" t="n">
-        <v>360.6283569335938</v>
+        <v>318.3880615234375</v>
       </c>
       <c r="AT3" t="n">
-        <v>373.1962890625</v>
+        <v>321.1689453125</v>
       </c>
       <c r="AU3" t="n">
-        <v>383.5830383300781</v>
+        <v>323.5042724609375</v>
       </c>
       <c r="AV3" t="n">
-        <v>384.1672973632812</v>
+        <v>324.849609375</v>
       </c>
       <c r="AW3" t="n">
-        <v>384.4275817871094</v>
+        <v>324.689208984375</v>
       </c>
       <c r="AX3" t="n">
-        <v>383.7930603027344</v>
+        <v>324.7389831542969</v>
       </c>
       <c r="AY3" t="n">
-        <v>383.3503723144531</v>
+        <v>326.7977294921875</v>
       </c>
       <c r="AZ3" t="n">
-        <v>382.8241577148438</v>
+        <v>327.9864196777344</v>
       </c>
       <c r="BA3" t="n">
-        <v>377.7362670898438</v>
+        <v>327.4273376464844</v>
       </c>
       <c r="BB3" t="n">
-        <v>370.803466796875</v>
+        <v>327.1073303222656</v>
       </c>
       <c r="BC3" t="n">
-        <v>371.1893310546875</v>
+        <v>327.1315002441406</v>
       </c>
       <c r="BD3" t="n">
-        <v>367.10205078125</v>
+        <v>328.9274597167969</v>
       </c>
       <c r="BE3" t="n">
-        <v>363.5095520019531</v>
+        <v>329.8223876953125</v>
       </c>
       <c r="BF3" t="n">
-        <v>358.851318359375</v>
+        <v>328.7780151367188</v>
       </c>
       <c r="BG3" t="n">
-        <v>356.7478942871094</v>
+        <v>326.5433349609375</v>
       </c>
       <c r="BH3" t="n">
-        <v>355.9138793945312</v>
+        <v>325.6080322265625</v>
       </c>
       <c r="BI3" t="n">
-        <v>357.3730773925781</v>
+        <v>324.7768859863281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>356.168212890625</v>
+        <v>324.5965270996094</v>
       </c>
       <c r="BK3" t="n">
-        <v>355.1129455566406</v>
+        <v>324.2254028320312</v>
       </c>
       <c r="BL3" t="n">
-        <v>354.1154174804688</v>
+        <v>324.7914123535156</v>
       </c>
       <c r="BM3" t="n">
-        <v>354.5033264160156</v>
+        <v>325.0520629882812</v>
       </c>
       <c r="BN3" t="n">
-        <v>356.1954040527344</v>
+        <v>324.7329406738281</v>
       </c>
       <c r="BO3" t="n">
-        <v>360.1593627929688</v>
+        <v>324.24560546875</v>
       </c>
       <c r="BP3" t="n">
-        <v>361.7175598144531</v>
+        <v>323.8154602050781</v>
       </c>
       <c r="BQ3" t="n">
-        <v>359.2680969238281</v>
+        <v>323.4043273925781</v>
       </c>
       <c r="BR3" t="n">
-        <v>358.0171203613281</v>
+        <v>323.3900146484375</v>
       </c>
       <c r="BS3" t="n">
-        <v>358.1604309082031</v>
+        <v>323.4539489746094</v>
       </c>
       <c r="BT3" t="n">
-        <v>361.5335693359375</v>
+        <v>323.2145080566406</v>
       </c>
       <c r="BU3" t="n">
-        <v>361.0451354980469</v>
+        <v>322.7780456542969</v>
       </c>
       <c r="BV3" t="n">
-        <v>358.9424133300781</v>
+        <v>322.5330200195312</v>
       </c>
       <c r="BW3" t="n">
-        <v>357.1974487304688</v>
+        <v>322.6549377441406</v>
       </c>
       <c r="BX3" t="n">
-        <v>355.4053955078125</v>
+        <v>322.8263854980469</v>
       </c>
       <c r="BY3" t="n">
-        <v>353.9515991210938</v>
+        <v>322.8988342285156</v>
       </c>
       <c r="BZ3" t="n">
-        <v>352.6566467285156</v>
+        <v>322.871337890625</v>
       </c>
       <c r="CA3" t="n">
-        <v>351.1982421875</v>
+        <v>322.8880615234375</v>
       </c>
       <c r="CB3" t="n">
-        <v>349.6209106445312</v>
+        <v>322.8911743164062</v>
       </c>
       <c r="CC3" t="n">
-        <v>348.4884338378906</v>
+        <v>322.9680786132812</v>
       </c>
       <c r="CD3" t="n">
-        <v>347.7302551269531</v>
+        <v>323.2420349121094</v>
       </c>
       <c r="CE3" t="n">
-        <v>346.7136840820312</v>
+        <v>323.6176452636719</v>
       </c>
       <c r="CF3" t="n">
-        <v>345.7262268066406</v>
+        <v>324.2907104492188</v>
       </c>
       <c r="CG3" t="n">
-        <v>345.1415710449219</v>
+        <v>325.5241088867188</v>
       </c>
       <c r="CH3" t="n">
-        <v>344.5266723632812</v>
+        <v>327.6021423339844</v>
       </c>
       <c r="CI3" t="n">
-        <v>344.6014099121094</v>
+        <v>328.376220703125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>344.7498779296875</v>
+        <v>328.3867797851562</v>
       </c>
       <c r="CK3" t="n">
-        <v>344.8978271484375</v>
+        <v>328.5387878417969</v>
       </c>
       <c r="CL3" t="n">
-        <v>347.3841247558594</v>
+        <v>327.9795532226562</v>
       </c>
       <c r="CM3" t="n">
-        <v>349.6829528808594</v>
+        <v>328.3170471191406</v>
       </c>
       <c r="CN3" t="n">
-        <v>352.2376708984375</v>
+        <v>328.5575866699219</v>
       </c>
       <c r="CO3" t="n">
-        <v>353.05224609375</v>
+        <v>328.7825622558594</v>
       </c>
       <c r="CP3" t="n">
-        <v>354.7514343261719</v>
+        <v>328.7208251953125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>355.2581787109375</v>
+        <v>328.7320251464844</v>
       </c>
       <c r="CR3" t="n">
-        <v>356.6387939453125</v>
+        <v>328.6994018554688</v>
       </c>
       <c r="CS3" t="n">
-        <v>356.00439453125</v>
+        <v>328.7742919921875</v>
       </c>
       <c r="CT3" t="n">
-        <v>355.9345092773438</v>
+        <v>328.697998046875</v>
       </c>
       <c r="CU3" t="n">
-        <v>355.6747436523438</v>
+        <v>328.4215087890625</v>
       </c>
       <c r="CV3" t="n">
-        <v>354.3237915039062</v>
+        <v>328.0007934570312</v>
       </c>
       <c r="CW3" t="n">
-        <v>353.1777038574219</v>
+        <v>327.6858825683594</v>
       </c>
       <c r="CX3" t="n">
-        <v>351.8245849609375</v>
+        <v>327.5794982910156</v>
       </c>
       <c r="CY3" t="n">
-        <v>350.5891723632812</v>
+        <v>327.4876403808594</v>
       </c>
       <c r="CZ3" t="n">
-        <v>350.4224853515625</v>
+        <v>327.3952331542969</v>
       </c>
       <c r="DA3" t="n">
-        <v>349.4206848144531</v>
+        <v>327.2875061035156</v>
       </c>
       <c r="DB3" t="n">
-        <v>349.3005981445312</v>
+        <v>327.1222229003906</v>
       </c>
       <c r="DC3" t="n">
-        <v>349.1337890625</v>
+        <v>326.9841918945312</v>
       </c>
       <c r="DD3" t="n">
-        <v>349.0107116699219</v>
+        <v>326.9414367675781</v>
       </c>
       <c r="DE3" t="n">
-        <v>348.9199829101562</v>
+        <v>327.0634460449219</v>
       </c>
       <c r="DF3" t="n">
-        <v>348.8562927246094</v>
+        <v>327.0563049316406</v>
       </c>
       <c r="DG3" t="n">
-        <v>348.83544921875</v>
+        <v>326.5103149414062</v>
       </c>
       <c r="DH3" t="n">
-        <v>348.7122497558594</v>
+        <v>327.1260681152344</v>
       </c>
       <c r="DI3" t="n">
-        <v>348.537109375</v>
+        <v>327.8991394042969</v>
       </c>
       <c r="DJ3" t="n">
-        <v>348.29248046875</v>
+        <v>329.2247009277344</v>
       </c>
       <c r="DK3" t="n">
-        <v>347.9436340332031</v>
+        <v>330.0820617675781</v>
       </c>
       <c r="DL3" t="n">
-        <v>347.6722412109375</v>
+        <v>337.3706359863281</v>
       </c>
       <c r="DM3" t="n">
-        <v>347.595947265625</v>
+        <v>337.4971313476562</v>
       </c>
       <c r="DN3" t="n">
-        <v>347.1970520019531</v>
+        <v>337.1817626953125</v>
       </c>
       <c r="DO3" t="n">
-        <v>346.7950744628906</v>
+        <v>337.4835205078125</v>
       </c>
       <c r="DP3" t="n">
-        <v>346.72265625</v>
+        <v>336.9923706054688</v>
       </c>
       <c r="DQ3" t="n">
-        <v>346.6890869140625</v>
+        <v>337.222900390625</v>
       </c>
       <c r="DR3" t="n">
-        <v>346.6427307128906</v>
+        <v>337.3883666992188</v>
       </c>
       <c r="DS3" t="n">
-        <v>346.6193237304688</v>
+        <v>335.9781188964844</v>
       </c>
       <c r="DT3" t="n">
-        <v>346.5107727050781</v>
+        <v>335.7648010253906</v>
       </c>
       <c r="DU3" t="n">
-        <v>346.4614562988281</v>
+        <v>335.2400207519531</v>
       </c>
       <c r="DV3" t="n">
-        <v>346.4140930175781</v>
+        <v>329.2342529296875</v>
       </c>
       <c r="DW3" t="n">
-        <v>346.3914184570312</v>
+        <v>324.1287231445312</v>
       </c>
       <c r="DX3" t="n">
-        <v>346.4224853515625</v>
+        <v>323.51708984375</v>
       </c>
       <c r="DY3" t="n">
-        <v>346.4044189453125</v>
+        <v>323.0162048339844</v>
       </c>
       <c r="DZ3" t="n">
-        <v>346.5426940917969</v>
+        <v>322.1085205078125</v>
       </c>
       <c r="EA3" t="n">
-        <v>346.7840270996094</v>
+        <v>321.41259765625</v>
       </c>
       <c r="EB3" t="n">
-        <v>347.1280212402344</v>
+        <v>321.8819580078125</v>
       </c>
       <c r="EC3" t="n">
-        <v>347.9921875</v>
+        <v>322.1856384277344</v>
       </c>
       <c r="ED3" t="n">
-        <v>348.2578430175781</v>
+        <v>323.5859069824219</v>
       </c>
       <c r="EE3" t="n">
-        <v>348.9082336425781</v>
+        <v>323.7593078613281</v>
       </c>
       <c r="EF3" t="n">
-        <v>349.5004272460938</v>
+        <v>323.9822082519531</v>
       </c>
       <c r="EG3" t="n">
-        <v>351.1771240234375</v>
+        <v>323.7476806640625</v>
       </c>
       <c r="EH3" t="n">
-        <v>350.9274597167969</v>
+        <v>324.0895690917969</v>
       </c>
       <c r="EI3" t="n">
-        <v>350.4859619140625</v>
+        <v>324.7030944824219</v>
       </c>
       <c r="EJ3" t="n">
-        <v>350.5537414550781</v>
+        <v>325.056640625</v>
       </c>
       <c r="EK3" t="n">
-        <v>350.7812805175781</v>
+        <v>326.7970275878906</v>
       </c>
       <c r="EL3" t="n">
-        <v>350.8823852539062</v>
+        <v>329.1947631835938</v>
       </c>
       <c r="EM3" t="n">
-        <v>350.7426147460938</v>
+        <v>334.2126770019531</v>
       </c>
       <c r="EN3" t="n">
-        <v>350.824951171875</v>
+        <v>334.1954345703125</v>
       </c>
       <c r="EO3" t="n">
-        <v>351.1388854980469</v>
+        <v>337.0857238769531</v>
       </c>
       <c r="EP3" t="n">
-        <v>351.4884643554688</v>
+        <v>339.0084228515625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>351.3953552246094</v>
+        <v>343.4623413085938</v>
       </c>
       <c r="ER3" t="n">
-        <v>350.7852172851562</v>
+        <v>343.1788024902344</v>
       </c>
       <c r="ES3" t="n">
-        <v>350.5642395019531</v>
+        <v>338.2931518554688</v>
       </c>
       <c r="ET3" t="n">
-        <v>349.6774291992188</v>
+        <v>337.1375427246094</v>
       </c>
       <c r="EU3" t="n">
-        <v>349.521240234375</v>
+        <v>333.0912475585938</v>
       </c>
       <c r="EV3" t="n">
-        <v>349.4837341308594</v>
+        <v>334.3333740234375</v>
       </c>
       <c r="EW3" t="n">
-        <v>349.3968811035156</v>
+        <v>340.1748352050781</v>
       </c>
       <c r="EX3" t="n">
-        <v>349.361572265625</v>
+        <v>341.1689758300781</v>
       </c>
       <c r="EY3" t="n">
-        <v>349.4301147460938</v>
+        <v>342.7579650878906</v>
       </c>
       <c r="EZ3" t="n">
-        <v>349.4596252441406</v>
+        <v>346.2470397949219</v>
       </c>
       <c r="FA3" t="n">
-        <v>349.5291748046875</v>
+        <v>347.6620178222656</v>
       </c>
       <c r="FB3" t="n">
-        <v>349.5960998535156</v>
+        <v>350.0282897949219</v>
       </c>
       <c r="FC3" t="n">
-        <v>349.6551818847656</v>
+        <v>357.3152160644531</v>
       </c>
       <c r="FD3" t="n">
-        <v>349.6878356933594</v>
+        <v>363.088134765625</v>
       </c>
       <c r="FE3" t="n">
-        <v>349.6220397949219</v>
+        <v>366.8695678710938</v>
       </c>
       <c r="FF3" t="n">
-        <v>349.8398132324219</v>
+        <v>389.9823608398438</v>
       </c>
       <c r="FG3" t="n">
-        <v>349.8325805664062</v>
+        <v>409.8053894042969</v>
       </c>
       <c r="FH3" t="n">
-        <v>349.7559509277344</v>
+        <v>431.5884704589844</v>
       </c>
       <c r="FI3" t="n">
-        <v>349.6963806152344</v>
+        <v>435.2408142089844</v>
       </c>
       <c r="FJ3" t="n">
-        <v>349.7449645996094</v>
+        <v>449.8921203613281</v>
       </c>
       <c r="FK3" t="n">
-        <v>349.8485412597656</v>
+        <v>468.9945678710938</v>
       </c>
       <c r="FL3" t="n">
-        <v>349.7073059082031</v>
+        <v>504.3621826171875</v>
       </c>
       <c r="FM3" t="n">
-        <v>349.739501953125</v>
+        <v>506.4036865234375</v>
       </c>
       <c r="FN3" t="n">
-        <v>349.7507934570312</v>
+        <v>509.4219055175781</v>
       </c>
       <c r="FO3" t="n">
-        <v>349.7610473632812</v>
+        <v>525.3999633789062</v>
       </c>
       <c r="FP3" t="n">
-        <v>349.7930908203125</v>
+        <v>550.7362060546875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>350.0308837890625</v>
+        <v>554.42041015625</v>
       </c>
       <c r="FR3" t="n">
-        <v>350.3798828125</v>
+        <v>551.1505126953125</v>
       </c>
       <c r="FS3" t="n">
-        <v>352.0177307128906</v>
+        <v>529.8803100585938</v>
       </c>
       <c r="FT3" t="n">
-        <v>352.1326599121094</v>
+        <v>516.6470336914062</v>
       </c>
       <c r="FU3" t="n">
-        <v>352.3807983398438</v>
+        <v>507.7386474609375</v>
       </c>
       <c r="FV3" t="n">
-        <v>352.4549865722656</v>
+        <v>505.9851684570312</v>
       </c>
       <c r="FW3" t="n">
-        <v>352.3983764648438</v>
+        <v>498.1186218261719</v>
       </c>
       <c r="FX3" t="n">
-        <v>352.1882629394531</v>
+        <v>505.6868896484375</v>
       </c>
       <c r="FY3" t="n">
-        <v>352.1075439453125</v>
+        <v>515.995849609375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>352.1453552246094</v>
+        <v>518.53759765625</v>
       </c>
       <c r="GA3" t="n">
-        <v>352.3666381835938</v>
+        <v>527.1630859375</v>
       </c>
       <c r="GB3" t="n">
-        <v>352.5105590820312</v>
+        <v>515.7890625</v>
       </c>
       <c r="GC3" t="n">
-        <v>352.9197998046875</v>
+        <v>498.3125</v>
       </c>
       <c r="GD3" t="n">
-        <v>353.5863342285156</v>
+        <v>484.8173828125</v>
       </c>
       <c r="GE3" t="n">
-        <v>353.0946655273438</v>
+        <v>504.8925170898438</v>
       </c>
       <c r="GF3" t="n">
-        <v>351.6288146972656</v>
+        <v>530.3385009765625</v>
       </c>
       <c r="GG3" t="n">
-        <v>351.9154357910156</v>
+        <v>526.0938720703125</v>
       </c>
       <c r="GH3" t="n">
-        <v>352.115966796875</v>
+        <v>578.8003540039062</v>
       </c>
       <c r="GI3" t="n">
-        <v>351.8416748046875</v>
+        <v>538.1393432617188</v>
       </c>
       <c r="GJ3" t="n">
-        <v>351.7848815917969</v>
+        <v>525.3238525390625</v>
       </c>
       <c r="GK3" t="n">
-        <v>351.32861328125</v>
+        <v>550.597900390625</v>
       </c>
       <c r="GL3" t="n">
-        <v>350.8341064453125</v>
+        <v>541.0896606445312</v>
       </c>
       <c r="GM3" t="n">
-        <v>350.3825988769531</v>
+        <v>537.8858032226562</v>
       </c>
       <c r="GN3" t="n">
-        <v>350.3341674804688</v>
+        <v>561.9761962890625</v>
       </c>
       <c r="GO3" t="n">
-        <v>350.3568420410156</v>
+        <v>559.1902465820312</v>
       </c>
       <c r="GP3" t="n">
-        <v>350.2404479980469</v>
+        <v>596.08642578125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>350.1287536621094</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>350.06005859375</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>350.0867614746094</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>350.4662475585938</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>351.3320922851562</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>352.8084411621094</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>352.0785522460938</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>351.312744140625</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>348.7891235351562</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>347.4328002929688</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>347.6165466308594</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>348.8541259765625</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>348.9669494628906</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>349.2166748046875</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>349.8466796875</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>350.2432250976562</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>353.1962585449219</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>356.1114807128906</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>354.1053771972656</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>351.1029968261719</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>348.4962158203125</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>348.1509704589844</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>352.9784545898438</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>358.4373779296875</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>360.0736083984375</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>359.4650268554688</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>360.0593566894531</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>359.2418212890625</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>359.3793334960938</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>360.8519592285156</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>363.5530395507812</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>365.4331970214844</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>368.5353393554688</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>365.8575134277344</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>364.7288208007812</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>368.1214294433594</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>371.5823974609375</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>360.3897399902344</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>356.9658508300781</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>357.7783813476562</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>361.6266784667969</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>366.59619140625</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>373.3444519042969</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>379.3987426757812</v>
-      </c>
-      <c r="II3" t="n">
-        <v>398.5290222167969</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>425.5027465820312</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>432.3472900390625</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>450.2922973632812</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>549.8309326171875</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>708.4661865234375</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>661.6210327148438</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>668.9100341796875</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>653.2315673828125</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>620.7081909179688</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>639.4400024414062</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>501.1810607910156</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>451.9658813476562</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>436.5967102050781</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>454.6547546386719</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>447.5098571777344</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>463.2469177246094</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>513.3421020507812</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>556.5274658203125</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>569.8388671875</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>551.766357421875</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>531.5156860351562</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>525.6475219726562</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>509.3376159667969</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>527.1988525390625</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>514.6924438476562</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>508.1448974609375</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>541.9758911132812</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>540.55078125</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>555.8545532226562</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>564.6056518554688</v>
+        <v>588.0769653320312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>842.368896484375</v>
+        <v>1159.563598632812</v>
       </c>
       <c r="B4" t="n">
-        <v>842.4635009765625</v>
+        <v>1166.588623046875</v>
       </c>
       <c r="C4" t="n">
-        <v>842.53125</v>
+        <v>1174.229370117188</v>
       </c>
       <c r="D4" t="n">
-        <v>842.6162719726562</v>
+        <v>1172.126220703125</v>
       </c>
       <c r="E4" t="n">
-        <v>842.6822509765625</v>
+        <v>1168.825561523438</v>
       </c>
       <c r="F4" t="n">
-        <v>842.677001953125</v>
+        <v>1170.064331054688</v>
       </c>
       <c r="G4" t="n">
-        <v>842.6376953125</v>
+        <v>1171.457275390625</v>
       </c>
       <c r="H4" t="n">
-        <v>842.5987548828125</v>
+        <v>1170.469116210938</v>
       </c>
       <c r="I4" t="n">
-        <v>842.54443359375</v>
+        <v>1170.31640625</v>
       </c>
       <c r="J4" t="n">
-        <v>842.4944458007812</v>
+        <v>1170.728637695312</v>
       </c>
       <c r="K4" t="n">
-        <v>842.3944091796875</v>
+        <v>1172.774291992188</v>
       </c>
       <c r="L4" t="n">
-        <v>842.2213745117188</v>
+        <v>1177.016235351562</v>
       </c>
       <c r="M4" t="n">
-        <v>842.0057983398438</v>
+        <v>1195.68994140625</v>
       </c>
       <c r="N4" t="n">
-        <v>841.5628051757812</v>
+        <v>1225.549438476562</v>
       </c>
       <c r="O4" t="n">
-        <v>840.4342651367188</v>
+        <v>1241.779052734375</v>
       </c>
       <c r="P4" t="n">
-        <v>837.9097290039062</v>
+        <v>1248.303344726562</v>
       </c>
       <c r="Q4" t="n">
-        <v>831.2672729492188</v>
+        <v>1254.548950195312</v>
       </c>
       <c r="R4" t="n">
-        <v>820.7908325195312</v>
+        <v>1262.874145507812</v>
       </c>
       <c r="S4" t="n">
-        <v>826.6661376953125</v>
+        <v>1266.249755859375</v>
       </c>
       <c r="T4" t="n">
-        <v>833.5414428710938</v>
+        <v>1275.569458007812</v>
       </c>
       <c r="U4" t="n">
-        <v>837.1115112304688</v>
+        <v>1285.893432617188</v>
       </c>
       <c r="V4" t="n">
-        <v>832.8547973632812</v>
+        <v>1293.544799804688</v>
       </c>
       <c r="W4" t="n">
-        <v>825.7740478515625</v>
+        <v>1302.509033203125</v>
       </c>
       <c r="X4" t="n">
-        <v>819.1456298828125</v>
+        <v>1309.727661132812</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.6923828125</v>
+        <v>1312.102416992188</v>
       </c>
       <c r="Z4" t="n">
-        <v>814.249267578125</v>
+        <v>1317.666381835938</v>
       </c>
       <c r="AA4" t="n">
-        <v>812.02490234375</v>
+        <v>1326.287109375</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.0366821289062</v>
+        <v>1333.150146484375</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.3399658203125</v>
+        <v>1327.816650390625</v>
       </c>
       <c r="AD4" t="n">
-        <v>810.1541137695312</v>
+        <v>1315.344970703125</v>
       </c>
       <c r="AE4" t="n">
-        <v>809.8492431640625</v>
+        <v>1305.256713867188</v>
       </c>
       <c r="AF4" t="n">
-        <v>808.5560302734375</v>
+        <v>1298.420654296875</v>
       </c>
       <c r="AG4" t="n">
-        <v>810.3218994140625</v>
+        <v>1292.185791015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>818.2183227539062</v>
+        <v>1290.100463867188</v>
       </c>
       <c r="AI4" t="n">
-        <v>828.9107055664062</v>
+        <v>1286.836181640625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>831.1659545898438</v>
+        <v>1283.069458007812</v>
       </c>
       <c r="AK4" t="n">
-        <v>834.726806640625</v>
+        <v>1277.650146484375</v>
       </c>
       <c r="AL4" t="n">
-        <v>840.7607421875</v>
+        <v>1275.411254882812</v>
       </c>
       <c r="AM4" t="n">
-        <v>846.7655029296875</v>
+        <v>1272.656494140625</v>
       </c>
       <c r="AN4" t="n">
-        <v>856.3045043945312</v>
+        <v>1269.045654296875</v>
       </c>
       <c r="AO4" t="n">
-        <v>876.7113037109375</v>
+        <v>1267.838012695312</v>
       </c>
       <c r="AP4" t="n">
-        <v>881.9158325195312</v>
+        <v>1266.061767578125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>924.361083984375</v>
+        <v>1262.987915039062</v>
       </c>
       <c r="AR4" t="n">
-        <v>970.4111938476562</v>
+        <v>1258.193481445312</v>
       </c>
       <c r="AS4" t="n">
-        <v>968.4769287109375</v>
+        <v>1249.968627929688</v>
       </c>
       <c r="AT4" t="n">
-        <v>980.6693115234375</v>
+        <v>1232.736694335938</v>
       </c>
       <c r="AU4" t="n">
-        <v>1007.4140625</v>
+        <v>1223.402954101562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1042.557983398438</v>
+        <v>1211.880615234375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1078.07421875</v>
+        <v>1213.619262695312</v>
       </c>
       <c r="AX4" t="n">
-        <v>1111.889892578125</v>
+        <v>1215.331787109375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1145.981689453125</v>
+        <v>1216.847900390625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1162.108642578125</v>
+        <v>1218.466064453125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1173.177490234375</v>
+        <v>1220.3017578125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1193.259643554688</v>
+        <v>1222.294555664062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1217.102661132812</v>
+        <v>1221.955200195312</v>
       </c>
       <c r="BD4" t="n">
-        <v>1239.265014648438</v>
+        <v>1223.169921875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1263.139404296875</v>
+        <v>1226.296142578125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1291.081176757812</v>
+        <v>1241.447631835938</v>
       </c>
       <c r="BG4" t="n">
-        <v>1318.1962890625</v>
+        <v>1264.118530273438</v>
       </c>
       <c r="BH4" t="n">
-        <v>1337.648315429688</v>
+        <v>1269.10302734375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1387.0576171875</v>
+        <v>1270.60986328125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1414.460083007812</v>
+        <v>1269.244750976562</v>
       </c>
       <c r="BK4" t="n">
-        <v>1434.760009765625</v>
+        <v>1267.506958007812</v>
       </c>
       <c r="BL4" t="n">
-        <v>1454.344604492188</v>
+        <v>1264.633666992188</v>
       </c>
       <c r="BM4" t="n">
-        <v>1470.657470703125</v>
+        <v>1261.8349609375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1489.556030273438</v>
+        <v>1261.418701171875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1504.174072265625</v>
+        <v>1263.024780273438</v>
       </c>
       <c r="BP4" t="n">
-        <v>1526.115600585938</v>
+        <v>1264.754150390625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1547.309692382812</v>
+        <v>1266.8701171875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1569.376953125</v>
+        <v>1268.7724609375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1591.375854492188</v>
+        <v>1271.82421875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1609.46484375</v>
+        <v>1278.277709960938</v>
       </c>
       <c r="BU4" t="n">
-        <v>1629.544189453125</v>
+        <v>1284.1796875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1661.299072265625</v>
+        <v>1287.214599609375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1673.325561523438</v>
+        <v>1286.003662109375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1693.836547851562</v>
+        <v>1286.091552734375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1715.353515625</v>
+        <v>1286.185180664062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1737.789428710938</v>
+        <v>1286.417724609375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1761.190307617188</v>
+        <v>1286.69384765625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1784.367065429688</v>
+        <v>1287.043212890625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1801.598266601562</v>
+        <v>1287.391479492188</v>
       </c>
       <c r="CD4" t="n">
-        <v>1818.719482421875</v>
+        <v>1287.709106445312</v>
       </c>
       <c r="CE4" t="n">
-        <v>1838.012573242188</v>
+        <v>1288.002807617188</v>
       </c>
       <c r="CF4" t="n">
-        <v>1857.313842773438</v>
+        <v>1288.068725585938</v>
       </c>
       <c r="CG4" t="n">
-        <v>1871.79541015625</v>
+        <v>1288.11376953125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1885.709228515625</v>
+        <v>1288.273193359375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1889.506713867188</v>
+        <v>1288.3564453125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1897.335327148438</v>
+        <v>1288.759155273438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1914.756713867188</v>
+        <v>1289.109985351562</v>
       </c>
       <c r="CL4" t="n">
-        <v>1922.765869140625</v>
+        <v>1289.658447265625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1932.522338867188</v>
+        <v>1290.072509765625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1938.330322265625</v>
+        <v>1290.803955078125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1946.410888671875</v>
+        <v>1291.461303710938</v>
       </c>
       <c r="CP4" t="n">
-        <v>1950.21630859375</v>
+        <v>1292.299682617188</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1953.263793945312</v>
+        <v>1293.157470703125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1956.9794921875</v>
+        <v>1294.691284179688</v>
       </c>
       <c r="CS4" t="n">
-        <v>1961.413696289062</v>
+        <v>1294.00439453125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1968.164428710938</v>
+        <v>1293.044799804688</v>
       </c>
       <c r="CU4" t="n">
-        <v>1978.729125976562</v>
+        <v>1291.899047851562</v>
       </c>
       <c r="CV4" t="n">
-        <v>2000.4755859375</v>
+        <v>1290.467041015625</v>
       </c>
       <c r="CW4" t="n">
-        <v>2012.422119140625</v>
+        <v>1289.072631835938</v>
       </c>
       <c r="CX4" t="n">
-        <v>2028.37060546875</v>
+        <v>1288.306884765625</v>
       </c>
       <c r="CY4" t="n">
-        <v>2045.364868164062</v>
+        <v>1288.416137695312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2048.47802734375</v>
+        <v>1289.342041015625</v>
       </c>
       <c r="DA4" t="n">
-        <v>2055.284912109375</v>
+        <v>1291.126953125</v>
       </c>
       <c r="DB4" t="n">
-        <v>2056.01513671875</v>
+        <v>1293.166137695312</v>
       </c>
       <c r="DC4" t="n">
-        <v>2056.576171875</v>
+        <v>1294.84521484375</v>
       </c>
       <c r="DD4" t="n">
-        <v>2057.68603515625</v>
+        <v>1294.638916015625</v>
       </c>
       <c r="DE4" t="n">
-        <v>2057.888916015625</v>
+        <v>1294.325073242188</v>
       </c>
       <c r="DF4" t="n">
-        <v>2058.365478515625</v>
+        <v>1294.394775390625</v>
       </c>
       <c r="DG4" t="n">
-        <v>2058.704345703125</v>
+        <v>1294.6943359375</v>
       </c>
       <c r="DH4" t="n">
-        <v>2060.1708984375</v>
+        <v>1294.70654296875</v>
       </c>
       <c r="DI4" t="n">
-        <v>2060.96337890625</v>
+        <v>1294.754516601562</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2062.277099609375</v>
+        <v>1294.374145507812</v>
       </c>
       <c r="DK4" t="n">
-        <v>2063.840087890625</v>
+        <v>1292.032348632812</v>
       </c>
       <c r="DL4" t="n">
-        <v>2065.26904296875</v>
+        <v>1268.974487304688</v>
       </c>
       <c r="DM4" t="n">
-        <v>2066.7744140625</v>
+        <v>1261.148071289062</v>
       </c>
       <c r="DN4" t="n">
-        <v>2066.39013671875</v>
+        <v>1258.518676757812</v>
       </c>
       <c r="DO4" t="n">
-        <v>2066.394287109375</v>
+        <v>1256.379150390625</v>
       </c>
       <c r="DP4" t="n">
-        <v>2066.343505859375</v>
+        <v>1259.296264648438</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2066.355712890625</v>
+        <v>1258.587280273438</v>
       </c>
       <c r="DR4" t="n">
-        <v>2066.345703125</v>
+        <v>1257.735717773438</v>
       </c>
       <c r="DS4" t="n">
-        <v>2066.3388671875</v>
+        <v>1258.679565429688</v>
       </c>
       <c r="DT4" t="n">
-        <v>2066.402099609375</v>
+        <v>1259.870483398438</v>
       </c>
       <c r="DU4" t="n">
-        <v>2066.42041015625</v>
+        <v>1261.576538085938</v>
       </c>
       <c r="DV4" t="n">
-        <v>2066.401611328125</v>
+        <v>1270.883178710938</v>
       </c>
       <c r="DW4" t="n">
-        <v>2065.826416015625</v>
+        <v>1275.416870117188</v>
       </c>
       <c r="DX4" t="n">
-        <v>2064.52099609375</v>
+        <v>1273.714233398438</v>
       </c>
       <c r="DY4" t="n">
-        <v>2063.66015625</v>
+        <v>1271.513671875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2059.359619140625</v>
+        <v>1264.067504882812</v>
       </c>
       <c r="EA4" t="n">
-        <v>2055.674560546875</v>
+        <v>1257.762451171875</v>
       </c>
       <c r="EB4" t="n">
-        <v>2051.31591796875</v>
+        <v>1248.756591796875</v>
       </c>
       <c r="EC4" t="n">
-        <v>2040.301513671875</v>
+        <v>1247.22998046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>2040.575439453125</v>
+        <v>1244.419921875</v>
       </c>
       <c r="EE4" t="n">
-        <v>2040.361572265625</v>
+        <v>1242.87451171875</v>
       </c>
       <c r="EF4" t="n">
-        <v>2039.956909179688</v>
+        <v>1240.511108398438</v>
       </c>
       <c r="EG4" t="n">
-        <v>2039.854736328125</v>
+        <v>1235.271362304688</v>
       </c>
       <c r="EH4" t="n">
-        <v>2039.551147460938</v>
+        <v>1232.089233398438</v>
       </c>
       <c r="EI4" t="n">
-        <v>2039.773803710938</v>
+        <v>1228.898559570312</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2039.439453125</v>
+        <v>1226.150390625</v>
       </c>
       <c r="EK4" t="n">
-        <v>2039.30517578125</v>
+        <v>1219.84130859375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2039.346435546875</v>
+        <v>1214.299926757812</v>
       </c>
       <c r="EM4" t="n">
-        <v>2039.48486328125</v>
+        <v>1200.603515625</v>
       </c>
       <c r="EN4" t="n">
-        <v>2039.533081054688</v>
+        <v>1185.71337890625</v>
       </c>
       <c r="EO4" t="n">
-        <v>2039.191528320312</v>
+        <v>1157.198974609375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2038.3955078125</v>
+        <v>1139.751342773438</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2038.278564453125</v>
+        <v>1115.326538085938</v>
       </c>
       <c r="ER4" t="n">
-        <v>2038.399291992188</v>
+        <v>1107.606567382812</v>
       </c>
       <c r="ES4" t="n">
-        <v>2038.322265625</v>
+        <v>1081.511474609375</v>
       </c>
       <c r="ET4" t="n">
-        <v>2038.209594726562</v>
+        <v>1069.763427734375</v>
       </c>
       <c r="EU4" t="n">
-        <v>2038.213500976562</v>
+        <v>1062.393676757812</v>
       </c>
       <c r="EV4" t="n">
-        <v>2038.1767578125</v>
+        <v>1037.09521484375</v>
       </c>
       <c r="EW4" t="n">
-        <v>2037.849609375</v>
+        <v>1001.018676757812</v>
       </c>
       <c r="EX4" t="n">
-        <v>2037.187255859375</v>
+        <v>986.439697265625</v>
       </c>
       <c r="EY4" t="n">
-        <v>2035.898315429688</v>
+        <v>964.86376953125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2033.960327148438</v>
+        <v>934.5194702148438</v>
       </c>
       <c r="FA4" t="n">
-        <v>2031.4140625</v>
+        <v>924.5008544921875</v>
       </c>
       <c r="FB4" t="n">
-        <v>2029.870971679688</v>
+        <v>917.4844970703125</v>
       </c>
       <c r="FC4" t="n">
-        <v>2028.434448242188</v>
+        <v>878.7929077148438</v>
       </c>
       <c r="FD4" t="n">
-        <v>2026.977661132812</v>
+        <v>838.6396484375</v>
       </c>
       <c r="FE4" t="n">
-        <v>2027.523315429688</v>
+        <v>825.14697265625</v>
       </c>
       <c r="FF4" t="n">
-        <v>2027.938232421875</v>
+        <v>795.0618286132812</v>
       </c>
       <c r="FG4" t="n">
-        <v>2028.512573242188</v>
+        <v>786.6962890625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2029.869262695312</v>
+        <v>773.60400390625</v>
       </c>
       <c r="FI4" t="n">
-        <v>2031.9091796875</v>
+        <v>768.5620727539062</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2032.21533203125</v>
+        <v>768.34130859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2032.272338867188</v>
+        <v>770.4536743164062</v>
       </c>
       <c r="FL4" t="n">
-        <v>2032.236206054688</v>
+        <v>751.9342041015625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2032.21630859375</v>
+        <v>748.3966064453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2032.192749023438</v>
+        <v>750.1390991210938</v>
       </c>
       <c r="FO4" t="n">
-        <v>2032.164184570312</v>
+        <v>754.0209350585938</v>
       </c>
       <c r="FP4" t="n">
-        <v>2032.059814453125</v>
+        <v>748.7750854492188</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2031.877807617188</v>
+        <v>745.3994140625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2031.84619140625</v>
+        <v>750.22216796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2031.169189453125</v>
+        <v>772.4818115234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>2030.408203125</v>
+        <v>782.5125122070312</v>
       </c>
       <c r="FU4" t="n">
-        <v>2029.1982421875</v>
+        <v>780.77294921875</v>
       </c>
       <c r="FV4" t="n">
-        <v>2028.034790039062</v>
+        <v>775.9683227539062</v>
       </c>
       <c r="FW4" t="n">
-        <v>2024.02978515625</v>
+        <v>767.2659301757812</v>
       </c>
       <c r="FX4" t="n">
-        <v>2022.899780273438</v>
+        <v>759.7508544921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2023.425903320312</v>
+        <v>761.9083251953125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2023.911499023438</v>
+        <v>763.1705322265625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2025.30859375</v>
+        <v>785.1394653320312</v>
       </c>
       <c r="GB4" t="n">
-        <v>2025.970947265625</v>
+        <v>810.3297119140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2026.320068359375</v>
+        <v>790.61572265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2026.632446289062</v>
+        <v>751.1400756835938</v>
       </c>
       <c r="GE4" t="n">
-        <v>2026.507446289062</v>
+        <v>699.4470825195312</v>
       </c>
       <c r="GF4" t="n">
-        <v>2025.528442382812</v>
+        <v>691.5661010742188</v>
       </c>
       <c r="GG4" t="n">
-        <v>2023.503295898438</v>
+        <v>742.3802490234375</v>
       </c>
       <c r="GH4" t="n">
-        <v>2016.79248046875</v>
+        <v>717.306640625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2015.266235351562</v>
+        <v>704.3212890625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2013.957641601562</v>
+        <v>750.7062377929688</v>
       </c>
       <c r="GK4" t="n">
-        <v>2012.638793945312</v>
+        <v>678.0961303710938</v>
       </c>
       <c r="GL4" t="n">
-        <v>2011.031494140625</v>
+        <v>715.5968017578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2010.759643554688</v>
+        <v>670.9633178710938</v>
       </c>
       <c r="GN4" t="n">
-        <v>2010.549072265625</v>
+        <v>678.090087890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2010.501708984375</v>
+        <v>700.6051635742188</v>
       </c>
       <c r="GP4" t="n">
-        <v>2010.552490234375</v>
+        <v>665.6905517578125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2010.634521484375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2010.704467773438</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2010.646240234375</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2010.5390625</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2010.707275390625</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2011.330078125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2014.593017578125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2017.559448242188</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2023.110473632812</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2015.772705078125</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2003.667846679688</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1966.36376953125</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1947.598510742188</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1933.251098632812</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1890.457641601562</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1876.91748046875</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1833.157958984375</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1786.995239257812</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1752.483154296875</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1723.597412109375</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1673.232666015625</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1628.0068359375</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1598.67822265625</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1585.719116210938</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1565.534423828125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1533.606079101562</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1499.3271484375</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1475.180053710938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1434.209228515625</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1404.459106445312</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1369.338012695312</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1351.34619140625</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1315.199829101562</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1268.435546875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1220.955810546875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1183.552124023438</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1149.366943359375</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1095.485961914062</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1076.802001953125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1036.188720703125</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>990.502685546875</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>939.8477783203125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>876.50732421875</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>810.31787109375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>730.1705932617188</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>675.0619506835938</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>612.7916870117188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>560.0377197265625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>539.7498168945312</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>506.1652221679688</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>530.9357299804688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>509.690185546875</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>516.85791015625</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>549.2679443359375</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>440.6293640136719</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>531.6253662109375</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>592.9089965820312</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>694.5538940429688</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>693.6110229492188</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>707.8738403320312</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>707.1439208984375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>697.46630859375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>674.9352416992188</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>713.6121215820312</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>741.1556396484375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>791.0846557617188</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>791.5848388671875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>846.4912719726562</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>864.9193725585938</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>907.7614135742188</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>911.6068725585938</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>815.1563110351562</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>803.6465454101562</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>774.8054809570312</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>792.679443359375</v>
+        <v>647.70068359375</v>
       </c>
     </row>
   </sheetData>

--- a/left_hip_Data.xlsx
+++ b/left_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>455.9338989257812</v>
+        <v>358.7896118164062</v>
       </c>
       <c r="B2" t="n">
-        <v>457.7470397949219</v>
+        <v>359.8189697265625</v>
       </c>
       <c r="C2" t="n">
-        <v>458.2316589355469</v>
+        <v>356.78271484375</v>
       </c>
       <c r="D2" t="n">
-        <v>459.7465515136719</v>
+        <v>357.5908813476562</v>
       </c>
       <c r="E2" t="n">
-        <v>460.8385925292969</v>
+        <v>359.4894714355469</v>
       </c>
       <c r="F2" t="n">
-        <v>461.9712829589844</v>
+        <v>363.1636962890625</v>
       </c>
       <c r="G2" t="n">
-        <v>463.5991821289062</v>
+        <v>364.72216796875</v>
       </c>
       <c r="H2" t="n">
-        <v>464.64990234375</v>
+        <v>364.6412658691406</v>
       </c>
       <c r="I2" t="n">
-        <v>465.1410522460938</v>
+        <v>363.5057983398438</v>
       </c>
       <c r="J2" t="n">
-        <v>465.2372436523438</v>
+        <v>361.85107421875</v>
       </c>
       <c r="K2" t="n">
-        <v>464.5202026367188</v>
+        <v>360.9024353027344</v>
       </c>
       <c r="L2" t="n">
-        <v>463.655029296875</v>
+        <v>360.5376586914062</v>
       </c>
       <c r="M2" t="n">
-        <v>459.3792724609375</v>
+        <v>359.0650024414062</v>
       </c>
       <c r="N2" t="n">
-        <v>450.525390625</v>
+        <v>359.4585571289062</v>
       </c>
       <c r="O2" t="n">
-        <v>442.0540161132812</v>
+        <v>359.5166625976562</v>
       </c>
       <c r="P2" t="n">
-        <v>437.3889465332031</v>
+        <v>358.8483276367188</v>
       </c>
       <c r="Q2" t="n">
-        <v>434.56689453125</v>
+        <v>357.9140625</v>
       </c>
       <c r="R2" t="n">
-        <v>433.1122436523438</v>
+        <v>356.2671508789062</v>
       </c>
       <c r="S2" t="n">
-        <v>431.9119567871094</v>
+        <v>354.0986633300781</v>
       </c>
       <c r="T2" t="n">
-        <v>429.7124938964844</v>
+        <v>350.9523010253906</v>
       </c>
       <c r="U2" t="n">
-        <v>425.9762573242188</v>
+        <v>349.5621337890625</v>
       </c>
       <c r="V2" t="n">
-        <v>421.4951782226562</v>
+        <v>348.7369995117188</v>
       </c>
       <c r="W2" t="n">
-        <v>417.2101440429688</v>
+        <v>348.489013671875</v>
       </c>
       <c r="X2" t="n">
-        <v>415.1913757324219</v>
+        <v>347.7909545898438</v>
       </c>
       <c r="Y2" t="n">
-        <v>413.4029541015625</v>
+        <v>346.4615478515625</v>
       </c>
       <c r="Z2" t="n">
-        <v>410.3812255859375</v>
+        <v>344.5014953613281</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.7193298339844</v>
+        <v>343.8418884277344</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.1329956054688</v>
+        <v>343.6062316894531</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.7129516601562</v>
+        <v>342.6281433105469</v>
       </c>
       <c r="AD2" t="n">
-        <v>402.8339233398438</v>
+        <v>342.1087036132812</v>
       </c>
       <c r="AE2" t="n">
-        <v>404.8558959960938</v>
+        <v>341.5484924316406</v>
       </c>
       <c r="AF2" t="n">
-        <v>406.4715576171875</v>
+        <v>340.3134155273438</v>
       </c>
       <c r="AG2" t="n">
-        <v>407.6953125</v>
+        <v>339.1266479492188</v>
       </c>
       <c r="AH2" t="n">
-        <v>408.4515075683594</v>
+        <v>338.0126647949219</v>
       </c>
       <c r="AI2" t="n">
-        <v>408.9888305664062</v>
+        <v>337.3626708984375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>408.8995361328125</v>
+        <v>337.4100341796875</v>
       </c>
       <c r="AK2" t="n">
-        <v>408.96630859375</v>
+        <v>337.3980407714844</v>
       </c>
       <c r="AL2" t="n">
-        <v>407.8129577636719</v>
+        <v>337.8890380859375</v>
       </c>
       <c r="AM2" t="n">
-        <v>405.8153686523438</v>
+        <v>338.0707397460938</v>
       </c>
       <c r="AN2" t="n">
-        <v>403.3244018554688</v>
+        <v>338.3770751953125</v>
       </c>
       <c r="AO2" t="n">
-        <v>401.0204467773438</v>
+        <v>339.0220642089844</v>
       </c>
       <c r="AP2" t="n">
-        <v>399.6575622558594</v>
+        <v>339.7770385742188</v>
       </c>
       <c r="AQ2" t="n">
-        <v>399.00048828125</v>
+        <v>340.7416076660156</v>
       </c>
       <c r="AR2" t="n">
-        <v>398.4212951660156</v>
+        <v>342.4700622558594</v>
       </c>
       <c r="AS2" t="n">
-        <v>398.3850708007812</v>
+        <v>344.484619140625</v>
       </c>
       <c r="AT2" t="n">
-        <v>397.9660339355469</v>
+        <v>345.7803955078125</v>
       </c>
       <c r="AU2" t="n">
-        <v>394.0432434082031</v>
+        <v>346.3114013671875</v>
       </c>
       <c r="AV2" t="n">
-        <v>387.0561218261719</v>
+        <v>346.4625854492188</v>
       </c>
       <c r="AW2" t="n">
-        <v>380.2102661132812</v>
+        <v>346.535888671875</v>
       </c>
       <c r="AX2" t="n">
-        <v>374.4220275878906</v>
+        <v>346.5047607421875</v>
       </c>
       <c r="AY2" t="n">
-        <v>369.3968505859375</v>
+        <v>346.5190124511719</v>
       </c>
       <c r="AZ2" t="n">
-        <v>361.9488830566406</v>
+        <v>346.4838256835938</v>
       </c>
       <c r="BA2" t="n">
-        <v>353.9176025390625</v>
+        <v>346.3858642578125</v>
       </c>
       <c r="BB2" t="n">
-        <v>344.4198303222656</v>
+        <v>346.1404113769531</v>
       </c>
       <c r="BC2" t="n">
-        <v>336.1283874511719</v>
+        <v>346.3213806152344</v>
       </c>
       <c r="BD2" t="n">
-        <v>330.5491333007812</v>
+        <v>346.1238403320312</v>
       </c>
       <c r="BE2" t="n">
-        <v>324.8746948242188</v>
+        <v>345.9649047851562</v>
       </c>
       <c r="BF2" t="n">
-        <v>319.2388610839844</v>
+        <v>345.8729248046875</v>
       </c>
       <c r="BG2" t="n">
-        <v>314.2266845703125</v>
+        <v>345.7965698242188</v>
       </c>
       <c r="BH2" t="n">
-        <v>308.9195556640625</v>
+        <v>345.7385559082031</v>
       </c>
       <c r="BI2" t="n">
-        <v>305.3297424316406</v>
+        <v>345.6268920898438</v>
       </c>
       <c r="BJ2" t="n">
-        <v>302.8565673828125</v>
+        <v>345.3951416015625</v>
       </c>
       <c r="BK2" t="n">
-        <v>301.6012878417969</v>
+        <v>345.0933227539062</v>
       </c>
       <c r="BL2" t="n">
-        <v>299.7310791015625</v>
+        <v>344.5090026855469</v>
       </c>
       <c r="BM2" t="n">
-        <v>295.7289123535156</v>
+        <v>343.9447021484375</v>
       </c>
       <c r="BN2" t="n">
-        <v>289.9255981445312</v>
+        <v>343.3860473632812</v>
       </c>
       <c r="BO2" t="n">
-        <v>285.1169128417969</v>
+        <v>343.0475158691406</v>
       </c>
       <c r="BP2" t="n">
-        <v>282.0458679199219</v>
+        <v>342.8701171875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>279.9475708007812</v>
+        <v>342.6793823242188</v>
       </c>
       <c r="BR2" t="n">
-        <v>277.68798828125</v>
+        <v>342.6852722167969</v>
       </c>
       <c r="BS2" t="n">
-        <v>275.6317749023438</v>
+        <v>342.7204895019531</v>
       </c>
       <c r="BT2" t="n">
-        <v>273.8739929199219</v>
+        <v>342.8432922363281</v>
       </c>
       <c r="BU2" t="n">
-        <v>272.3170471191406</v>
+        <v>342.9706420898438</v>
       </c>
       <c r="BV2" t="n">
-        <v>271.3055725097656</v>
+        <v>343.076171875</v>
       </c>
       <c r="BW2" t="n">
-        <v>270.5365905761719</v>
+        <v>343.166259765625</v>
       </c>
       <c r="BX2" t="n">
-        <v>270.0440368652344</v>
+        <v>343.2531433105469</v>
       </c>
       <c r="BY2" t="n">
-        <v>269.5378112792969</v>
+        <v>343.34130859375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>269.3355712890625</v>
+        <v>343.39501953125</v>
       </c>
       <c r="CA2" t="n">
-        <v>269.2247009277344</v>
+        <v>343.6718139648438</v>
       </c>
       <c r="CB2" t="n">
-        <v>269.1578369140625</v>
+        <v>343.7519836425781</v>
       </c>
       <c r="CC2" t="n">
-        <v>269.0740661621094</v>
+        <v>343.8475952148438</v>
       </c>
       <c r="CD2" t="n">
-        <v>268.9330749511719</v>
+        <v>343.8809509277344</v>
       </c>
       <c r="CE2" t="n">
-        <v>268.7612609863281</v>
+        <v>343.9264526367188</v>
       </c>
       <c r="CF2" t="n">
-        <v>268.5886535644531</v>
+        <v>343.94482421875</v>
       </c>
       <c r="CG2" t="n">
-        <v>269.3198852539062</v>
+        <v>343.9511413574219</v>
       </c>
       <c r="CH2" t="n">
-        <v>271.283203125</v>
+        <v>343.9485473632812</v>
       </c>
       <c r="CI2" t="n">
-        <v>274.6774291992188</v>
+        <v>343.9377136230469</v>
       </c>
       <c r="CJ2" t="n">
-        <v>277.1511840820312</v>
+        <v>343.9346008300781</v>
       </c>
       <c r="CK2" t="n">
-        <v>278.7710876464844</v>
+        <v>343.9301147460938</v>
       </c>
       <c r="CL2" t="n">
-        <v>279.8707580566406</v>
+        <v>343.9429321289062</v>
       </c>
       <c r="CM2" t="n">
-        <v>279.9239807128906</v>
+        <v>343.9367065429688</v>
       </c>
       <c r="CN2" t="n">
-        <v>279.9734191894531</v>
+        <v>343.9205322265625</v>
       </c>
       <c r="CO2" t="n">
-        <v>280.000732421875</v>
+        <v>343.8980407714844</v>
       </c>
       <c r="CP2" t="n">
-        <v>280.1304321289062</v>
+        <v>343.8855590820312</v>
       </c>
       <c r="CQ2" t="n">
-        <v>280.2023315429688</v>
+        <v>343.8789672851562</v>
       </c>
       <c r="CR2" t="n">
-        <v>280.3144836425781</v>
+        <v>343.8361206054688</v>
       </c>
       <c r="CS2" t="n">
-        <v>280.28759765625</v>
+        <v>343.8206787109375</v>
       </c>
       <c r="CT2" t="n">
-        <v>279.7884216308594</v>
+        <v>343.8569641113281</v>
       </c>
       <c r="CU2" t="n">
-        <v>278.5640563964844</v>
+        <v>343.8992614746094</v>
       </c>
       <c r="CV2" t="n">
-        <v>276.7364807128906</v>
+        <v>343.9644775390625</v>
       </c>
       <c r="CW2" t="n">
-        <v>275.2087097167969</v>
+        <v>344.0176696777344</v>
       </c>
       <c r="CX2" t="n">
-        <v>274.7387390136719</v>
+        <v>344.0679321289062</v>
       </c>
       <c r="CY2" t="n">
-        <v>274.5570068359375</v>
+        <v>344.0775756835938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>274.3773193359375</v>
+        <v>344.1395874023438</v>
       </c>
       <c r="DA2" t="n">
-        <v>274.2861633300781</v>
+        <v>344.1739501953125</v>
       </c>
       <c r="DB2" t="n">
-        <v>274.2842407226562</v>
+        <v>344.0210266113281</v>
       </c>
       <c r="DC2" t="n">
-        <v>274.3001098632812</v>
+        <v>343.9163818359375</v>
       </c>
       <c r="DD2" t="n">
-        <v>274.3110961914062</v>
+        <v>343.818603515625</v>
       </c>
       <c r="DE2" t="n">
-        <v>275.7942199707031</v>
+        <v>343.7155151367188</v>
       </c>
       <c r="DF2" t="n">
-        <v>279.0211181640625</v>
+        <v>343.6059875488281</v>
       </c>
       <c r="DG2" t="n">
-        <v>283.9571228027344</v>
+        <v>343.443359375</v>
       </c>
       <c r="DH2" t="n">
-        <v>289.2780456542969</v>
+        <v>343.1625061035156</v>
       </c>
       <c r="DI2" t="n">
-        <v>294.4679565429688</v>
+        <v>342.9080810546875</v>
       </c>
       <c r="DJ2" t="n">
-        <v>298.7004089355469</v>
+        <v>342.7282104492188</v>
       </c>
       <c r="DK2" t="n">
-        <v>303.8504638671875</v>
+        <v>342.3883666992188</v>
       </c>
       <c r="DL2" t="n">
-        <v>317.2606811523438</v>
+        <v>341.9470825195312</v>
       </c>
       <c r="DM2" t="n">
-        <v>326.4966430664062</v>
+        <v>341.6376953125</v>
       </c>
       <c r="DN2" t="n">
-        <v>335.3276062011719</v>
+        <v>341.2579956054688</v>
       </c>
       <c r="DO2" t="n">
-        <v>342.8385620117188</v>
+        <v>341.1848449707031</v>
       </c>
       <c r="DP2" t="n">
-        <v>360.8201599121094</v>
+        <v>340.8843383789062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>370.2689819335938</v>
+        <v>340.5592346191406</v>
       </c>
       <c r="DR2" t="n">
-        <v>378.5348510742188</v>
+        <v>340.2552490234375</v>
       </c>
       <c r="DS2" t="n">
-        <v>390.9746704101562</v>
+        <v>340.1893615722656</v>
       </c>
       <c r="DT2" t="n">
-        <v>395.7967529296875</v>
+        <v>340.0699157714844</v>
       </c>
       <c r="DU2" t="n">
-        <v>397.7193603515625</v>
+        <v>339.9934387207031</v>
       </c>
       <c r="DV2" t="n">
-        <v>398.10009765625</v>
+        <v>339.6864318847656</v>
       </c>
       <c r="DW2" t="n">
-        <v>401.0214233398438</v>
+        <v>339.5083618164062</v>
       </c>
       <c r="DX2" t="n">
-        <v>403.5302429199219</v>
+        <v>339.3167724609375</v>
       </c>
       <c r="DY2" t="n">
-        <v>406.2810974121094</v>
+        <v>339.0877685546875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>410.30078125</v>
+        <v>338.9030456542969</v>
       </c>
       <c r="EA2" t="n">
-        <v>411.7981567382812</v>
+        <v>338.6881103515625</v>
       </c>
       <c r="EB2" t="n">
-        <v>413.8228149414062</v>
+        <v>338.68359375</v>
       </c>
       <c r="EC2" t="n">
-        <v>414.0788269042969</v>
+        <v>338.6712036132812</v>
       </c>
       <c r="ED2" t="n">
-        <v>413.4247131347656</v>
+        <v>338.794921875</v>
       </c>
       <c r="EE2" t="n">
-        <v>412.0805053710938</v>
+        <v>338.8440551757812</v>
       </c>
       <c r="EF2" t="n">
-        <v>409.3505554199219</v>
+        <v>339.0291748046875</v>
       </c>
       <c r="EG2" t="n">
-        <v>402.4241943359375</v>
+        <v>339.1083374023438</v>
       </c>
       <c r="EH2" t="n">
-        <v>400.1214294433594</v>
+        <v>339.1258239746094</v>
       </c>
       <c r="EI2" t="n">
-        <v>396.8567504882812</v>
+        <v>339.1471862792969</v>
       </c>
       <c r="EJ2" t="n">
-        <v>395.2703247070312</v>
+        <v>339.1824951171875</v>
       </c>
       <c r="EK2" t="n">
-        <v>392.2439880371094</v>
+        <v>339.1978759765625</v>
       </c>
       <c r="EL2" t="n">
-        <v>387.4780883789062</v>
+        <v>339.189453125</v>
       </c>
       <c r="EM2" t="n">
-        <v>375.2739868164062</v>
+        <v>339.20654296875</v>
       </c>
       <c r="EN2" t="n">
-        <v>370.8128051757812</v>
+        <v>339.2283935546875</v>
       </c>
       <c r="EO2" t="n">
-        <v>360.1353149414062</v>
+        <v>339.3239135742188</v>
       </c>
       <c r="EP2" t="n">
-        <v>356.2740783691406</v>
+        <v>339.5245361328125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>348.0145874023438</v>
+        <v>339.9071960449219</v>
       </c>
       <c r="ER2" t="n">
-        <v>343.2410278320312</v>
+        <v>339.9393920898438</v>
       </c>
       <c r="ES2" t="n">
-        <v>340.4805908203125</v>
+        <v>339.9087829589844</v>
       </c>
       <c r="ET2" t="n">
-        <v>340.2394104003906</v>
+        <v>339.7920532226562</v>
       </c>
       <c r="EU2" t="n">
-        <v>340.4976196289062</v>
+        <v>339.7420959472656</v>
       </c>
       <c r="EV2" t="n">
-        <v>338.2805786132812</v>
+        <v>339.7290649414062</v>
       </c>
       <c r="EW2" t="n">
-        <v>331.4049682617188</v>
+        <v>339.6942443847656</v>
       </c>
       <c r="EX2" t="n">
-        <v>329.3414001464844</v>
+        <v>339.7809448242188</v>
       </c>
       <c r="EY2" t="n">
-        <v>329.6171569824219</v>
+        <v>339.7578735351562</v>
       </c>
       <c r="EZ2" t="n">
-        <v>334.7522583007812</v>
+        <v>339.6466369628906</v>
       </c>
       <c r="FA2" t="n">
-        <v>343.5821533203125</v>
+        <v>339.3592529296875</v>
       </c>
       <c r="FB2" t="n">
-        <v>353.1654052734375</v>
+        <v>339.1434020996094</v>
       </c>
       <c r="FC2" t="n">
-        <v>359.1664428710938</v>
+        <v>339.0518493652344</v>
       </c>
       <c r="FD2" t="n">
-        <v>364.489013671875</v>
+        <v>339.0629577636719</v>
       </c>
       <c r="FE2" t="n">
-        <v>369.3772583007812</v>
+        <v>339.065185546875</v>
       </c>
       <c r="FF2" t="n">
-        <v>377.76513671875</v>
+        <v>339.0884704589844</v>
       </c>
       <c r="FG2" t="n">
-        <v>381.0634155273438</v>
+        <v>339.1534729003906</v>
       </c>
       <c r="FH2" t="n">
-        <v>389.9347229003906</v>
+        <v>339.1920471191406</v>
       </c>
       <c r="FI2" t="n">
-        <v>396.9119262695312</v>
+        <v>339.2712707519531</v>
       </c>
       <c r="FJ2" t="n">
-        <v>405.5440063476562</v>
+        <v>339.349609375</v>
       </c>
       <c r="FK2" t="n">
-        <v>410.2032775878906</v>
+        <v>339.3683471679688</v>
       </c>
       <c r="FL2" t="n">
-        <v>428.8776245117188</v>
+        <v>339.3849487304688</v>
       </c>
       <c r="FM2" t="n">
-        <v>443.3630065917969</v>
+        <v>339.4058837890625</v>
       </c>
       <c r="FN2" t="n">
-        <v>456.8087158203125</v>
+        <v>339.3591003417969</v>
       </c>
       <c r="FO2" t="n">
-        <v>477.4567260742188</v>
+        <v>339.2947692871094</v>
       </c>
       <c r="FP2" t="n">
-        <v>492.2601623535156</v>
+        <v>339.18359375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>503.4622802734375</v>
+        <v>339.1112670898438</v>
       </c>
       <c r="FR2" t="n">
-        <v>513.71142578125</v>
+        <v>338.9929809570312</v>
       </c>
       <c r="FS2" t="n">
-        <v>511.9074096679688</v>
+        <v>338.9276733398438</v>
       </c>
       <c r="FT2" t="n">
-        <v>510.2665710449219</v>
+        <v>338.9057922363281</v>
       </c>
       <c r="FU2" t="n">
-        <v>513.36279296875</v>
+        <v>338.8869018554688</v>
       </c>
       <c r="FV2" t="n">
-        <v>520.4961547851562</v>
+        <v>338.87060546875</v>
       </c>
       <c r="FW2" t="n">
-        <v>540.3644409179688</v>
+        <v>338.8523864746094</v>
       </c>
       <c r="FX2" t="n">
-        <v>543.4467163085938</v>
+        <v>338.8162841796875</v>
       </c>
       <c r="FY2" t="n">
-        <v>540.4482421875</v>
+        <v>339.2249145507812</v>
       </c>
       <c r="FZ2" t="n">
-        <v>539.6400756835938</v>
+        <v>339.4251098632812</v>
       </c>
       <c r="GA2" t="n">
-        <v>528.5267333984375</v>
+        <v>339.4707641601562</v>
       </c>
       <c r="GB2" t="n">
-        <v>523.60888671875</v>
+        <v>339.2552185058594</v>
       </c>
       <c r="GC2" t="n">
-        <v>544.5062866210938</v>
+        <v>338.695556640625</v>
       </c>
       <c r="GD2" t="n">
-        <v>566.6175537109375</v>
+        <v>338.4443664550781</v>
       </c>
       <c r="GE2" t="n">
-        <v>566.7337036132812</v>
+        <v>338.3031005859375</v>
       </c>
       <c r="GF2" t="n">
-        <v>558.6380615234375</v>
+        <v>338.3135375976562</v>
       </c>
       <c r="GG2" t="n">
-        <v>529.9085693359375</v>
+        <v>338.203369140625</v>
       </c>
       <c r="GH2" t="n">
-        <v>444.39697265625</v>
+        <v>337.9272766113281</v>
       </c>
       <c r="GI2" t="n">
-        <v>414.1348876953125</v>
+        <v>337.7124328613281</v>
       </c>
       <c r="GJ2" t="n">
-        <v>431.9349975585938</v>
+        <v>337.78515625</v>
       </c>
       <c r="GK2" t="n">
-        <v>449.953857421875</v>
+        <v>337.7766723632812</v>
       </c>
       <c r="GL2" t="n">
-        <v>452.5418395996094</v>
+        <v>337.7230224609375</v>
       </c>
       <c r="GM2" t="n">
-        <v>444.4205932617188</v>
+        <v>337.409423828125</v>
       </c>
       <c r="GN2" t="n">
-        <v>393.6545104980469</v>
+        <v>337.3226318359375</v>
       </c>
       <c r="GO2" t="n">
-        <v>389.1634521484375</v>
+        <v>337.2667236328125</v>
       </c>
       <c r="GP2" t="n">
-        <v>364.0386962890625</v>
+        <v>337.3224487304688</v>
       </c>
       <c r="GQ2" t="n">
-        <v>371.9141845703125</v>
+        <v>337.3446960449219</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>337.3433227539062</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>337.123046875</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>337.1409301757812</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>337.2061462402344</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>337.2621154785156</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>337.3119506835938</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>337.3367614746094</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>337.2811279296875</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>337.2273559570312</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>337.1689147949219</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>337.2232055664062</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>337.2940368652344</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>337.3646240234375</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>337.4478759765625</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>337.7558898925781</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>338.5059204101562</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>338.697998046875</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>338.28173828125</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>337.9517822265625</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>337.8297119140625</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>337.7987060546875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>337.780517578125</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>337.8056640625</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>337.7930297851562</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>337.7528076171875</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>337.710693359375</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>337.6934509277344</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>337.5791625976562</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>337.3268127441406</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>337.0942687988281</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>337.11181640625</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>337.2045593261719</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>337.2100219726562</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>337.1338500976562</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>337.1380004882812</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>336.9511108398438</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>336.8414916992188</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>336.735107421875</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>336.7296752929688</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>336.6640625</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>336.6785278320312</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>336.7001953125</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>336.7054748535156</v>
+      </c>
+      <c r="II2" t="n">
+        <v>336.6941528320312</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>336.7178649902344</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>336.7327575683594</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>336.7435302734375</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>336.8987731933594</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>337.1650390625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>337.4517517089844</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>337.6072998046875</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>337.594970703125</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>337.5960998535156</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>337.45703125</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>337.3945617675781</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>337.3719482421875</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>337.421875</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>337.5103149414062</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>337.545166015625</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>337.4459533691406</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>337.2140197753906</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>337.0801086425781</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>336.9778442382812</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>336.8870544433594</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>336.8126831054688</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>336.8045654296875</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>336.8690795898438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>336.934326171875</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>336.9224853515625</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>336.7691650390625</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>336.5899047851562</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>336.4186096191406</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>336.24072265625</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>336.0537109375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>335.8455200195312</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>335.7369689941406</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>335.6598205566406</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>335.7170104980469</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>336.0601806640625</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>336.467041015625</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>336.9149780273438</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>336.6543273925781</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>336.4815063476562</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>336.3771362304688</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>336.1763000488281</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>335.7797241210938</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>335.7416076660156</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>334.3633728027344</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>332.2259826660156</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>331.3100891113281</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>330.0131530761719</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>329.6134948730469</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>329.3922119140625</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>325.4086608886719</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>325.039794921875</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>325.3982849121094</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>328.1863403320312</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>329.2669067382812</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>330.6492614746094</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>332.08642578125</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>334.8236083984375</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>343.7878723144531</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>347.9894409179688</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>349.0368347167969</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>350.3528442382812</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>350.5056762695312</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>350.3139953613281</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>351.7207641601562</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>353.1488647460938</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>351.9193725585938</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>345.4924926757812</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>343.651611328125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>343.0093994140625</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>340.7711181640625</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>338.0865783691406</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>336.7666625976562</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>337.8387756347656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>421.3059692382812</v>
+        <v>400.4987487792969</v>
       </c>
       <c r="B3" t="n">
-        <v>409.2008666992188</v>
+        <v>384.4703369140625</v>
       </c>
       <c r="C3" t="n">
-        <v>408.2642822265625</v>
+        <v>381.1764831542969</v>
       </c>
       <c r="D3" t="n">
-        <v>407.5191955566406</v>
+        <v>382.4292907714844</v>
       </c>
       <c r="E3" t="n">
-        <v>406.9133605957031</v>
+        <v>389.9422302246094</v>
       </c>
       <c r="F3" t="n">
-        <v>405.0977478027344</v>
+        <v>386.8548278808594</v>
       </c>
       <c r="G3" t="n">
-        <v>402.0807495117188</v>
+        <v>390.0179443359375</v>
       </c>
       <c r="H3" t="n">
-        <v>403.4573059082031</v>
+        <v>389.5093688964844</v>
       </c>
       <c r="I3" t="n">
-        <v>398.4131774902344</v>
+        <v>390.1221923828125</v>
       </c>
       <c r="J3" t="n">
-        <v>393.6434936523438</v>
+        <v>389.4079284667969</v>
       </c>
       <c r="K3" t="n">
-        <v>390.7123718261719</v>
+        <v>385.908447265625</v>
       </c>
       <c r="L3" t="n">
-        <v>385.9372863769531</v>
+        <v>385.1431274414062</v>
       </c>
       <c r="M3" t="n">
-        <v>377.0501403808594</v>
+        <v>387.6586303710938</v>
       </c>
       <c r="N3" t="n">
-        <v>369.939697265625</v>
+        <v>384.8436584472656</v>
       </c>
       <c r="O3" t="n">
-        <v>361.4425659179688</v>
+        <v>383.4552917480469</v>
       </c>
       <c r="P3" t="n">
-        <v>353.2471313476562</v>
+        <v>382.4814147949219</v>
       </c>
       <c r="Q3" t="n">
-        <v>349.763427734375</v>
+        <v>379.9211120605469</v>
       </c>
       <c r="R3" t="n">
-        <v>342.7666625976562</v>
+        <v>374.5547485351562</v>
       </c>
       <c r="S3" t="n">
-        <v>335.5662536621094</v>
+        <v>370.497314453125</v>
       </c>
       <c r="T3" t="n">
-        <v>330.6173095703125</v>
+        <v>369.8017883300781</v>
       </c>
       <c r="U3" t="n">
-        <v>326.5520935058594</v>
+        <v>367.6554260253906</v>
       </c>
       <c r="V3" t="n">
-        <v>321.5531311035156</v>
+        <v>366.6549682617188</v>
       </c>
       <c r="W3" t="n">
-        <v>318.4898071289062</v>
+        <v>368.5285949707031</v>
       </c>
       <c r="X3" t="n">
-        <v>315.7902221679688</v>
+        <v>369.9920654296875</v>
       </c>
       <c r="Y3" t="n">
-        <v>312.7927856445312</v>
+        <v>370.3309326171875</v>
       </c>
       <c r="Z3" t="n">
-        <v>312.7996215820312</v>
+        <v>373.0748291015625</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.4803771972656</v>
+        <v>374.1672058105469</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.2736206054688</v>
+        <v>372.681884765625</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.8966979980469</v>
+        <v>373.0620422363281</v>
       </c>
       <c r="AD3" t="n">
-        <v>318.8893432617188</v>
+        <v>372.3755187988281</v>
       </c>
       <c r="AE3" t="n">
-        <v>318.364990234375</v>
+        <v>369.7044067382812</v>
       </c>
       <c r="AF3" t="n">
-        <v>317.7244567871094</v>
+        <v>369.2132568359375</v>
       </c>
       <c r="AG3" t="n">
-        <v>317.3766784667969</v>
+        <v>369.0832824707031</v>
       </c>
       <c r="AH3" t="n">
-        <v>316.6405029296875</v>
+        <v>370.6207580566406</v>
       </c>
       <c r="AI3" t="n">
-        <v>316.1363830566406</v>
+        <v>370.8756103515625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>317.506103515625</v>
+        <v>369.56689453125</v>
       </c>
       <c r="AK3" t="n">
-        <v>318.3200988769531</v>
+        <v>368.5457153320312</v>
       </c>
       <c r="AL3" t="n">
-        <v>318.9931945800781</v>
+        <v>367.3822326660156</v>
       </c>
       <c r="AM3" t="n">
-        <v>319.558837890625</v>
+        <v>366.6017456054688</v>
       </c>
       <c r="AN3" t="n">
-        <v>318.4187927246094</v>
+        <v>366.2434997558594</v>
       </c>
       <c r="AO3" t="n">
-        <v>316.0956115722656</v>
+        <v>366.2518005371094</v>
       </c>
       <c r="AP3" t="n">
-        <v>314.9257507324219</v>
+        <v>367.2373046875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>315.4037475585938</v>
+        <v>369.3843688964844</v>
       </c>
       <c r="AR3" t="n">
-        <v>316.447509765625</v>
+        <v>370.8381042480469</v>
       </c>
       <c r="AS3" t="n">
-        <v>318.3880615234375</v>
+        <v>370.5031433105469</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.1689453125</v>
+        <v>370.2295227050781</v>
       </c>
       <c r="AU3" t="n">
-        <v>323.5042724609375</v>
+        <v>369.9762573242188</v>
       </c>
       <c r="AV3" t="n">
-        <v>324.849609375</v>
+        <v>369.6545104980469</v>
       </c>
       <c r="AW3" t="n">
-        <v>324.689208984375</v>
+        <v>369.1897888183594</v>
       </c>
       <c r="AX3" t="n">
-        <v>324.7389831542969</v>
+        <v>369.1890563964844</v>
       </c>
       <c r="AY3" t="n">
-        <v>326.7977294921875</v>
+        <v>369.3466796875</v>
       </c>
       <c r="AZ3" t="n">
-        <v>327.9864196777344</v>
+        <v>369.2345275878906</v>
       </c>
       <c r="BA3" t="n">
-        <v>327.4273376464844</v>
+        <v>369.408203125</v>
       </c>
       <c r="BB3" t="n">
-        <v>327.1073303222656</v>
+        <v>369.9595031738281</v>
       </c>
       <c r="BC3" t="n">
-        <v>327.1315002441406</v>
+        <v>368.9819641113281</v>
       </c>
       <c r="BD3" t="n">
-        <v>328.9274597167969</v>
+        <v>369.0132141113281</v>
       </c>
       <c r="BE3" t="n">
-        <v>329.8223876953125</v>
+        <v>368.9190673828125</v>
       </c>
       <c r="BF3" t="n">
-        <v>328.7780151367188</v>
+        <v>368.8382873535156</v>
       </c>
       <c r="BG3" t="n">
-        <v>326.5433349609375</v>
+        <v>368.8324279785156</v>
       </c>
       <c r="BH3" t="n">
-        <v>325.6080322265625</v>
+        <v>368.8048706054688</v>
       </c>
       <c r="BI3" t="n">
-        <v>324.7768859863281</v>
+        <v>369.0527954101562</v>
       </c>
       <c r="BJ3" t="n">
-        <v>324.5965270996094</v>
+        <v>369.5280456542969</v>
       </c>
       <c r="BK3" t="n">
-        <v>324.2254028320312</v>
+        <v>370.0868530273438</v>
       </c>
       <c r="BL3" t="n">
-        <v>324.7914123535156</v>
+        <v>370.4995422363281</v>
       </c>
       <c r="BM3" t="n">
-        <v>325.0520629882812</v>
+        <v>370.5715026855469</v>
       </c>
       <c r="BN3" t="n">
-        <v>324.7329406738281</v>
+        <v>370.7143249511719</v>
       </c>
       <c r="BO3" t="n">
-        <v>324.24560546875</v>
+        <v>370.4054260253906</v>
       </c>
       <c r="BP3" t="n">
-        <v>323.8154602050781</v>
+        <v>370.1631164550781</v>
       </c>
       <c r="BQ3" t="n">
-        <v>323.4043273925781</v>
+        <v>370.2707824707031</v>
       </c>
       <c r="BR3" t="n">
-        <v>323.3900146484375</v>
+        <v>370.3800659179688</v>
       </c>
       <c r="BS3" t="n">
-        <v>323.4539489746094</v>
+        <v>370.5419311523438</v>
       </c>
       <c r="BT3" t="n">
-        <v>323.2145080566406</v>
+        <v>370.5534973144531</v>
       </c>
       <c r="BU3" t="n">
-        <v>322.7780456542969</v>
+        <v>370.5754089355469</v>
       </c>
       <c r="BV3" t="n">
-        <v>322.5330200195312</v>
+        <v>370.6629638671875</v>
       </c>
       <c r="BW3" t="n">
-        <v>322.6549377441406</v>
+        <v>370.7503051757812</v>
       </c>
       <c r="BX3" t="n">
-        <v>322.8263854980469</v>
+        <v>370.9245910644531</v>
       </c>
       <c r="BY3" t="n">
-        <v>322.8988342285156</v>
+        <v>371.2010803222656</v>
       </c>
       <c r="BZ3" t="n">
-        <v>322.871337890625</v>
+        <v>371.5847778320312</v>
       </c>
       <c r="CA3" t="n">
-        <v>322.8880615234375</v>
+        <v>372.2999572753906</v>
       </c>
       <c r="CB3" t="n">
-        <v>322.8911743164062</v>
+        <v>372.4828491210938</v>
       </c>
       <c r="CC3" t="n">
-        <v>322.9680786132812</v>
+        <v>372.552978515625</v>
       </c>
       <c r="CD3" t="n">
-        <v>323.2420349121094</v>
+        <v>372.5820007324219</v>
       </c>
       <c r="CE3" t="n">
-        <v>323.6176452636719</v>
+        <v>372.6138916015625</v>
       </c>
       <c r="CF3" t="n">
-        <v>324.2907104492188</v>
+        <v>372.6419677734375</v>
       </c>
       <c r="CG3" t="n">
-        <v>325.5241088867188</v>
+        <v>372.6502075195312</v>
       </c>
       <c r="CH3" t="n">
-        <v>327.6021423339844</v>
+        <v>372.6574401855469</v>
       </c>
       <c r="CI3" t="n">
-        <v>328.376220703125</v>
+        <v>372.6431579589844</v>
       </c>
       <c r="CJ3" t="n">
-        <v>328.3867797851562</v>
+        <v>372.5818176269531</v>
       </c>
       <c r="CK3" t="n">
-        <v>328.5387878417969</v>
+        <v>372.5252075195312</v>
       </c>
       <c r="CL3" t="n">
-        <v>327.9795532226562</v>
+        <v>372.4747314453125</v>
       </c>
       <c r="CM3" t="n">
-        <v>328.3170471191406</v>
+        <v>372.4037780761719</v>
       </c>
       <c r="CN3" t="n">
-        <v>328.5575866699219</v>
+        <v>372.3220520019531</v>
       </c>
       <c r="CO3" t="n">
-        <v>328.7825622558594</v>
+        <v>372.22216796875</v>
       </c>
       <c r="CP3" t="n">
-        <v>328.7208251953125</v>
+        <v>372.1464538574219</v>
       </c>
       <c r="CQ3" t="n">
-        <v>328.7320251464844</v>
+        <v>372.0572204589844</v>
       </c>
       <c r="CR3" t="n">
-        <v>328.6994018554688</v>
+        <v>372.0546569824219</v>
       </c>
       <c r="CS3" t="n">
-        <v>328.7742919921875</v>
+        <v>372.0791320800781</v>
       </c>
       <c r="CT3" t="n">
-        <v>328.697998046875</v>
+        <v>372.1184692382812</v>
       </c>
       <c r="CU3" t="n">
-        <v>328.4215087890625</v>
+        <v>372.130615234375</v>
       </c>
       <c r="CV3" t="n">
-        <v>328.0007934570312</v>
+        <v>372.1783447265625</v>
       </c>
       <c r="CW3" t="n">
-        <v>327.6858825683594</v>
+        <v>372.2315673828125</v>
       </c>
       <c r="CX3" t="n">
-        <v>327.5794982910156</v>
+        <v>372.2918701171875</v>
       </c>
       <c r="CY3" t="n">
-        <v>327.4876403808594</v>
+        <v>372.3172607421875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>327.3952331542969</v>
+        <v>372.39208984375</v>
       </c>
       <c r="DA3" t="n">
-        <v>327.2875061035156</v>
+        <v>372.4436645507812</v>
       </c>
       <c r="DB3" t="n">
-        <v>327.1222229003906</v>
+        <v>372.4144592285156</v>
       </c>
       <c r="DC3" t="n">
-        <v>326.9841918945312</v>
+        <v>372.424072265625</v>
       </c>
       <c r="DD3" t="n">
-        <v>326.9414367675781</v>
+        <v>372.5451965332031</v>
       </c>
       <c r="DE3" t="n">
-        <v>327.0634460449219</v>
+        <v>372.6549377441406</v>
       </c>
       <c r="DF3" t="n">
-        <v>327.0563049316406</v>
+        <v>372.65087890625</v>
       </c>
       <c r="DG3" t="n">
-        <v>326.5103149414062</v>
+        <v>372.684814453125</v>
       </c>
       <c r="DH3" t="n">
-        <v>327.1260681152344</v>
+        <v>372.7422485351562</v>
       </c>
       <c r="DI3" t="n">
-        <v>327.8991394042969</v>
+        <v>372.7315673828125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>329.2247009277344</v>
+        <v>372.5847473144531</v>
       </c>
       <c r="DK3" t="n">
-        <v>330.0820617675781</v>
+        <v>372.564453125</v>
       </c>
       <c r="DL3" t="n">
-        <v>337.3706359863281</v>
+        <v>373.0367431640625</v>
       </c>
       <c r="DM3" t="n">
-        <v>337.4971313476562</v>
+        <v>373.5249938964844</v>
       </c>
       <c r="DN3" t="n">
-        <v>337.1817626953125</v>
+        <v>374.0802917480469</v>
       </c>
       <c r="DO3" t="n">
-        <v>337.4835205078125</v>
+        <v>374.0592041015625</v>
       </c>
       <c r="DP3" t="n">
-        <v>336.9923706054688</v>
+        <v>373.7260131835938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>337.222900390625</v>
+        <v>373.3930358886719</v>
       </c>
       <c r="DR3" t="n">
-        <v>337.3883666992188</v>
+        <v>373.0453491210938</v>
       </c>
       <c r="DS3" t="n">
-        <v>335.9781188964844</v>
+        <v>373.1376953125</v>
       </c>
       <c r="DT3" t="n">
-        <v>335.7648010253906</v>
+        <v>373.322998046875</v>
       </c>
       <c r="DU3" t="n">
-        <v>335.2400207519531</v>
+        <v>373.4222412109375</v>
       </c>
       <c r="DV3" t="n">
-        <v>329.2342529296875</v>
+        <v>373.19921875</v>
       </c>
       <c r="DW3" t="n">
-        <v>324.1287231445312</v>
+        <v>373.1683044433594</v>
       </c>
       <c r="DX3" t="n">
-        <v>323.51708984375</v>
+        <v>373.1826171875</v>
       </c>
       <c r="DY3" t="n">
-        <v>323.0162048339844</v>
+        <v>373.0867919921875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>322.1085205078125</v>
+        <v>373.1701354980469</v>
       </c>
       <c r="EA3" t="n">
-        <v>321.41259765625</v>
+        <v>373.2224731445312</v>
       </c>
       <c r="EB3" t="n">
-        <v>321.8819580078125</v>
+        <v>373.26025390625</v>
       </c>
       <c r="EC3" t="n">
-        <v>322.1856384277344</v>
+        <v>373.3155517578125</v>
       </c>
       <c r="ED3" t="n">
-        <v>323.5859069824219</v>
+        <v>373.5004272460938</v>
       </c>
       <c r="EE3" t="n">
-        <v>323.7593078613281</v>
+        <v>373.5744323730469</v>
       </c>
       <c r="EF3" t="n">
-        <v>323.9822082519531</v>
+        <v>373.5185546875</v>
       </c>
       <c r="EG3" t="n">
-        <v>323.7476806640625</v>
+        <v>373.4685974121094</v>
       </c>
       <c r="EH3" t="n">
-        <v>324.0895690917969</v>
+        <v>373.5112915039062</v>
       </c>
       <c r="EI3" t="n">
-        <v>324.7030944824219</v>
+        <v>373.6193237304688</v>
       </c>
       <c r="EJ3" t="n">
-        <v>325.056640625</v>
+        <v>373.6345520019531</v>
       </c>
       <c r="EK3" t="n">
-        <v>326.7970275878906</v>
+        <v>373.6670837402344</v>
       </c>
       <c r="EL3" t="n">
-        <v>329.1947631835938</v>
+        <v>373.7254333496094</v>
       </c>
       <c r="EM3" t="n">
-        <v>334.2126770019531</v>
+        <v>373.7559509277344</v>
       </c>
       <c r="EN3" t="n">
-        <v>334.1954345703125</v>
+        <v>373.7522277832031</v>
       </c>
       <c r="EO3" t="n">
-        <v>337.0857238769531</v>
+        <v>373.67236328125</v>
       </c>
       <c r="EP3" t="n">
-        <v>339.0084228515625</v>
+        <v>373.8665466308594</v>
       </c>
       <c r="EQ3" t="n">
-        <v>343.4623413085938</v>
+        <v>374.1199340820312</v>
       </c>
       <c r="ER3" t="n">
-        <v>343.1788024902344</v>
+        <v>374.2642211914062</v>
       </c>
       <c r="ES3" t="n">
-        <v>338.2931518554688</v>
+        <v>374.2641296386719</v>
       </c>
       <c r="ET3" t="n">
-        <v>337.1375427246094</v>
+        <v>374.39208984375</v>
       </c>
       <c r="EU3" t="n">
-        <v>333.0912475585938</v>
+        <v>374.4803771972656</v>
       </c>
       <c r="EV3" t="n">
-        <v>334.3333740234375</v>
+        <v>374.5119323730469</v>
       </c>
       <c r="EW3" t="n">
-        <v>340.1748352050781</v>
+        <v>374.6427307128906</v>
       </c>
       <c r="EX3" t="n">
-        <v>341.1689758300781</v>
+        <v>374.5481567382812</v>
       </c>
       <c r="EY3" t="n">
-        <v>342.7579650878906</v>
+        <v>374.4416198730469</v>
       </c>
       <c r="EZ3" t="n">
-        <v>346.2470397949219</v>
+        <v>374.2733764648438</v>
       </c>
       <c r="FA3" t="n">
-        <v>347.6620178222656</v>
+        <v>374.1220092773438</v>
       </c>
       <c r="FB3" t="n">
-        <v>350.0282897949219</v>
+        <v>373.9660034179688</v>
       </c>
       <c r="FC3" t="n">
-        <v>357.3152160644531</v>
+        <v>373.8235778808594</v>
       </c>
       <c r="FD3" t="n">
-        <v>363.088134765625</v>
+        <v>373.8110046386719</v>
       </c>
       <c r="FE3" t="n">
-        <v>366.8695678710938</v>
+        <v>373.8290100097656</v>
       </c>
       <c r="FF3" t="n">
-        <v>389.9823608398438</v>
+        <v>373.8690795898438</v>
       </c>
       <c r="FG3" t="n">
-        <v>409.8053894042969</v>
+        <v>373.9418334960938</v>
       </c>
       <c r="FH3" t="n">
-        <v>431.5884704589844</v>
+        <v>373.9826965332031</v>
       </c>
       <c r="FI3" t="n">
-        <v>435.2408142089844</v>
+        <v>374.0469055175781</v>
       </c>
       <c r="FJ3" t="n">
-        <v>449.8921203613281</v>
+        <v>374.0899353027344</v>
       </c>
       <c r="FK3" t="n">
-        <v>468.9945678710938</v>
+        <v>374.1063537597656</v>
       </c>
       <c r="FL3" t="n">
-        <v>504.3621826171875</v>
+        <v>374.0900268554688</v>
       </c>
       <c r="FM3" t="n">
-        <v>506.4036865234375</v>
+        <v>374.0135803222656</v>
       </c>
       <c r="FN3" t="n">
-        <v>509.4219055175781</v>
+        <v>373.9846801757812</v>
       </c>
       <c r="FO3" t="n">
-        <v>525.3999633789062</v>
+        <v>374.0411682128906</v>
       </c>
       <c r="FP3" t="n">
-        <v>550.7362060546875</v>
+        <v>374.1358947753906</v>
       </c>
       <c r="FQ3" t="n">
-        <v>554.42041015625</v>
+        <v>374.2079467773438</v>
       </c>
       <c r="FR3" t="n">
-        <v>551.1505126953125</v>
+        <v>374.2840881347656</v>
       </c>
       <c r="FS3" t="n">
-        <v>529.8803100585938</v>
+        <v>374.3581848144531</v>
       </c>
       <c r="FT3" t="n">
-        <v>516.6470336914062</v>
+        <v>374.2657470703125</v>
       </c>
       <c r="FU3" t="n">
-        <v>507.7386474609375</v>
+        <v>374.137939453125</v>
       </c>
       <c r="FV3" t="n">
-        <v>505.9851684570312</v>
+        <v>374.0863647460938</v>
       </c>
       <c r="FW3" t="n">
-        <v>498.1186218261719</v>
+        <v>373.9569396972656</v>
       </c>
       <c r="FX3" t="n">
-        <v>505.6868896484375</v>
+        <v>373.9508361816406</v>
       </c>
       <c r="FY3" t="n">
-        <v>515.995849609375</v>
+        <v>374.2682189941406</v>
       </c>
       <c r="FZ3" t="n">
-        <v>518.53759765625</v>
+        <v>374.5009765625</v>
       </c>
       <c r="GA3" t="n">
-        <v>527.1630859375</v>
+        <v>374.642822265625</v>
       </c>
       <c r="GB3" t="n">
-        <v>515.7890625</v>
+        <v>374.4924621582031</v>
       </c>
       <c r="GC3" t="n">
-        <v>498.3125</v>
+        <v>374.1268310546875</v>
       </c>
       <c r="GD3" t="n">
-        <v>484.8173828125</v>
+        <v>373.7182006835938</v>
       </c>
       <c r="GE3" t="n">
-        <v>504.8925170898438</v>
+        <v>373.6886291503906</v>
       </c>
       <c r="GF3" t="n">
-        <v>530.3385009765625</v>
+        <v>373.7254028320312</v>
       </c>
       <c r="GG3" t="n">
-        <v>526.0938720703125</v>
+        <v>373.7263488769531</v>
       </c>
       <c r="GH3" t="n">
-        <v>578.8003540039062</v>
+        <v>373.7228698730469</v>
       </c>
       <c r="GI3" t="n">
-        <v>538.1393432617188</v>
+        <v>373.7559814453125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>525.3238525390625</v>
+        <v>373.8888244628906</v>
       </c>
       <c r="GK3" t="n">
-        <v>550.597900390625</v>
+        <v>373.9088745117188</v>
       </c>
       <c r="GL3" t="n">
-        <v>541.0896606445312</v>
+        <v>373.8539123535156</v>
       </c>
       <c r="GM3" t="n">
-        <v>537.8858032226562</v>
+        <v>373.6665954589844</v>
       </c>
       <c r="GN3" t="n">
-        <v>561.9761962890625</v>
+        <v>373.6369323730469</v>
       </c>
       <c r="GO3" t="n">
-        <v>559.1902465820312</v>
+        <v>373.6711120605469</v>
       </c>
       <c r="GP3" t="n">
-        <v>596.08642578125</v>
+        <v>373.6701354980469</v>
       </c>
       <c r="GQ3" t="n">
-        <v>588.0769653320312</v>
+        <v>373.6080322265625</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>373.602294921875</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>373.4666137695312</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>373.4818115234375</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>373.5265502929688</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>373.5047607421875</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>373.5986938476562</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>373.7191772460938</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>373.9859313964844</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>374.2942504882812</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>374.6220397949219</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>374.6281127929688</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>374.6784362792969</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>374.7113647460938</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>374.7488098144531</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>374.9579772949219</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>375.3179626464844</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>375.3691101074219</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>375.1007385253906</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>374.8580322265625</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>374.8200073242188</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>374.8305969238281</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>374.8813781738281</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>374.7032775878906</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>374.6024780273438</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>374.61865234375</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>374.6421508789062</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>374.5982360839844</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>374.5438232421875</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>374.2900695800781</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>374.1856994628906</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>374.2384643554688</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>374.19677734375</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>374.1927795410156</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>374.1407470703125</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>374.1549682617188</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>374.009521484375</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>373.9281921386719</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>373.8068542480469</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>373.6840209960938</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>373.7810668945312</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>373.7688598632812</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>373.7682189941406</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>373.7767333984375</v>
+      </c>
+      <c r="II3" t="n">
+        <v>373.806884765625</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>373.8081359863281</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>373.8183898925781</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>373.8210754394531</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>373.9111938476562</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>374.0454406738281</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>374.0590515136719</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>373.9630432128906</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>373.8162841796875</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>373.5664367675781</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>373.7857055664062</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>373.7463073730469</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>373.6259460449219</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>373.739990234375</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>373.8048706054688</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>373.8450317382812</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>373.9516906738281</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>373.9237060546875</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>373.8704528808594</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>373.8575439453125</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>373.8519592285156</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>373.8499755859375</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>373.8500671386719</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>373.8968505859375</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>373.9317321777344</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>374.0385437011719</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>374.2316284179688</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>374.3442993164062</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>374.3358154296875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>374.3196716308594</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>374.314453125</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>374.3115234375</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>374.2035827636719</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>374.1289367675781</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>374.1605224609375</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>374.3217468261719</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>374.5224914550781</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>374.6601867675781</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>374.5742797851562</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>374.6358032226562</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>374.627685546875</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>374.5066833496094</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>373.482177734375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>373.78369140625</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>372.534912109375</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>372.5176086425781</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>372.5052490234375</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>373.2087707519531</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>372.7959289550781</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>372.2598571777344</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>372.3458862304688</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>368.8008422851562</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>368.732177734375</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>367.8680114746094</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>367.8546752929688</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>371.5331420898438</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>376.5382385253906</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>382.0634765625</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>378.7048950195312</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>374.3617248535156</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>376.5397338867188</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>376.2589416503906</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>372.1963500976562</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>375.6315612792969</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>382.0260925292969</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>388.8502197265625</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>396.6831970214844</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>407.2805786132812</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>407.1774291992188</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>408.0243530273438</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>409.4328002929688</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>413.6138305664062</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>416.1587524414062</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>417.0275573730469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1159.563598632812</v>
+        <v>1035.3056640625</v>
       </c>
       <c r="B4" t="n">
-        <v>1166.588623046875</v>
+        <v>1021.543701171875</v>
       </c>
       <c r="C4" t="n">
-        <v>1174.229370117188</v>
+        <v>1019.28466796875</v>
       </c>
       <c r="D4" t="n">
-        <v>1172.126220703125</v>
+        <v>1031.677001953125</v>
       </c>
       <c r="E4" t="n">
-        <v>1168.825561523438</v>
+        <v>1060.971435546875</v>
       </c>
       <c r="F4" t="n">
-        <v>1170.064331054688</v>
+        <v>1094.07763671875</v>
       </c>
       <c r="G4" t="n">
-        <v>1171.457275390625</v>
+        <v>1108.552368164062</v>
       </c>
       <c r="H4" t="n">
-        <v>1170.469116210938</v>
+        <v>1120.811401367188</v>
       </c>
       <c r="I4" t="n">
-        <v>1170.31640625</v>
+        <v>1139.537353515625</v>
       </c>
       <c r="J4" t="n">
-        <v>1170.728637695312</v>
+        <v>1167.230224609375</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.774291992188</v>
+        <v>1205.174560546875</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.016235351562</v>
+        <v>1233.18017578125</v>
       </c>
       <c r="M4" t="n">
-        <v>1195.68994140625</v>
+        <v>1267.095947265625</v>
       </c>
       <c r="N4" t="n">
-        <v>1225.549438476562</v>
+        <v>1304.158203125</v>
       </c>
       <c r="O4" t="n">
-        <v>1241.779052734375</v>
+        <v>1331.8974609375</v>
       </c>
       <c r="P4" t="n">
-        <v>1248.303344726562</v>
+        <v>1355.473022460938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1254.548950195312</v>
+        <v>1374.928466796875</v>
       </c>
       <c r="R4" t="n">
-        <v>1262.874145507812</v>
+        <v>1391.522827148438</v>
       </c>
       <c r="S4" t="n">
-        <v>1266.249755859375</v>
+        <v>1417.649780273438</v>
       </c>
       <c r="T4" t="n">
-        <v>1275.569458007812</v>
+        <v>1438.115966796875</v>
       </c>
       <c r="U4" t="n">
-        <v>1285.893432617188</v>
+        <v>1461.526245117188</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.544799804688</v>
+        <v>1484.356689453125</v>
       </c>
       <c r="W4" t="n">
-        <v>1302.509033203125</v>
+        <v>1509.5078125</v>
       </c>
       <c r="X4" t="n">
-        <v>1309.727661132812</v>
+        <v>1537.313720703125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.102416992188</v>
+        <v>1565.118041992188</v>
       </c>
       <c r="Z4" t="n">
-        <v>1317.666381835938</v>
+        <v>1592.376342773438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.287109375</v>
+        <v>1626.06689453125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1333.150146484375</v>
+        <v>1659.656616210938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1327.816650390625</v>
+        <v>1690.284790039062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1315.344970703125</v>
+        <v>1731.6748046875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1305.256713867188</v>
+        <v>1760.757202148438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1298.420654296875</v>
+        <v>1781.3037109375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1292.185791015625</v>
+        <v>1796.56494140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1290.100463867188</v>
+        <v>1813.98828125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1286.836181640625</v>
+        <v>1829.536376953125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1283.069458007812</v>
+        <v>1851.073852539062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1277.650146484375</v>
+        <v>1861.033569335938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1275.411254882812</v>
+        <v>1878.836791992188</v>
       </c>
       <c r="AM4" t="n">
-        <v>1272.656494140625</v>
+        <v>1894.364868164062</v>
       </c>
       <c r="AN4" t="n">
-        <v>1269.045654296875</v>
+        <v>1903.0517578125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1267.838012695312</v>
+        <v>1912.91162109375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1266.061767578125</v>
+        <v>1917.217895507812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1262.987915039062</v>
+        <v>1923.699096679688</v>
       </c>
       <c r="AR4" t="n">
-        <v>1258.193481445312</v>
+        <v>1927.228759765625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1249.968627929688</v>
+        <v>1933.633666992188</v>
       </c>
       <c r="AT4" t="n">
-        <v>1232.736694335938</v>
+        <v>1938.250366210938</v>
       </c>
       <c r="AU4" t="n">
-        <v>1223.402954101562</v>
+        <v>1943.496704101562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1211.880615234375</v>
+        <v>1947.65966796875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1213.619262695312</v>
+        <v>1953.843017578125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1215.331787109375</v>
+        <v>1954.67041015625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1216.847900390625</v>
+        <v>1956.89013671875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1218.466064453125</v>
+        <v>1960.237548828125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1220.3017578125</v>
+        <v>1964.873413085938</v>
       </c>
       <c r="BB4" t="n">
-        <v>1222.294555664062</v>
+        <v>1970.952880859375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1221.955200195312</v>
+        <v>1977.030395507812</v>
       </c>
       <c r="BD4" t="n">
-        <v>1223.169921875</v>
+        <v>1977.452270507812</v>
       </c>
       <c r="BE4" t="n">
-        <v>1226.296142578125</v>
+        <v>1978.746826171875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1241.447631835938</v>
+        <v>1980.202270507812</v>
       </c>
       <c r="BG4" t="n">
-        <v>1264.118530273438</v>
+        <v>1981.356567382812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1269.10302734375</v>
+        <v>1982.6708984375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1270.60986328125</v>
+        <v>1982.669921875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1269.244750976562</v>
+        <v>1982.594604492188</v>
       </c>
       <c r="BK4" t="n">
-        <v>1267.506958007812</v>
+        <v>1982.670532226562</v>
       </c>
       <c r="BL4" t="n">
-        <v>1264.633666992188</v>
+        <v>1983.41455078125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1261.8349609375</v>
+        <v>1984.12841796875</v>
       </c>
       <c r="BN4" t="n">
-        <v>1261.418701171875</v>
+        <v>1984.723510742188</v>
       </c>
       <c r="BO4" t="n">
-        <v>1263.024780273438</v>
+        <v>1984.925659179688</v>
       </c>
       <c r="BP4" t="n">
-        <v>1264.754150390625</v>
+        <v>1985.007446289062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1266.8701171875</v>
+        <v>1985.072021484375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1268.7724609375</v>
+        <v>1985.14306640625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1271.82421875</v>
+        <v>1984.989135742188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1278.277709960938</v>
+        <v>1984.745849609375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1284.1796875</v>
+        <v>1984.440307617188</v>
       </c>
       <c r="BV4" t="n">
-        <v>1287.214599609375</v>
+        <v>1983.923217773438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1286.003662109375</v>
+        <v>1983.360229492188</v>
       </c>
       <c r="BX4" t="n">
-        <v>1286.091552734375</v>
+        <v>1982.18603515625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1286.185180664062</v>
+        <v>1980.446655273438</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1286.417724609375</v>
+        <v>1977.825927734375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1286.69384765625</v>
+        <v>1970.678955078125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1287.043212890625</v>
+        <v>1968.398559570312</v>
       </c>
       <c r="CC4" t="n">
-        <v>1287.391479492188</v>
+        <v>1968.426635742188</v>
       </c>
       <c r="CD4" t="n">
-        <v>1287.709106445312</v>
+        <v>1968.20703125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1288.002807617188</v>
+        <v>1968.015014648438</v>
       </c>
       <c r="CF4" t="n">
-        <v>1288.068725585938</v>
+        <v>1967.755615234375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1288.11376953125</v>
+        <v>1967.806884765625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1288.273193359375</v>
+        <v>1967.77197265625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1288.3564453125</v>
+        <v>1967.80078125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1288.759155273438</v>
+        <v>1967.818115234375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1289.109985351562</v>
+        <v>1967.832885742188</v>
       </c>
       <c r="CL4" t="n">
-        <v>1289.658447265625</v>
+        <v>1967.845825195312</v>
       </c>
       <c r="CM4" t="n">
-        <v>1290.072509765625</v>
+        <v>1967.836791992188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1290.803955078125</v>
+        <v>1967.85693359375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1291.461303710938</v>
+        <v>1967.942626953125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1292.299682617188</v>
+        <v>1967.953002929688</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1293.157470703125</v>
+        <v>1967.96875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1294.691284179688</v>
+        <v>1968.083618164062</v>
       </c>
       <c r="CS4" t="n">
-        <v>1294.00439453125</v>
+        <v>1968.14501953125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1293.044799804688</v>
+        <v>1968.407470703125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1291.899047851562</v>
+        <v>1968.764038085938</v>
       </c>
       <c r="CV4" t="n">
-        <v>1290.467041015625</v>
+        <v>1968.97021484375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1289.072631835938</v>
+        <v>1969.1875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1288.306884765625</v>
+        <v>1969.532836914062</v>
       </c>
       <c r="CY4" t="n">
-        <v>1288.416137695312</v>
+        <v>1969.855712890625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1289.342041015625</v>
+        <v>1970.136962890625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1291.126953125</v>
+        <v>1970.637817382812</v>
       </c>
       <c r="DB4" t="n">
-        <v>1293.166137695312</v>
+        <v>1971.68896484375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1294.84521484375</v>
+        <v>1972.1484375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1294.638916015625</v>
+        <v>1972.095947265625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1294.325073242188</v>
+        <v>1972.154174804688</v>
       </c>
       <c r="DF4" t="n">
-        <v>1294.394775390625</v>
+        <v>1972.110717773438</v>
       </c>
       <c r="DG4" t="n">
-        <v>1294.6943359375</v>
+        <v>1972.0068359375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1294.70654296875</v>
+        <v>1971.868408203125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1294.754516601562</v>
+        <v>1971.871704101562</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1294.374145507812</v>
+        <v>1972.015747070312</v>
       </c>
       <c r="DK4" t="n">
-        <v>1292.032348632812</v>
+        <v>1972.472412109375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1268.974487304688</v>
+        <v>1972.854614257812</v>
       </c>
       <c r="DM4" t="n">
-        <v>1261.148071289062</v>
+        <v>1973.114013671875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1258.518676757812</v>
+        <v>1973.343872070312</v>
       </c>
       <c r="DO4" t="n">
-        <v>1256.379150390625</v>
+        <v>1973.287475585938</v>
       </c>
       <c r="DP4" t="n">
-        <v>1259.296264648438</v>
+        <v>1973.436401367188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1258.587280273438</v>
+        <v>1973.583862304688</v>
       </c>
       <c r="DR4" t="n">
-        <v>1257.735717773438</v>
+        <v>1973.549438476562</v>
       </c>
       <c r="DS4" t="n">
-        <v>1258.679565429688</v>
+        <v>1973.31005859375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1259.870483398438</v>
+        <v>1972.631591796875</v>
       </c>
       <c r="DU4" t="n">
-        <v>1261.576538085938</v>
+        <v>1972.101928710938</v>
       </c>
       <c r="DV4" t="n">
-        <v>1270.883178710938</v>
+        <v>1970.928955078125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1275.416870117188</v>
+        <v>1970.568725585938</v>
       </c>
       <c r="DX4" t="n">
-        <v>1273.714233398438</v>
+        <v>1969.732543945312</v>
       </c>
       <c r="DY4" t="n">
-        <v>1271.513671875</v>
+        <v>1968.1220703125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1264.067504882812</v>
+        <v>1966.8876953125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1257.762451171875</v>
+        <v>1967.219360351562</v>
       </c>
       <c r="EB4" t="n">
-        <v>1248.756591796875</v>
+        <v>1967.414794921875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1247.22998046875</v>
+        <v>1967.590209960938</v>
       </c>
       <c r="ED4" t="n">
-        <v>1244.419921875</v>
+        <v>1968.221313476562</v>
       </c>
       <c r="EE4" t="n">
-        <v>1242.87451171875</v>
+        <v>1968.661865234375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1240.511108398438</v>
+        <v>1969.912963867188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1235.271362304688</v>
+        <v>1970.527465820312</v>
       </c>
       <c r="EH4" t="n">
-        <v>1232.089233398438</v>
+        <v>1970.38623046875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1228.898559570312</v>
+        <v>1970.1162109375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1226.150390625</v>
+        <v>1970.1650390625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1219.84130859375</v>
+        <v>1970.125854492188</v>
       </c>
       <c r="EL4" t="n">
-        <v>1214.299926757812</v>
+        <v>1970.101806640625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1200.603515625</v>
+        <v>1970.259887695312</v>
       </c>
       <c r="EN4" t="n">
-        <v>1185.71337890625</v>
+        <v>1970.083251953125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1157.198974609375</v>
+        <v>1969.359252929688</v>
       </c>
       <c r="EP4" t="n">
-        <v>1139.751342773438</v>
+        <v>1968.888671875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1115.326538085938</v>
+        <v>1966.63427734375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1107.606567382812</v>
+        <v>1964.410888671875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1081.511474609375</v>
+        <v>1964.174682617188</v>
       </c>
       <c r="ET4" t="n">
-        <v>1069.763427734375</v>
+        <v>1961.377319335938</v>
       </c>
       <c r="EU4" t="n">
-        <v>1062.393676757812</v>
+        <v>1960.18603515625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1037.09521484375</v>
+        <v>1959.961059570312</v>
       </c>
       <c r="EW4" t="n">
-        <v>1001.018676757812</v>
+        <v>1958.454956054688</v>
       </c>
       <c r="EX4" t="n">
-        <v>986.439697265625</v>
+        <v>1959.66943359375</v>
       </c>
       <c r="EY4" t="n">
-        <v>964.86376953125</v>
+        <v>1960.302978515625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>934.5194702148438</v>
+        <v>1961.17431640625</v>
       </c>
       <c r="FA4" t="n">
-        <v>924.5008544921875</v>
+        <v>1961.45556640625</v>
       </c>
       <c r="FB4" t="n">
-        <v>917.4844970703125</v>
+        <v>1961.751831054688</v>
       </c>
       <c r="FC4" t="n">
-        <v>878.7929077148438</v>
+        <v>1962.1591796875</v>
       </c>
       <c r="FD4" t="n">
-        <v>838.6396484375</v>
+        <v>1962.292358398438</v>
       </c>
       <c r="FE4" t="n">
-        <v>825.14697265625</v>
+        <v>1962.328369140625</v>
       </c>
       <c r="FF4" t="n">
-        <v>795.0618286132812</v>
+        <v>1962.290893554688</v>
       </c>
       <c r="FG4" t="n">
-        <v>786.6962890625</v>
+        <v>1962.18408203125</v>
       </c>
       <c r="FH4" t="n">
-        <v>773.60400390625</v>
+        <v>1962.102783203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>768.5620727539062</v>
+        <v>1961.877197265625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>768.34130859375</v>
+        <v>1961.636596679688</v>
       </c>
       <c r="FK4" t="n">
-        <v>770.4536743164062</v>
+        <v>1961.523071289062</v>
       </c>
       <c r="FL4" t="n">
-        <v>751.9342041015625</v>
+        <v>1961.372680664062</v>
       </c>
       <c r="FM4" t="n">
-        <v>748.3966064453125</v>
+        <v>1961.324829101562</v>
       </c>
       <c r="FN4" t="n">
-        <v>750.1390991210938</v>
+        <v>1961.422485351562</v>
       </c>
       <c r="FO4" t="n">
-        <v>754.0209350585938</v>
+        <v>1961.519897460938</v>
       </c>
       <c r="FP4" t="n">
-        <v>748.7750854492188</v>
+        <v>1961.4462890625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>745.3994140625</v>
+        <v>1961.422607421875</v>
       </c>
       <c r="FR4" t="n">
-        <v>750.22216796875</v>
+        <v>1961.604125976562</v>
       </c>
       <c r="FS4" t="n">
-        <v>772.4818115234375</v>
+        <v>1961.790405273438</v>
       </c>
       <c r="FT4" t="n">
-        <v>782.5125122070312</v>
+        <v>1962.509765625</v>
       </c>
       <c r="FU4" t="n">
-        <v>780.77294921875</v>
+        <v>1964.089599609375</v>
       </c>
       <c r="FV4" t="n">
-        <v>775.9683227539062</v>
+        <v>1964.926391601562</v>
       </c>
       <c r="FW4" t="n">
-        <v>767.2659301757812</v>
+        <v>1966.383666992188</v>
       </c>
       <c r="FX4" t="n">
-        <v>759.7508544921875</v>
+        <v>1966.364624023438</v>
       </c>
       <c r="FY4" t="n">
-        <v>761.9083251953125</v>
+        <v>1965.904052734375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>763.1705322265625</v>
+        <v>1965.654052734375</v>
       </c>
       <c r="GA4" t="n">
-        <v>785.1394653320312</v>
+        <v>1965.5</v>
       </c>
       <c r="GB4" t="n">
-        <v>810.3297119140625</v>
+        <v>1965.695068359375</v>
       </c>
       <c r="GC4" t="n">
-        <v>790.61572265625</v>
+        <v>1966.213256835938</v>
       </c>
       <c r="GD4" t="n">
-        <v>751.1400756835938</v>
+        <v>1966.421875</v>
       </c>
       <c r="GE4" t="n">
-        <v>699.4470825195312</v>
+        <v>1966.370727539062</v>
       </c>
       <c r="GF4" t="n">
-        <v>691.5661010742188</v>
+        <v>1966.142333984375</v>
       </c>
       <c r="GG4" t="n">
-        <v>742.3802490234375</v>
+        <v>1965.966674804688</v>
       </c>
       <c r="GH4" t="n">
-        <v>717.306640625</v>
+        <v>1965.55859375</v>
       </c>
       <c r="GI4" t="n">
-        <v>704.3212890625</v>
+        <v>1964.911499023438</v>
       </c>
       <c r="GJ4" t="n">
-        <v>750.7062377929688</v>
+        <v>1963.931030273438</v>
       </c>
       <c r="GK4" t="n">
-        <v>678.0961303710938</v>
+        <v>1962.971923828125</v>
       </c>
       <c r="GL4" t="n">
-        <v>715.5968017578125</v>
+        <v>1963.2421875</v>
       </c>
       <c r="GM4" t="n">
-        <v>670.9633178710938</v>
+        <v>1964.011596679688</v>
       </c>
       <c r="GN4" t="n">
-        <v>678.090087890625</v>
+        <v>1963.88134765625</v>
       </c>
       <c r="GO4" t="n">
-        <v>700.6051635742188</v>
+        <v>1963.409057617188</v>
       </c>
       <c r="GP4" t="n">
-        <v>665.6905517578125</v>
+        <v>1964.082275390625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>647.70068359375</v>
+        <v>1964.857421875</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1964.911865234375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1965.128662109375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1964.9755859375</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1964.680297851562</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1964.25439453125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1963.794311523438</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1963.713500976562</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1963.57177734375</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1963.677124023438</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1963.686157226562</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1963.634155273438</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1963.56689453125</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1963.479125976562</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1963.390869140625</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1962.982421875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1962.095947265625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1961.763671875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1961.95947265625</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1961.897094726562</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1961.4130859375</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1960.004760742188</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1959.261962890625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1959.851928710938</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1959.899047851562</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1959.263916015625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1958.854858398438</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1959.420532226562</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1960.27734375</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1961.544067382812</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1962.242797851562</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1962.27783203125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1962.3876953125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1962.48876953125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1962.685180664062</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1962.40576171875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1961.485107421875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1960.871948242188</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1960.294677734375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1960.338623046875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1960.299560546875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1960.34521484375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1960.311645507812</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1960.357299804688</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1959.762939453125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1959.815673828125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1959.805786132812</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1959.778930664062</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1959.505249023438</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1959.187133789062</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1959.03125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1958.997924804688</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1958.978881835938</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1958.9638671875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1959.017700195312</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1959.041870117188</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1959.03759765625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1958.996704101562</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1958.955810546875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1958.790771484375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1958.501953125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1958.478393554688</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1958.219482421875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1957.657836914062</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1956.928833007812</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1956.314697265625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1956.236083984375</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1956.165405273438</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1956.066650390625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1956.064453125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1956.130859375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1956.257934570312</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1956.582153320312</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1956.9833984375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1957.477294921875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1958.049682617188</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1958.814086914062</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1959.329833984375</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1959.33984375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1958.975341796875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1958.61962890625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1958.42431640625</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1958.29052734375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1957.865600585938</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1957.06005859375</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1952.613525390625</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1944.578857421875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1926.092041015625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1925.138916015625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1924.67822265625</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1923.434936523438</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1910.289916992188</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1911.8955078125</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1917.4921875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1908.773681640625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1871.473876953125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1844.575317382812</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1814.431274414062</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1778.137451171875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1735.319946289062</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1684.449096679688</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1622.660278320312</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1532.51708984375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1476.503173828125</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1424.349365234375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1384.687622070312</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1320.891845703125</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1278.32275390625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1211.542114257812</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1164.509765625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1117.571166992188</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1072.061767578125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1050.54931640625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1026.668579101562</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>999.8215942382812</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>985.863525390625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>971.23046875</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>950.262939453125</v>
       </c>
     </row>
   </sheetData>

--- a/left_hip_Data.xlsx
+++ b/left_hip_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>358.7896118164062</v>
+        <v>349.0344848632812</v>
       </c>
       <c r="B2" t="n">
-        <v>359.8189697265625</v>
+        <v>347.8094482421875</v>
       </c>
       <c r="C2" t="n">
-        <v>356.78271484375</v>
+        <v>345.5037231445312</v>
       </c>
       <c r="D2" t="n">
-        <v>357.5908813476562</v>
+        <v>344.0479736328125</v>
       </c>
       <c r="E2" t="n">
-        <v>359.4894714355469</v>
+        <v>343.7466430664062</v>
       </c>
       <c r="F2" t="n">
-        <v>363.1636962890625</v>
+        <v>343.8294982910156</v>
       </c>
       <c r="G2" t="n">
-        <v>364.72216796875</v>
+        <v>342.7657470703125</v>
       </c>
       <c r="H2" t="n">
-        <v>364.6412658691406</v>
+        <v>341.1187438964844</v>
       </c>
       <c r="I2" t="n">
-        <v>363.5057983398438</v>
+        <v>339.8587646484375</v>
       </c>
       <c r="J2" t="n">
-        <v>361.85107421875</v>
+        <v>338.7376098632812</v>
       </c>
       <c r="K2" t="n">
-        <v>360.9024353027344</v>
+        <v>336.5432739257812</v>
       </c>
       <c r="L2" t="n">
-        <v>360.5376586914062</v>
+        <v>333.7969970703125</v>
       </c>
       <c r="M2" t="n">
-        <v>359.0650024414062</v>
+        <v>329.3878479003906</v>
       </c>
       <c r="N2" t="n">
-        <v>359.4585571289062</v>
+        <v>326.4209594726562</v>
       </c>
       <c r="O2" t="n">
-        <v>359.5166625976562</v>
+        <v>324.4462280273438</v>
       </c>
       <c r="P2" t="n">
-        <v>358.8483276367188</v>
+        <v>323.5360717773438</v>
       </c>
       <c r="Q2" t="n">
-        <v>357.9140625</v>
+        <v>323.1158447265625</v>
       </c>
       <c r="R2" t="n">
-        <v>356.2671508789062</v>
+        <v>322.97412109375</v>
       </c>
       <c r="S2" t="n">
-        <v>354.0986633300781</v>
+        <v>322.7192687988281</v>
       </c>
       <c r="T2" t="n">
-        <v>350.9523010253906</v>
+        <v>321.8286437988281</v>
       </c>
       <c r="U2" t="n">
-        <v>349.5621337890625</v>
+        <v>322.4321899414062</v>
       </c>
       <c r="V2" t="n">
-        <v>348.7369995117188</v>
+        <v>323.618408203125</v>
       </c>
       <c r="W2" t="n">
-        <v>348.489013671875</v>
+        <v>323.2884216308594</v>
       </c>
       <c r="X2" t="n">
-        <v>347.7909545898438</v>
+        <v>323.6019287109375</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.4615478515625</v>
+        <v>323.6035461425781</v>
       </c>
       <c r="Z2" t="n">
-        <v>344.5014953613281</v>
+        <v>323.82861328125</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.8418884277344</v>
+        <v>324.9575500488281</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.6062316894531</v>
+        <v>328.3545532226562</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.6281433105469</v>
+        <v>333.588623046875</v>
       </c>
       <c r="AD2" t="n">
-        <v>342.1087036132812</v>
+        <v>336.2289428710938</v>
       </c>
       <c r="AE2" t="n">
-        <v>341.5484924316406</v>
+        <v>336.9838256835938</v>
       </c>
       <c r="AF2" t="n">
-        <v>340.3134155273438</v>
+        <v>337.4136962890625</v>
       </c>
       <c r="AG2" t="n">
-        <v>339.1266479492188</v>
+        <v>337.6473999023438</v>
       </c>
       <c r="AH2" t="n">
-        <v>338.0126647949219</v>
+        <v>337.6309814453125</v>
       </c>
       <c r="AI2" t="n">
-        <v>337.3626708984375</v>
+        <v>337.10791015625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>337.4100341796875</v>
+        <v>336.3472900390625</v>
       </c>
       <c r="AK2" t="n">
-        <v>337.3980407714844</v>
+        <v>335.1911926269531</v>
       </c>
       <c r="AL2" t="n">
-        <v>337.8890380859375</v>
+        <v>334.8468322753906</v>
       </c>
       <c r="AM2" t="n">
-        <v>338.0707397460938</v>
+        <v>334.6311950683594</v>
       </c>
       <c r="AN2" t="n">
-        <v>338.3770751953125</v>
+        <v>334.2189025878906</v>
       </c>
       <c r="AO2" t="n">
-        <v>339.0220642089844</v>
+        <v>333.9029541015625</v>
       </c>
       <c r="AP2" t="n">
-        <v>339.7770385742188</v>
+        <v>333.6834716796875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>340.7416076660156</v>
+        <v>332.8240356445312</v>
       </c>
       <c r="AR2" t="n">
-        <v>342.4700622558594</v>
+        <v>331.7396240234375</v>
       </c>
       <c r="AS2" t="n">
-        <v>344.484619140625</v>
+        <v>330.4550476074219</v>
       </c>
       <c r="AT2" t="n">
-        <v>345.7803955078125</v>
+        <v>328.3081359863281</v>
       </c>
       <c r="AU2" t="n">
-        <v>346.3114013671875</v>
+        <v>327.3093872070312</v>
       </c>
       <c r="AV2" t="n">
-        <v>346.4625854492188</v>
+        <v>326.3840026855469</v>
       </c>
       <c r="AW2" t="n">
-        <v>346.535888671875</v>
+        <v>326.0383911132812</v>
       </c>
       <c r="AX2" t="n">
-        <v>346.5047607421875</v>
+        <v>325.197509765625</v>
       </c>
       <c r="AY2" t="n">
-        <v>346.5190124511719</v>
+        <v>324.2921447753906</v>
       </c>
       <c r="AZ2" t="n">
-        <v>346.4838256835938</v>
+        <v>323.5868835449219</v>
       </c>
       <c r="BA2" t="n">
-        <v>346.3858642578125</v>
+        <v>322.6380004882812</v>
       </c>
       <c r="BB2" t="n">
-        <v>346.1404113769531</v>
+        <v>322.4003295898438</v>
       </c>
       <c r="BC2" t="n">
-        <v>346.3213806152344</v>
+        <v>322.0926513671875</v>
       </c>
       <c r="BD2" t="n">
-        <v>346.1238403320312</v>
+        <v>321.9797973632812</v>
       </c>
       <c r="BE2" t="n">
-        <v>345.9649047851562</v>
+        <v>321.6351928710938</v>
       </c>
       <c r="BF2" t="n">
-        <v>345.8729248046875</v>
+        <v>321.8078918457031</v>
       </c>
       <c r="BG2" t="n">
-        <v>345.7965698242188</v>
+        <v>322.5155029296875</v>
       </c>
       <c r="BH2" t="n">
-        <v>345.7385559082031</v>
+        <v>323.4705200195312</v>
       </c>
       <c r="BI2" t="n">
-        <v>345.6268920898438</v>
+        <v>323.41650390625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>345.3951416015625</v>
+        <v>322.9470825195312</v>
       </c>
       <c r="BK2" t="n">
-        <v>345.0933227539062</v>
+        <v>325.6288452148438</v>
       </c>
       <c r="BL2" t="n">
-        <v>344.5090026855469</v>
+        <v>326.4931640625</v>
       </c>
       <c r="BM2" t="n">
-        <v>343.9447021484375</v>
+        <v>328.808349609375</v>
       </c>
       <c r="BN2" t="n">
-        <v>343.3860473632812</v>
+        <v>330.6963500976562</v>
       </c>
       <c r="BO2" t="n">
-        <v>343.0475158691406</v>
+        <v>331.5484619140625</v>
       </c>
       <c r="BP2" t="n">
-        <v>342.8701171875</v>
+        <v>332.5226440429688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>342.6793823242188</v>
+        <v>333.898681640625</v>
       </c>
       <c r="BR2" t="n">
-        <v>342.6852722167969</v>
+        <v>334.6273193359375</v>
       </c>
       <c r="BS2" t="n">
-        <v>342.7204895019531</v>
+        <v>334.0029296875</v>
       </c>
       <c r="BT2" t="n">
-        <v>342.8432922363281</v>
+        <v>333.456787109375</v>
       </c>
       <c r="BU2" t="n">
-        <v>342.9706420898438</v>
+        <v>333.04296875</v>
       </c>
       <c r="BV2" t="n">
-        <v>343.076171875</v>
+        <v>333.2008056640625</v>
       </c>
       <c r="BW2" t="n">
-        <v>343.166259765625</v>
+        <v>333.6079406738281</v>
       </c>
       <c r="BX2" t="n">
-        <v>343.2531433105469</v>
+        <v>334.1251831054688</v>
       </c>
       <c r="BY2" t="n">
-        <v>343.34130859375</v>
+        <v>333.69091796875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>343.39501953125</v>
+        <v>332.48876953125</v>
       </c>
       <c r="CA2" t="n">
-        <v>343.6718139648438</v>
+        <v>332.0149536132812</v>
       </c>
       <c r="CB2" t="n">
-        <v>343.7519836425781</v>
+        <v>330.8986206054688</v>
       </c>
       <c r="CC2" t="n">
-        <v>343.8475952148438</v>
+        <v>330.4968566894531</v>
       </c>
       <c r="CD2" t="n">
-        <v>343.8809509277344</v>
+        <v>330.06201171875</v>
       </c>
       <c r="CE2" t="n">
-        <v>343.9264526367188</v>
+        <v>329.8583984375</v>
       </c>
       <c r="CF2" t="n">
-        <v>343.94482421875</v>
+        <v>329.5166320800781</v>
       </c>
       <c r="CG2" t="n">
-        <v>343.9511413574219</v>
+        <v>328.921142578125</v>
       </c>
       <c r="CH2" t="n">
-        <v>343.9485473632812</v>
+        <v>328.952392578125</v>
       </c>
       <c r="CI2" t="n">
-        <v>343.9377136230469</v>
+        <v>328.7736511230469</v>
       </c>
       <c r="CJ2" t="n">
-        <v>343.9346008300781</v>
+        <v>328.55322265625</v>
       </c>
       <c r="CK2" t="n">
-        <v>343.9301147460938</v>
+        <v>328.2562866210938</v>
       </c>
       <c r="CL2" t="n">
-        <v>343.9429321289062</v>
+        <v>327.9950256347656</v>
       </c>
       <c r="CM2" t="n">
-        <v>343.9367065429688</v>
+        <v>328.0016479492188</v>
       </c>
       <c r="CN2" t="n">
-        <v>343.9205322265625</v>
+        <v>327.9686889648438</v>
       </c>
       <c r="CO2" t="n">
-        <v>343.8980407714844</v>
+        <v>327.947021484375</v>
       </c>
       <c r="CP2" t="n">
-        <v>343.8855590820312</v>
+        <v>327.7598876953125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>343.8789672851562</v>
+        <v>327.5884399414062</v>
       </c>
       <c r="CR2" t="n">
-        <v>343.8361206054688</v>
+        <v>327.5556030273438</v>
       </c>
       <c r="CS2" t="n">
-        <v>343.8206787109375</v>
+        <v>327.5444030761719</v>
       </c>
       <c r="CT2" t="n">
-        <v>343.8569641113281</v>
+        <v>327.4810485839844</v>
       </c>
       <c r="CU2" t="n">
-        <v>343.8992614746094</v>
+        <v>327.4116821289062</v>
       </c>
       <c r="CV2" t="n">
-        <v>343.9644775390625</v>
+        <v>327.373779296875</v>
       </c>
       <c r="CW2" t="n">
-        <v>344.0176696777344</v>
+        <v>327.341552734375</v>
       </c>
       <c r="CX2" t="n">
-        <v>344.0679321289062</v>
+        <v>327.3359680175781</v>
       </c>
       <c r="CY2" t="n">
-        <v>344.0775756835938</v>
+        <v>327.2884521484375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>344.1395874023438</v>
+        <v>327.17431640625</v>
       </c>
       <c r="DA2" t="n">
-        <v>344.1739501953125</v>
+        <v>327.1590576171875</v>
       </c>
       <c r="DB2" t="n">
-        <v>344.0210266113281</v>
+        <v>327.417236328125</v>
       </c>
       <c r="DC2" t="n">
-        <v>343.9163818359375</v>
+        <v>327.3922729492188</v>
       </c>
       <c r="DD2" t="n">
-        <v>343.818603515625</v>
+        <v>327.3480834960938</v>
       </c>
       <c r="DE2" t="n">
-        <v>343.7155151367188</v>
+        <v>327.1439208984375</v>
       </c>
       <c r="DF2" t="n">
-        <v>343.6059875488281</v>
+        <v>327.197509765625</v>
       </c>
       <c r="DG2" t="n">
-        <v>343.443359375</v>
+        <v>327.2153015136719</v>
       </c>
       <c r="DH2" t="n">
-        <v>343.1625061035156</v>
+        <v>327.2137145996094</v>
       </c>
       <c r="DI2" t="n">
-        <v>342.9080810546875</v>
+        <v>327.1792907714844</v>
       </c>
       <c r="DJ2" t="n">
-        <v>342.7282104492188</v>
+        <v>327.3150329589844</v>
       </c>
       <c r="DK2" t="n">
-        <v>342.3883666992188</v>
+        <v>327.3247680664062</v>
       </c>
       <c r="DL2" t="n">
-        <v>341.9470825195312</v>
+        <v>327.3687438964844</v>
       </c>
       <c r="DM2" t="n">
-        <v>341.6376953125</v>
+        <v>327.4210205078125</v>
       </c>
       <c r="DN2" t="n">
-        <v>341.2579956054688</v>
+        <v>327.4409790039062</v>
       </c>
       <c r="DO2" t="n">
-        <v>341.1848449707031</v>
+        <v>327.4531860351562</v>
       </c>
       <c r="DP2" t="n">
-        <v>340.8843383789062</v>
+        <v>327.4658813476562</v>
       </c>
       <c r="DQ2" t="n">
-        <v>340.5592346191406</v>
+        <v>327.5366516113281</v>
       </c>
       <c r="DR2" t="n">
-        <v>340.2552490234375</v>
+        <v>327.5775756835938</v>
       </c>
       <c r="DS2" t="n">
-        <v>340.1893615722656</v>
+        <v>327.6140747070312</v>
       </c>
       <c r="DT2" t="n">
-        <v>340.0699157714844</v>
+        <v>327.6751403808594</v>
       </c>
       <c r="DU2" t="n">
-        <v>339.9934387207031</v>
+        <v>327.7504272460938</v>
       </c>
       <c r="DV2" t="n">
-        <v>339.6864318847656</v>
+        <v>328.0345153808594</v>
       </c>
       <c r="DW2" t="n">
-        <v>339.5083618164062</v>
+        <v>328.0875244140625</v>
       </c>
       <c r="DX2" t="n">
-        <v>339.3167724609375</v>
+        <v>328.0864868164062</v>
       </c>
       <c r="DY2" t="n">
-        <v>339.0877685546875</v>
+        <v>328.0946044921875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>338.9030456542969</v>
+        <v>328.1312866210938</v>
       </c>
       <c r="EA2" t="n">
-        <v>338.6881103515625</v>
+        <v>328.1335144042969</v>
       </c>
       <c r="EB2" t="n">
-        <v>338.68359375</v>
+        <v>328.105712890625</v>
       </c>
       <c r="EC2" t="n">
-        <v>338.6712036132812</v>
+        <v>328.150634765625</v>
       </c>
       <c r="ED2" t="n">
-        <v>338.794921875</v>
+        <v>328.1382446289062</v>
       </c>
       <c r="EE2" t="n">
-        <v>338.8440551757812</v>
+        <v>327.995849609375</v>
       </c>
       <c r="EF2" t="n">
-        <v>339.0291748046875</v>
+        <v>327.9292602539062</v>
       </c>
       <c r="EG2" t="n">
-        <v>339.1083374023438</v>
+        <v>327.8239135742188</v>
       </c>
       <c r="EH2" t="n">
-        <v>339.1258239746094</v>
+        <v>327.864990234375</v>
       </c>
       <c r="EI2" t="n">
-        <v>339.1471862792969</v>
+        <v>327.9264526367188</v>
       </c>
       <c r="EJ2" t="n">
-        <v>339.1824951171875</v>
+        <v>327.933837890625</v>
       </c>
       <c r="EK2" t="n">
-        <v>339.1978759765625</v>
+        <v>327.9374694824219</v>
       </c>
       <c r="EL2" t="n">
-        <v>339.189453125</v>
+        <v>327.9259643554688</v>
       </c>
       <c r="EM2" t="n">
-        <v>339.20654296875</v>
+        <v>327.9180908203125</v>
       </c>
       <c r="EN2" t="n">
-        <v>339.2283935546875</v>
+        <v>327.9158020019531</v>
       </c>
       <c r="EO2" t="n">
-        <v>339.3239135742188</v>
+        <v>327.9458312988281</v>
       </c>
       <c r="EP2" t="n">
-        <v>339.5245361328125</v>
+        <v>327.962646484375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>339.9071960449219</v>
+        <v>327.9739379882812</v>
       </c>
       <c r="ER2" t="n">
-        <v>339.9393920898438</v>
+        <v>327.99267578125</v>
       </c>
       <c r="ES2" t="n">
-        <v>339.9087829589844</v>
+        <v>327.9945373535156</v>
       </c>
       <c r="ET2" t="n">
-        <v>339.7920532226562</v>
+        <v>328.0221862792969</v>
       </c>
       <c r="EU2" t="n">
-        <v>339.7420959472656</v>
+        <v>328.0856628417969</v>
       </c>
       <c r="EV2" t="n">
-        <v>339.7290649414062</v>
+        <v>328.1445922851562</v>
       </c>
       <c r="EW2" t="n">
-        <v>339.6942443847656</v>
+        <v>328.1399230957031</v>
       </c>
       <c r="EX2" t="n">
-        <v>339.7809448242188</v>
+        <v>328.0871887207031</v>
       </c>
       <c r="EY2" t="n">
-        <v>339.7578735351562</v>
+        <v>328.0098876953125</v>
       </c>
       <c r="EZ2" t="n">
-        <v>339.6466369628906</v>
+        <v>327.9586181640625</v>
       </c>
       <c r="FA2" t="n">
-        <v>339.3592529296875</v>
+        <v>327.9999389648438</v>
       </c>
       <c r="FB2" t="n">
-        <v>339.1434020996094</v>
+        <v>328.1705017089844</v>
       </c>
       <c r="FC2" t="n">
-        <v>339.0518493652344</v>
+        <v>328.1676940917969</v>
       </c>
       <c r="FD2" t="n">
-        <v>339.0629577636719</v>
+        <v>328.1249389648438</v>
       </c>
       <c r="FE2" t="n">
-        <v>339.065185546875</v>
+        <v>328.0706787109375</v>
       </c>
       <c r="FF2" t="n">
-        <v>339.0884704589844</v>
+        <v>328.1158447265625</v>
       </c>
       <c r="FG2" t="n">
-        <v>339.1534729003906</v>
+        <v>328.064453125</v>
       </c>
       <c r="FH2" t="n">
-        <v>339.1920471191406</v>
+        <v>328.0304260253906</v>
       </c>
       <c r="FI2" t="n">
-        <v>339.2712707519531</v>
+        <v>328.0391235351562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>339.349609375</v>
+        <v>328.0343322753906</v>
       </c>
       <c r="FK2" t="n">
-        <v>339.3683471679688</v>
+        <v>328.0339965820312</v>
       </c>
       <c r="FL2" t="n">
-        <v>339.3849487304688</v>
+        <v>328.0205993652344</v>
       </c>
       <c r="FM2" t="n">
-        <v>339.4058837890625</v>
+        <v>327.9522094726562</v>
       </c>
       <c r="FN2" t="n">
-        <v>339.3591003417969</v>
+        <v>327.9685974121094</v>
       </c>
       <c r="FO2" t="n">
-        <v>339.2947692871094</v>
+        <v>327.9621887207031</v>
       </c>
       <c r="FP2" t="n">
-        <v>339.18359375</v>
+        <v>327.9758911132812</v>
       </c>
       <c r="FQ2" t="n">
-        <v>339.1112670898438</v>
+        <v>327.8959350585938</v>
       </c>
       <c r="FR2" t="n">
-        <v>338.9929809570312</v>
+        <v>327.7821350097656</v>
       </c>
       <c r="FS2" t="n">
-        <v>338.9276733398438</v>
+        <v>327.8853759765625</v>
       </c>
       <c r="FT2" t="n">
-        <v>338.9057922363281</v>
+        <v>327.9761047363281</v>
       </c>
       <c r="FU2" t="n">
-        <v>338.8869018554688</v>
+        <v>328.1903686523438</v>
       </c>
       <c r="FV2" t="n">
-        <v>338.87060546875</v>
+        <v>328.2262573242188</v>
       </c>
       <c r="FW2" t="n">
-        <v>338.8523864746094</v>
+        <v>328.101806640625</v>
       </c>
       <c r="FX2" t="n">
-        <v>338.8162841796875</v>
+        <v>328.1043090820312</v>
       </c>
       <c r="FY2" t="n">
-        <v>339.2249145507812</v>
+        <v>328.1572265625</v>
       </c>
       <c r="FZ2" t="n">
-        <v>339.4251098632812</v>
+        <v>328.1529235839844</v>
       </c>
       <c r="GA2" t="n">
-        <v>339.4707641601562</v>
+        <v>328.1536254882812</v>
       </c>
       <c r="GB2" t="n">
-        <v>339.2552185058594</v>
+        <v>328.2332153320312</v>
       </c>
       <c r="GC2" t="n">
-        <v>338.695556640625</v>
+        <v>328.1016540527344</v>
       </c>
       <c r="GD2" t="n">
-        <v>338.4443664550781</v>
+        <v>328.0512084960938</v>
       </c>
       <c r="GE2" t="n">
-        <v>338.3031005859375</v>
+        <v>328.0343627929688</v>
       </c>
       <c r="GF2" t="n">
-        <v>338.3135375976562</v>
+        <v>327.8936157226562</v>
       </c>
       <c r="GG2" t="n">
-        <v>338.203369140625</v>
+        <v>327.74658203125</v>
       </c>
       <c r="GH2" t="n">
-        <v>337.9272766113281</v>
+        <v>327.634033203125</v>
       </c>
       <c r="GI2" t="n">
-        <v>337.7124328613281</v>
+        <v>327.5027160644531</v>
       </c>
       <c r="GJ2" t="n">
-        <v>337.78515625</v>
+        <v>327.1448059082031</v>
       </c>
       <c r="GK2" t="n">
-        <v>337.7766723632812</v>
+        <v>327.2876281738281</v>
       </c>
       <c r="GL2" t="n">
-        <v>337.7230224609375</v>
+        <v>327.538330078125</v>
       </c>
       <c r="GM2" t="n">
-        <v>337.409423828125</v>
+        <v>327.5184936523438</v>
       </c>
       <c r="GN2" t="n">
-        <v>337.3226318359375</v>
+        <v>327.47265625</v>
       </c>
       <c r="GO2" t="n">
-        <v>337.2667236328125</v>
+        <v>327.4540405273438</v>
       </c>
       <c r="GP2" t="n">
-        <v>337.3224487304688</v>
+        <v>327.425048828125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>337.3446960449219</v>
+        <v>327.3938598632812</v>
       </c>
       <c r="GR2" t="n">
-        <v>337.3433227539062</v>
+        <v>327.383056640625</v>
       </c>
       <c r="GS2" t="n">
-        <v>337.123046875</v>
+        <v>327.3593139648438</v>
       </c>
       <c r="GT2" t="n">
-        <v>337.1409301757812</v>
+        <v>327.3350830078125</v>
       </c>
       <c r="GU2" t="n">
-        <v>337.2061462402344</v>
+        <v>327.2930603027344</v>
       </c>
       <c r="GV2" t="n">
-        <v>337.2621154785156</v>
+        <v>327.2763671875</v>
       </c>
       <c r="GW2" t="n">
-        <v>337.3119506835938</v>
+        <v>327.3870849609375</v>
       </c>
       <c r="GX2" t="n">
-        <v>337.3367614746094</v>
+        <v>327.6418762207031</v>
       </c>
       <c r="GY2" t="n">
-        <v>337.2811279296875</v>
+        <v>327.8927001953125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>337.2273559570312</v>
+        <v>328.234619140625</v>
       </c>
       <c r="HA2" t="n">
-        <v>337.1689147949219</v>
+        <v>328.2049255371094</v>
       </c>
       <c r="HB2" t="n">
-        <v>337.2232055664062</v>
+        <v>328.1848754882812</v>
       </c>
       <c r="HC2" t="n">
-        <v>337.2940368652344</v>
+        <v>328.154541015625</v>
       </c>
       <c r="HD2" t="n">
-        <v>337.3646240234375</v>
+        <v>328.1201171875</v>
       </c>
       <c r="HE2" t="n">
-        <v>337.4478759765625</v>
+        <v>328.1024780273438</v>
       </c>
       <c r="HF2" t="n">
-        <v>337.7558898925781</v>
+        <v>328.1947326660156</v>
       </c>
       <c r="HG2" t="n">
-        <v>338.5059204101562</v>
+        <v>328.0554809570312</v>
       </c>
       <c r="HH2" t="n">
-        <v>338.697998046875</v>
+        <v>327.64892578125</v>
       </c>
       <c r="HI2" t="n">
-        <v>338.28173828125</v>
+        <v>327.7998352050781</v>
       </c>
       <c r="HJ2" t="n">
-        <v>337.9517822265625</v>
+        <v>327.8436584472656</v>
       </c>
       <c r="HK2" t="n">
-        <v>337.8297119140625</v>
+        <v>327.8833618164062</v>
       </c>
       <c r="HL2" t="n">
-        <v>337.7987060546875</v>
+        <v>327.9052124023438</v>
       </c>
       <c r="HM2" t="n">
-        <v>337.780517578125</v>
+        <v>327.9161987304688</v>
       </c>
       <c r="HN2" t="n">
-        <v>337.8056640625</v>
+        <v>327.857177734375</v>
       </c>
       <c r="HO2" t="n">
-        <v>337.7930297851562</v>
+        <v>327.657470703125</v>
       </c>
       <c r="HP2" t="n">
-        <v>337.7528076171875</v>
+        <v>327.6141662597656</v>
       </c>
       <c r="HQ2" t="n">
-        <v>337.710693359375</v>
+        <v>327.5265502929688</v>
       </c>
       <c r="HR2" t="n">
-        <v>337.6934509277344</v>
+        <v>327.4570007324219</v>
       </c>
       <c r="HS2" t="n">
-        <v>337.5791625976562</v>
+        <v>327.3120727539062</v>
       </c>
       <c r="HT2" t="n">
-        <v>337.3268127441406</v>
+        <v>327.21044921875</v>
       </c>
       <c r="HU2" t="n">
-        <v>337.0942687988281</v>
+        <v>327.1388549804688</v>
       </c>
       <c r="HV2" t="n">
-        <v>337.11181640625</v>
+        <v>327.362548828125</v>
       </c>
       <c r="HW2" t="n">
-        <v>337.2045593261719</v>
+        <v>327.6041259765625</v>
       </c>
       <c r="HX2" t="n">
-        <v>337.2100219726562</v>
+        <v>327.576416015625</v>
       </c>
       <c r="HY2" t="n">
-        <v>337.1338500976562</v>
+        <v>327.6327819824219</v>
       </c>
       <c r="HZ2" t="n">
-        <v>337.1380004882812</v>
+        <v>327.7594604492188</v>
       </c>
       <c r="IA2" t="n">
-        <v>336.9511108398438</v>
+        <v>327.8049926757812</v>
       </c>
       <c r="IB2" t="n">
-        <v>336.8414916992188</v>
+        <v>328.1934204101562</v>
       </c>
       <c r="IC2" t="n">
-        <v>336.735107421875</v>
+        <v>328.1180419921875</v>
       </c>
       <c r="ID2" t="n">
-        <v>336.7296752929688</v>
+        <v>327.9808959960938</v>
       </c>
       <c r="IE2" t="n">
-        <v>336.6640625</v>
+        <v>328.1995849609375</v>
       </c>
       <c r="IF2" t="n">
-        <v>336.6785278320312</v>
+        <v>328.0628662109375</v>
       </c>
       <c r="IG2" t="n">
-        <v>336.7001953125</v>
+        <v>328.00146484375</v>
       </c>
       <c r="IH2" t="n">
-        <v>336.7054748535156</v>
+        <v>327.97021484375</v>
       </c>
       <c r="II2" t="n">
-        <v>336.6941528320312</v>
+        <v>328.0166015625</v>
       </c>
       <c r="IJ2" t="n">
-        <v>336.7178649902344</v>
+        <v>328.015869140625</v>
       </c>
       <c r="IK2" t="n">
-        <v>336.7327575683594</v>
+        <v>328.0149841308594</v>
       </c>
       <c r="IL2" t="n">
-        <v>336.7435302734375</v>
+        <v>327.9147644042969</v>
       </c>
       <c r="IM2" t="n">
-        <v>336.8987731933594</v>
+        <v>327.7094116210938</v>
       </c>
       <c r="IN2" t="n">
-        <v>337.1650390625</v>
+        <v>327.5479125976562</v>
       </c>
       <c r="IO2" t="n">
-        <v>337.4517517089844</v>
+        <v>327.3656005859375</v>
       </c>
       <c r="IP2" t="n">
-        <v>337.6072998046875</v>
+        <v>327.2809448242188</v>
       </c>
       <c r="IQ2" t="n">
-        <v>337.594970703125</v>
+        <v>327.2435913085938</v>
       </c>
       <c r="IR2" t="n">
-        <v>337.5960998535156</v>
+        <v>327.2268981933594</v>
       </c>
       <c r="IS2" t="n">
-        <v>337.45703125</v>
+        <v>327.2286987304688</v>
       </c>
       <c r="IT2" t="n">
-        <v>337.3945617675781</v>
+        <v>327.2810363769531</v>
       </c>
       <c r="IU2" t="n">
-        <v>337.3719482421875</v>
+        <v>327.3875427246094</v>
       </c>
       <c r="IV2" t="n">
-        <v>337.421875</v>
+        <v>327.4241333007812</v>
       </c>
       <c r="IW2" t="n">
-        <v>337.5103149414062</v>
+        <v>327.3596496582031</v>
       </c>
       <c r="IX2" t="n">
-        <v>337.545166015625</v>
+        <v>327.33203125</v>
       </c>
       <c r="IY2" t="n">
-        <v>337.4459533691406</v>
+        <v>327.3162231445312</v>
       </c>
       <c r="IZ2" t="n">
-        <v>337.2140197753906</v>
+        <v>327.3553771972656</v>
       </c>
       <c r="JA2" t="n">
-        <v>337.0801086425781</v>
+        <v>327.38623046875</v>
       </c>
       <c r="JB2" t="n">
-        <v>336.9778442382812</v>
+        <v>327.33251953125</v>
       </c>
       <c r="JC2" t="n">
-        <v>336.8870544433594</v>
+        <v>327.3362426757812</v>
       </c>
       <c r="JD2" t="n">
-        <v>336.8126831054688</v>
+        <v>327.0891723632812</v>
       </c>
       <c r="JE2" t="n">
-        <v>336.8045654296875</v>
+        <v>326.7097778320312</v>
       </c>
       <c r="JF2" t="n">
-        <v>336.8690795898438</v>
+        <v>326.5370483398438</v>
       </c>
       <c r="JG2" t="n">
-        <v>336.934326171875</v>
+        <v>326.2812805175781</v>
       </c>
       <c r="JH2" t="n">
-        <v>336.9224853515625</v>
+        <v>326.2954711914062</v>
       </c>
       <c r="JI2" t="n">
-        <v>336.7691650390625</v>
+        <v>327.3003540039062</v>
       </c>
       <c r="JJ2" t="n">
-        <v>336.5899047851562</v>
+        <v>326.4010925292969</v>
       </c>
       <c r="JK2" t="n">
-        <v>336.4186096191406</v>
+        <v>326.7061767578125</v>
       </c>
       <c r="JL2" t="n">
-        <v>336.24072265625</v>
+        <v>326.8111877441406</v>
       </c>
       <c r="JM2" t="n">
-        <v>336.0537109375</v>
+        <v>326.7503051757812</v>
       </c>
       <c r="JN2" t="n">
-        <v>335.8455200195312</v>
+        <v>326.9646606445312</v>
       </c>
       <c r="JO2" t="n">
-        <v>335.7369689941406</v>
+        <v>327.2445678710938</v>
       </c>
       <c r="JP2" t="n">
-        <v>335.6598205566406</v>
+        <v>327.3705444335938</v>
       </c>
       <c r="JQ2" t="n">
-        <v>335.7170104980469</v>
+        <v>327.3349609375</v>
       </c>
       <c r="JR2" t="n">
-        <v>336.0601806640625</v>
+        <v>327.2338562011719</v>
       </c>
       <c r="JS2" t="n">
-        <v>336.467041015625</v>
+        <v>327.3873901367188</v>
       </c>
       <c r="JT2" t="n">
-        <v>336.9149780273438</v>
+        <v>327.4786987304688</v>
       </c>
       <c r="JU2" t="n">
-        <v>336.6543273925781</v>
+        <v>327.3919372558594</v>
       </c>
       <c r="JV2" t="n">
-        <v>336.4815063476562</v>
+        <v>327.4385070800781</v>
       </c>
       <c r="JW2" t="n">
-        <v>336.3771362304688</v>
+        <v>327.49853515625</v>
       </c>
       <c r="JX2" t="n">
-        <v>336.1763000488281</v>
+        <v>327.5813293457031</v>
       </c>
       <c r="JY2" t="n">
-        <v>335.7797241210938</v>
+        <v>327.6791381835938</v>
       </c>
       <c r="JZ2" t="n">
-        <v>335.7416076660156</v>
+        <v>327.736572265625</v>
       </c>
       <c r="KA2" t="n">
-        <v>334.3633728027344</v>
+        <v>327.8110961914062</v>
       </c>
       <c r="KB2" t="n">
-        <v>332.2259826660156</v>
+        <v>328.7943115234375</v>
       </c>
       <c r="KC2" t="n">
-        <v>331.3100891113281</v>
+        <v>331.7861328125</v>
       </c>
       <c r="KD2" t="n">
-        <v>330.0131530761719</v>
+        <v>332.6090087890625</v>
       </c>
       <c r="KE2" t="n">
-        <v>329.6134948730469</v>
+        <v>332.5208740234375</v>
       </c>
       <c r="KF2" t="n">
-        <v>329.3922119140625</v>
+        <v>332.4383239746094</v>
       </c>
       <c r="KG2" t="n">
-        <v>325.4086608886719</v>
+        <v>332.4246826171875</v>
       </c>
       <c r="KH2" t="n">
-        <v>325.039794921875</v>
+        <v>332.5286560058594</v>
       </c>
       <c r="KI2" t="n">
-        <v>325.3982849121094</v>
+        <v>333.0755310058594</v>
       </c>
       <c r="KJ2" t="n">
-        <v>328.1863403320312</v>
+        <v>333.2839660644531</v>
       </c>
       <c r="KK2" t="n">
-        <v>329.2669067382812</v>
+        <v>333.1553955078125</v>
       </c>
       <c r="KL2" t="n">
-        <v>330.6492614746094</v>
+        <v>332.8773193359375</v>
       </c>
       <c r="KM2" t="n">
-        <v>332.08642578125</v>
+        <v>332.8355407714844</v>
       </c>
       <c r="KN2" t="n">
-        <v>334.8236083984375</v>
+        <v>332.8152465820312</v>
       </c>
       <c r="KO2" t="n">
-        <v>343.7878723144531</v>
+        <v>333.4793395996094</v>
       </c>
       <c r="KP2" t="n">
-        <v>347.9894409179688</v>
+        <v>337.6110534667969</v>
       </c>
       <c r="KQ2" t="n">
-        <v>349.0368347167969</v>
+        <v>338.717041015625</v>
       </c>
       <c r="KR2" t="n">
-        <v>350.3528442382812</v>
+        <v>340.876953125</v>
       </c>
       <c r="KS2" t="n">
-        <v>350.5056762695312</v>
+        <v>342.3212280273438</v>
       </c>
       <c r="KT2" t="n">
-        <v>350.3139953613281</v>
+        <v>343.0993347167969</v>
       </c>
       <c r="KU2" t="n">
-        <v>351.7207641601562</v>
+        <v>342.8765563964844</v>
       </c>
       <c r="KV2" t="n">
-        <v>353.1488647460938</v>
+        <v>340.750732421875</v>
       </c>
       <c r="KW2" t="n">
-        <v>351.9193725585938</v>
+        <v>335.2546997070312</v>
       </c>
       <c r="KX2" t="n">
-        <v>345.4924926757812</v>
+        <v>332.0728759765625</v>
       </c>
       <c r="KY2" t="n">
-        <v>343.651611328125</v>
+        <v>335.7130737304688</v>
       </c>
       <c r="KZ2" t="n">
-        <v>343.0093994140625</v>
+        <v>339.369140625</v>
       </c>
       <c r="LA2" t="n">
-        <v>340.7711181640625</v>
+        <v>338.1372375488281</v>
       </c>
       <c r="LB2" t="n">
-        <v>338.0865783691406</v>
+        <v>346.0240478515625</v>
       </c>
       <c r="LC2" t="n">
-        <v>336.7666625976562</v>
+        <v>353.5962219238281</v>
       </c>
       <c r="LD2" t="n">
-        <v>337.8387756347656</v>
+        <v>361.8014831542969</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>367.883056640625</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>372.8092041015625</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>372.8020935058594</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>380.6634216308594</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>391.7171936035156</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>399.9171752929688</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>395.3629150390625</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>405.7388610839844</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>380.3207092285156</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>357.9872436523438</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>457.3902893066406</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>470.03466796875</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>456.696044921875</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>470.7772216796875</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>521.2485961914062</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>454.1885070800781</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>455.1156005859375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>447.56689453125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>448.9463500976562</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>236.4268798828125</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>240.7126159667969</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>246.518798828125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>256.9790954589844</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>263.4662475585938</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>380.9689025878906</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>380.6990356445312</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>461.7779846191406</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>269.4728088378906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>400.4987487792969</v>
+        <v>418.4941101074219</v>
       </c>
       <c r="B3" t="n">
-        <v>384.4703369140625</v>
+        <v>406.0843200683594</v>
       </c>
       <c r="C3" t="n">
-        <v>381.1764831542969</v>
+        <v>398.9244384765625</v>
       </c>
       <c r="D3" t="n">
-        <v>382.4292907714844</v>
+        <v>392.8175964355469</v>
       </c>
       <c r="E3" t="n">
-        <v>389.9422302246094</v>
+        <v>386.0581359863281</v>
       </c>
       <c r="F3" t="n">
-        <v>386.8548278808594</v>
+        <v>382.2046508789062</v>
       </c>
       <c r="G3" t="n">
-        <v>390.0179443359375</v>
+        <v>378.3496398925781</v>
       </c>
       <c r="H3" t="n">
-        <v>389.5093688964844</v>
+        <v>373.5714721679688</v>
       </c>
       <c r="I3" t="n">
-        <v>390.1221923828125</v>
+        <v>370.5787658691406</v>
       </c>
       <c r="J3" t="n">
-        <v>389.4079284667969</v>
+        <v>367.2639465332031</v>
       </c>
       <c r="K3" t="n">
-        <v>385.908447265625</v>
+        <v>363.9625244140625</v>
       </c>
       <c r="L3" t="n">
-        <v>385.1431274414062</v>
+        <v>360.9369812011719</v>
       </c>
       <c r="M3" t="n">
-        <v>387.6586303710938</v>
+        <v>358.2354431152344</v>
       </c>
       <c r="N3" t="n">
-        <v>384.8436584472656</v>
+        <v>355.8496704101562</v>
       </c>
       <c r="O3" t="n">
-        <v>383.4552917480469</v>
+        <v>354.4384155273438</v>
       </c>
       <c r="P3" t="n">
-        <v>382.4814147949219</v>
+        <v>352.1369323730469</v>
       </c>
       <c r="Q3" t="n">
-        <v>379.9211120605469</v>
+        <v>349.9579772949219</v>
       </c>
       <c r="R3" t="n">
-        <v>374.5547485351562</v>
+        <v>349.0666198730469</v>
       </c>
       <c r="S3" t="n">
-        <v>370.497314453125</v>
+        <v>348.3289794921875</v>
       </c>
       <c r="T3" t="n">
-        <v>369.8017883300781</v>
+        <v>351.1478881835938</v>
       </c>
       <c r="U3" t="n">
-        <v>367.6554260253906</v>
+        <v>352.4930725097656</v>
       </c>
       <c r="V3" t="n">
-        <v>366.6549682617188</v>
+        <v>352.0971984863281</v>
       </c>
       <c r="W3" t="n">
-        <v>368.5285949707031</v>
+        <v>354.4599609375</v>
       </c>
       <c r="X3" t="n">
-        <v>369.9920654296875</v>
+        <v>352.86083984375</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.3309326171875</v>
+        <v>352.7461547851562</v>
       </c>
       <c r="Z3" t="n">
-        <v>373.0748291015625</v>
+        <v>351.9154052734375</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.1672058105469</v>
+        <v>350.6300964355469</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.681884765625</v>
+        <v>345.9966430664062</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.0620422363281</v>
+        <v>339.7258605957031</v>
       </c>
       <c r="AD3" t="n">
-        <v>372.3755187988281</v>
+        <v>337.7638244628906</v>
       </c>
       <c r="AE3" t="n">
-        <v>369.7044067382812</v>
+        <v>336.43408203125</v>
       </c>
       <c r="AF3" t="n">
-        <v>369.2132568359375</v>
+        <v>333.90380859375</v>
       </c>
       <c r="AG3" t="n">
-        <v>369.0832824707031</v>
+        <v>329.2992248535156</v>
       </c>
       <c r="AH3" t="n">
-        <v>370.6207580566406</v>
+        <v>325.3032836914062</v>
       </c>
       <c r="AI3" t="n">
-        <v>370.8756103515625</v>
+        <v>323.296142578125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>369.56689453125</v>
+        <v>322.6595764160156</v>
       </c>
       <c r="AK3" t="n">
-        <v>368.5457153320312</v>
+        <v>321.509521484375</v>
       </c>
       <c r="AL3" t="n">
-        <v>367.3822326660156</v>
+        <v>320.5131225585938</v>
       </c>
       <c r="AM3" t="n">
-        <v>366.6017456054688</v>
+        <v>319.9413146972656</v>
       </c>
       <c r="AN3" t="n">
-        <v>366.2434997558594</v>
+        <v>319.2815246582031</v>
       </c>
       <c r="AO3" t="n">
-        <v>366.2518005371094</v>
+        <v>318.8057556152344</v>
       </c>
       <c r="AP3" t="n">
-        <v>367.2373046875</v>
+        <v>318.7879028320312</v>
       </c>
       <c r="AQ3" t="n">
-        <v>369.3843688964844</v>
+        <v>319.0343933105469</v>
       </c>
       <c r="AR3" t="n">
-        <v>370.8381042480469</v>
+        <v>321.4435119628906</v>
       </c>
       <c r="AS3" t="n">
-        <v>370.5031433105469</v>
+        <v>323.10009765625</v>
       </c>
       <c r="AT3" t="n">
-        <v>370.2295227050781</v>
+        <v>324.9950866699219</v>
       </c>
       <c r="AU3" t="n">
-        <v>369.9762573242188</v>
+        <v>324.9278564453125</v>
       </c>
       <c r="AV3" t="n">
-        <v>369.6545104980469</v>
+        <v>324.2763366699219</v>
       </c>
       <c r="AW3" t="n">
-        <v>369.1897888183594</v>
+        <v>323.2147827148438</v>
       </c>
       <c r="AX3" t="n">
-        <v>369.1890563964844</v>
+        <v>322.5372619628906</v>
       </c>
       <c r="AY3" t="n">
-        <v>369.3466796875</v>
+        <v>322.1468811035156</v>
       </c>
       <c r="AZ3" t="n">
-        <v>369.2345275878906</v>
+        <v>321.6528015136719</v>
       </c>
       <c r="BA3" t="n">
-        <v>369.408203125</v>
+        <v>321.4743347167969</v>
       </c>
       <c r="BB3" t="n">
-        <v>369.9595031738281</v>
+        <v>320.7285766601562</v>
       </c>
       <c r="BC3" t="n">
-        <v>368.9819641113281</v>
+        <v>319.7156372070312</v>
       </c>
       <c r="BD3" t="n">
-        <v>369.0132141113281</v>
+        <v>319.0401916503906</v>
       </c>
       <c r="BE3" t="n">
-        <v>368.9190673828125</v>
+        <v>317.9265747070312</v>
       </c>
       <c r="BF3" t="n">
-        <v>368.8382873535156</v>
+        <v>317.0240173339844</v>
       </c>
       <c r="BG3" t="n">
-        <v>368.8324279785156</v>
+        <v>314.8782348632812</v>
       </c>
       <c r="BH3" t="n">
-        <v>368.8048706054688</v>
+        <v>312.0501708984375</v>
       </c>
       <c r="BI3" t="n">
-        <v>369.0527954101562</v>
+        <v>312.8382873535156</v>
       </c>
       <c r="BJ3" t="n">
-        <v>369.5280456542969</v>
+        <v>315.2648010253906</v>
       </c>
       <c r="BK3" t="n">
-        <v>370.0868530273438</v>
+        <v>313.6864929199219</v>
       </c>
       <c r="BL3" t="n">
-        <v>370.4995422363281</v>
+        <v>314.5542907714844</v>
       </c>
       <c r="BM3" t="n">
-        <v>370.5715026855469</v>
+        <v>313.6636352539062</v>
       </c>
       <c r="BN3" t="n">
-        <v>370.7143249511719</v>
+        <v>312.7994995117188</v>
       </c>
       <c r="BO3" t="n">
-        <v>370.4054260253906</v>
+        <v>312.3902282714844</v>
       </c>
       <c r="BP3" t="n">
-        <v>370.1631164550781</v>
+        <v>311.6381225585938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>370.2707824707031</v>
+        <v>310.1979370117188</v>
       </c>
       <c r="BR3" t="n">
-        <v>370.3800659179688</v>
+        <v>308.5071105957031</v>
       </c>
       <c r="BS3" t="n">
-        <v>370.5419311523438</v>
+        <v>308.6360168457031</v>
       </c>
       <c r="BT3" t="n">
-        <v>370.5534973144531</v>
+        <v>308.836669921875</v>
       </c>
       <c r="BU3" t="n">
-        <v>370.5754089355469</v>
+        <v>309.2839660644531</v>
       </c>
       <c r="BV3" t="n">
-        <v>370.6629638671875</v>
+        <v>309.3532104492188</v>
       </c>
       <c r="BW3" t="n">
-        <v>370.7503051757812</v>
+        <v>309.7398681640625</v>
       </c>
       <c r="BX3" t="n">
-        <v>370.9245910644531</v>
+        <v>310.6698303222656</v>
       </c>
       <c r="BY3" t="n">
-        <v>371.2010803222656</v>
+        <v>312.898193359375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>371.5847778320312</v>
+        <v>315.3631896972656</v>
       </c>
       <c r="CA3" t="n">
-        <v>372.2999572753906</v>
+        <v>314.7351684570312</v>
       </c>
       <c r="CB3" t="n">
-        <v>372.4828491210938</v>
+        <v>314.7814331054688</v>
       </c>
       <c r="CC3" t="n">
-        <v>372.552978515625</v>
+        <v>314.7898559570312</v>
       </c>
       <c r="CD3" t="n">
-        <v>372.5820007324219</v>
+        <v>314.1773376464844</v>
       </c>
       <c r="CE3" t="n">
-        <v>372.6138916015625</v>
+        <v>313.8795166015625</v>
       </c>
       <c r="CF3" t="n">
-        <v>372.6419677734375</v>
+        <v>313.4496459960938</v>
       </c>
       <c r="CG3" t="n">
-        <v>372.6502075195312</v>
+        <v>314.2792053222656</v>
       </c>
       <c r="CH3" t="n">
-        <v>372.6574401855469</v>
+        <v>313.5924072265625</v>
       </c>
       <c r="CI3" t="n">
-        <v>372.6431579589844</v>
+        <v>313.7984924316406</v>
       </c>
       <c r="CJ3" t="n">
-        <v>372.5818176269531</v>
+        <v>314.1166076660156</v>
       </c>
       <c r="CK3" t="n">
-        <v>372.5252075195312</v>
+        <v>314.7540893554688</v>
       </c>
       <c r="CL3" t="n">
-        <v>372.4747314453125</v>
+        <v>315.2745361328125</v>
       </c>
       <c r="CM3" t="n">
-        <v>372.4037780761719</v>
+        <v>315.2724304199219</v>
       </c>
       <c r="CN3" t="n">
-        <v>372.3220520019531</v>
+        <v>315.3168334960938</v>
       </c>
       <c r="CO3" t="n">
-        <v>372.22216796875</v>
+        <v>315.2477111816406</v>
       </c>
       <c r="CP3" t="n">
-        <v>372.1464538574219</v>
+        <v>315.118896484375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>372.0572204589844</v>
+        <v>315.216064453125</v>
       </c>
       <c r="CR3" t="n">
-        <v>372.0546569824219</v>
+        <v>315.0641479492188</v>
       </c>
       <c r="CS3" t="n">
-        <v>372.0791320800781</v>
+        <v>314.7481079101562</v>
       </c>
       <c r="CT3" t="n">
-        <v>372.1184692382812</v>
+        <v>314.8175964355469</v>
       </c>
       <c r="CU3" t="n">
-        <v>372.130615234375</v>
+        <v>314.7853698730469</v>
       </c>
       <c r="CV3" t="n">
-        <v>372.1783447265625</v>
+        <v>314.7744750976562</v>
       </c>
       <c r="CW3" t="n">
-        <v>372.2315673828125</v>
+        <v>314.6578979492188</v>
       </c>
       <c r="CX3" t="n">
-        <v>372.2918701171875</v>
+        <v>314.5672302246094</v>
       </c>
       <c r="CY3" t="n">
-        <v>372.3172607421875</v>
+        <v>314.5699462890625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>372.39208984375</v>
+        <v>314.6408386230469</v>
       </c>
       <c r="DA3" t="n">
-        <v>372.4436645507812</v>
+        <v>314.6536865234375</v>
       </c>
       <c r="DB3" t="n">
-        <v>372.4144592285156</v>
+        <v>314.1371154785156</v>
       </c>
       <c r="DC3" t="n">
-        <v>372.424072265625</v>
+        <v>314.1580810546875</v>
       </c>
       <c r="DD3" t="n">
-        <v>372.5451965332031</v>
+        <v>314.2236633300781</v>
       </c>
       <c r="DE3" t="n">
-        <v>372.6549377441406</v>
+        <v>314.6520080566406</v>
       </c>
       <c r="DF3" t="n">
-        <v>372.65087890625</v>
+        <v>314.6071472167969</v>
       </c>
       <c r="DG3" t="n">
-        <v>372.684814453125</v>
+        <v>314.6931762695312</v>
       </c>
       <c r="DH3" t="n">
-        <v>372.7422485351562</v>
+        <v>314.78857421875</v>
       </c>
       <c r="DI3" t="n">
-        <v>372.7315673828125</v>
+        <v>315.0451049804688</v>
       </c>
       <c r="DJ3" t="n">
-        <v>372.5847473144531</v>
+        <v>314.8498840332031</v>
       </c>
       <c r="DK3" t="n">
-        <v>372.564453125</v>
+        <v>314.935791015625</v>
       </c>
       <c r="DL3" t="n">
-        <v>373.0367431640625</v>
+        <v>314.9224243164062</v>
       </c>
       <c r="DM3" t="n">
-        <v>373.5249938964844</v>
+        <v>314.9083251953125</v>
       </c>
       <c r="DN3" t="n">
-        <v>374.0802917480469</v>
+        <v>314.9152221679688</v>
       </c>
       <c r="DO3" t="n">
-        <v>374.0592041015625</v>
+        <v>314.9122314453125</v>
       </c>
       <c r="DP3" t="n">
-        <v>373.7260131835938</v>
+        <v>314.9083251953125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>373.3930358886719</v>
+        <v>314.7884826660156</v>
       </c>
       <c r="DR3" t="n">
-        <v>373.0453491210938</v>
+        <v>314.6885070800781</v>
       </c>
       <c r="DS3" t="n">
-        <v>373.1376953125</v>
+        <v>314.6268005371094</v>
       </c>
       <c r="DT3" t="n">
-        <v>373.322998046875</v>
+        <v>314.5958251953125</v>
       </c>
       <c r="DU3" t="n">
-        <v>373.4222412109375</v>
+        <v>314.5636291503906</v>
       </c>
       <c r="DV3" t="n">
-        <v>373.19921875</v>
+        <v>314.2165832519531</v>
       </c>
       <c r="DW3" t="n">
-        <v>373.1683044433594</v>
+        <v>314.2291564941406</v>
       </c>
       <c r="DX3" t="n">
-        <v>373.1826171875</v>
+        <v>314.2651977539062</v>
       </c>
       <c r="DY3" t="n">
-        <v>373.0867919921875</v>
+        <v>314.2895202636719</v>
       </c>
       <c r="DZ3" t="n">
-        <v>373.1701354980469</v>
+        <v>314.3065490722656</v>
       </c>
       <c r="EA3" t="n">
-        <v>373.2224731445312</v>
+        <v>314.3493347167969</v>
       </c>
       <c r="EB3" t="n">
-        <v>373.26025390625</v>
+        <v>314.7511596679688</v>
       </c>
       <c r="EC3" t="n">
-        <v>373.3155517578125</v>
+        <v>314.7064819335938</v>
       </c>
       <c r="ED3" t="n">
-        <v>373.5004272460938</v>
+        <v>314.6112365722656</v>
       </c>
       <c r="EE3" t="n">
-        <v>373.5744323730469</v>
+        <v>314.5702819824219</v>
       </c>
       <c r="EF3" t="n">
-        <v>373.5185546875</v>
+        <v>314.5328369140625</v>
       </c>
       <c r="EG3" t="n">
-        <v>373.4685974121094</v>
+        <v>314.4532165527344</v>
       </c>
       <c r="EH3" t="n">
-        <v>373.5112915039062</v>
+        <v>314.4505615234375</v>
       </c>
       <c r="EI3" t="n">
-        <v>373.6193237304688</v>
+        <v>314.531494140625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>373.6345520019531</v>
+        <v>314.5432739257812</v>
       </c>
       <c r="EK3" t="n">
-        <v>373.6670837402344</v>
+        <v>314.533203125</v>
       </c>
       <c r="EL3" t="n">
-        <v>373.7254333496094</v>
+        <v>314.5431823730469</v>
       </c>
       <c r="EM3" t="n">
-        <v>373.7559509277344</v>
+        <v>314.5599060058594</v>
       </c>
       <c r="EN3" t="n">
-        <v>373.7522277832031</v>
+        <v>314.5662536621094</v>
       </c>
       <c r="EO3" t="n">
-        <v>373.67236328125</v>
+        <v>314.5660095214844</v>
       </c>
       <c r="EP3" t="n">
-        <v>373.8665466308594</v>
+        <v>314.6080322265625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>374.1199340820312</v>
+        <v>314.6229858398438</v>
       </c>
       <c r="ER3" t="n">
-        <v>374.2642211914062</v>
+        <v>314.6347961425781</v>
       </c>
       <c r="ES3" t="n">
-        <v>374.2641296386719</v>
+        <v>314.6298522949219</v>
       </c>
       <c r="ET3" t="n">
-        <v>374.39208984375</v>
+        <v>314.6243896484375</v>
       </c>
       <c r="EU3" t="n">
-        <v>374.4803771972656</v>
+        <v>314.5590209960938</v>
       </c>
       <c r="EV3" t="n">
-        <v>374.5119323730469</v>
+        <v>314.5843505859375</v>
       </c>
       <c r="EW3" t="n">
-        <v>374.6427307128906</v>
+        <v>314.6061096191406</v>
       </c>
       <c r="EX3" t="n">
-        <v>374.5481567382812</v>
+        <v>314.5596313476562</v>
       </c>
       <c r="EY3" t="n">
-        <v>374.4416198730469</v>
+        <v>314.7118530273438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>374.2733764648438</v>
+        <v>314.8646545410156</v>
       </c>
       <c r="FA3" t="n">
-        <v>374.1220092773438</v>
+        <v>314.861572265625</v>
       </c>
       <c r="FB3" t="n">
-        <v>373.9660034179688</v>
+        <v>314.5282592773438</v>
       </c>
       <c r="FC3" t="n">
-        <v>373.8235778808594</v>
+        <v>314.4216918945312</v>
       </c>
       <c r="FD3" t="n">
-        <v>373.8110046386719</v>
+        <v>314.4487609863281</v>
       </c>
       <c r="FE3" t="n">
-        <v>373.8290100097656</v>
+        <v>314.4550476074219</v>
       </c>
       <c r="FF3" t="n">
-        <v>373.8690795898438</v>
+        <v>314.2649536132812</v>
       </c>
       <c r="FG3" t="n">
-        <v>373.9418334960938</v>
+        <v>314.2943115234375</v>
       </c>
       <c r="FH3" t="n">
-        <v>373.9826965332031</v>
+        <v>314.3409423828125</v>
       </c>
       <c r="FI3" t="n">
-        <v>374.0469055175781</v>
+        <v>314.3386840820312</v>
       </c>
       <c r="FJ3" t="n">
-        <v>374.0899353027344</v>
+        <v>314.3403930664062</v>
       </c>
       <c r="FK3" t="n">
-        <v>374.1063537597656</v>
+        <v>314.3409423828125</v>
       </c>
       <c r="FL3" t="n">
-        <v>374.0900268554688</v>
+        <v>314.3615417480469</v>
       </c>
       <c r="FM3" t="n">
-        <v>374.0135803222656</v>
+        <v>314.5313720703125</v>
       </c>
       <c r="FN3" t="n">
-        <v>373.9846801757812</v>
+        <v>314.5634460449219</v>
       </c>
       <c r="FO3" t="n">
-        <v>374.0411682128906</v>
+        <v>314.619384765625</v>
       </c>
       <c r="FP3" t="n">
-        <v>374.1358947753906</v>
+        <v>314.6146240234375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>374.2079467773438</v>
+        <v>314.7710571289062</v>
       </c>
       <c r="FR3" t="n">
-        <v>374.2840881347656</v>
+        <v>315.0140991210938</v>
       </c>
       <c r="FS3" t="n">
-        <v>374.3581848144531</v>
+        <v>314.9860229492188</v>
       </c>
       <c r="FT3" t="n">
-        <v>374.2657470703125</v>
+        <v>314.9983520507812</v>
       </c>
       <c r="FU3" t="n">
-        <v>374.137939453125</v>
+        <v>315.1314086914062</v>
       </c>
       <c r="FV3" t="n">
-        <v>374.0863647460938</v>
+        <v>315.134521484375</v>
       </c>
       <c r="FW3" t="n">
-        <v>373.9569396972656</v>
+        <v>314.8732604980469</v>
       </c>
       <c r="FX3" t="n">
-        <v>373.9508361816406</v>
+        <v>314.8915100097656</v>
       </c>
       <c r="FY3" t="n">
-        <v>374.2682189941406</v>
+        <v>314.9122314453125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>374.5009765625</v>
+        <v>314.8941040039062</v>
       </c>
       <c r="GA3" t="n">
-        <v>374.642822265625</v>
+        <v>314.8217163085938</v>
       </c>
       <c r="GB3" t="n">
-        <v>374.4924621582031</v>
+        <v>314.4804382324219</v>
       </c>
       <c r="GC3" t="n">
-        <v>374.1268310546875</v>
+        <v>314.5985412597656</v>
       </c>
       <c r="GD3" t="n">
-        <v>373.7182006835938</v>
+        <v>314.6163330078125</v>
       </c>
       <c r="GE3" t="n">
-        <v>373.6886291503906</v>
+        <v>314.6175537109375</v>
       </c>
       <c r="GF3" t="n">
-        <v>373.7254028320312</v>
+        <v>314.598388671875</v>
       </c>
       <c r="GG3" t="n">
-        <v>373.7263488769531</v>
+        <v>314.4934997558594</v>
       </c>
       <c r="GH3" t="n">
-        <v>373.7228698730469</v>
+        <v>314.4966735839844</v>
       </c>
       <c r="GI3" t="n">
-        <v>373.7559814453125</v>
+        <v>314.5350646972656</v>
       </c>
       <c r="GJ3" t="n">
-        <v>373.8888244628906</v>
+        <v>314.896484375</v>
       </c>
       <c r="GK3" t="n">
-        <v>373.9088745117188</v>
+        <v>314.588623046875</v>
       </c>
       <c r="GL3" t="n">
-        <v>373.8539123535156</v>
+        <v>314.0937194824219</v>
       </c>
       <c r="GM3" t="n">
-        <v>373.6665954589844</v>
+        <v>314.0901489257812</v>
       </c>
       <c r="GN3" t="n">
-        <v>373.6369323730469</v>
+        <v>314.0699157714844</v>
       </c>
       <c r="GO3" t="n">
-        <v>373.6711120605469</v>
+        <v>314.0540161132812</v>
       </c>
       <c r="GP3" t="n">
-        <v>373.6701354980469</v>
+        <v>314.0379638671875</v>
       </c>
       <c r="GQ3" t="n">
-        <v>373.6080322265625</v>
+        <v>314.0269470214844</v>
       </c>
       <c r="GR3" t="n">
-        <v>373.602294921875</v>
+        <v>314.0270385742188</v>
       </c>
       <c r="GS3" t="n">
-        <v>373.4666137695312</v>
+        <v>314.0513305664062</v>
       </c>
       <c r="GT3" t="n">
-        <v>373.4818115234375</v>
+        <v>314.0504455566406</v>
       </c>
       <c r="GU3" t="n">
-        <v>373.5265502929688</v>
+        <v>314.0856018066406</v>
       </c>
       <c r="GV3" t="n">
-        <v>373.5047607421875</v>
+        <v>314.1108703613281</v>
       </c>
       <c r="GW3" t="n">
-        <v>373.5986938476562</v>
+        <v>314.1476135253906</v>
       </c>
       <c r="GX3" t="n">
-        <v>373.7191772460938</v>
+        <v>314.1365051269531</v>
       </c>
       <c r="GY3" t="n">
-        <v>373.9859313964844</v>
+        <v>314.00732421875</v>
       </c>
       <c r="GZ3" t="n">
-        <v>374.2942504882812</v>
+        <v>313.5731201171875</v>
       </c>
       <c r="HA3" t="n">
-        <v>374.6220397949219</v>
+        <v>313.7996520996094</v>
       </c>
       <c r="HB3" t="n">
-        <v>374.6281127929688</v>
+        <v>313.8830871582031</v>
       </c>
       <c r="HC3" t="n">
-        <v>374.6784362792969</v>
+        <v>313.8367614746094</v>
       </c>
       <c r="HD3" t="n">
-        <v>374.7113647460938</v>
+        <v>313.8201904296875</v>
       </c>
       <c r="HE3" t="n">
-        <v>374.7488098144531</v>
+        <v>313.8040161132812</v>
       </c>
       <c r="HF3" t="n">
-        <v>374.9579772949219</v>
+        <v>313.5512390136719</v>
       </c>
       <c r="HG3" t="n">
-        <v>375.3179626464844</v>
+        <v>313.7510681152344</v>
       </c>
       <c r="HH3" t="n">
-        <v>375.3691101074219</v>
+        <v>314.5493774414062</v>
       </c>
       <c r="HI3" t="n">
-        <v>375.1007385253906</v>
+        <v>314.5196533203125</v>
       </c>
       <c r="HJ3" t="n">
-        <v>374.8580322265625</v>
+        <v>314.5608215332031</v>
       </c>
       <c r="HK3" t="n">
-        <v>374.8200073242188</v>
+        <v>314.58642578125</v>
       </c>
       <c r="HL3" t="n">
-        <v>374.8305969238281</v>
+        <v>314.5831298828125</v>
       </c>
       <c r="HM3" t="n">
-        <v>374.8813781738281</v>
+        <v>314.5699157714844</v>
       </c>
       <c r="HN3" t="n">
-        <v>374.7032775878906</v>
+        <v>314.6175231933594</v>
       </c>
       <c r="HO3" t="n">
-        <v>374.6024780273438</v>
+        <v>314.6934814453125</v>
       </c>
       <c r="HP3" t="n">
-        <v>374.61865234375</v>
+        <v>314.6737670898438</v>
       </c>
       <c r="HQ3" t="n">
-        <v>374.6421508789062</v>
+        <v>314.6613159179688</v>
       </c>
       <c r="HR3" t="n">
-        <v>374.5982360839844</v>
+        <v>314.6298217773438</v>
       </c>
       <c r="HS3" t="n">
-        <v>374.5438232421875</v>
+        <v>314.5512084960938</v>
       </c>
       <c r="HT3" t="n">
-        <v>374.2900695800781</v>
+        <v>314.5464172363281</v>
       </c>
       <c r="HU3" t="n">
-        <v>374.1856994628906</v>
+        <v>314.5298767089844</v>
       </c>
       <c r="HV3" t="n">
-        <v>374.2384643554688</v>
+        <v>314.749755859375</v>
       </c>
       <c r="HW3" t="n">
-        <v>374.19677734375</v>
+        <v>314.5360412597656</v>
       </c>
       <c r="HX3" t="n">
-        <v>374.1927795410156</v>
+        <v>314.6361694335938</v>
       </c>
       <c r="HY3" t="n">
-        <v>374.1407470703125</v>
+        <v>314.5652770996094</v>
       </c>
       <c r="HZ3" t="n">
-        <v>374.1549682617188</v>
+        <v>314.4949340820312</v>
       </c>
       <c r="IA3" t="n">
-        <v>374.009521484375</v>
+        <v>314.4656066894531</v>
       </c>
       <c r="IB3" t="n">
-        <v>373.9281921386719</v>
+        <v>313.8699951171875</v>
       </c>
       <c r="IC3" t="n">
-        <v>373.8068542480469</v>
+        <v>314.02734375</v>
       </c>
       <c r="ID3" t="n">
-        <v>373.6840209960938</v>
+        <v>314.4455261230469</v>
       </c>
       <c r="IE3" t="n">
-        <v>373.7810668945312</v>
+        <v>313.7025451660156</v>
       </c>
       <c r="IF3" t="n">
-        <v>373.7688598632812</v>
+        <v>313.6832885742188</v>
       </c>
       <c r="IG3" t="n">
-        <v>373.7682189941406</v>
+        <v>313.7377624511719</v>
       </c>
       <c r="IH3" t="n">
-        <v>373.7767333984375</v>
+        <v>313.7331237792969</v>
       </c>
       <c r="II3" t="n">
-        <v>373.806884765625</v>
+        <v>313.6553039550781</v>
       </c>
       <c r="IJ3" t="n">
-        <v>373.8081359863281</v>
+        <v>313.6772766113281</v>
       </c>
       <c r="IK3" t="n">
-        <v>373.8183898925781</v>
+        <v>313.7140197753906</v>
       </c>
       <c r="IL3" t="n">
-        <v>373.8210754394531</v>
+        <v>313.6716003417969</v>
       </c>
       <c r="IM3" t="n">
-        <v>373.9111938476562</v>
+        <v>313.637939453125</v>
       </c>
       <c r="IN3" t="n">
-        <v>374.0454406738281</v>
+        <v>313.6221008300781</v>
       </c>
       <c r="IO3" t="n">
-        <v>374.0590515136719</v>
+        <v>313.7432861328125</v>
       </c>
       <c r="IP3" t="n">
-        <v>373.9630432128906</v>
+        <v>313.7531127929688</v>
       </c>
       <c r="IQ3" t="n">
-        <v>373.8162841796875</v>
+        <v>313.7486572265625</v>
       </c>
       <c r="IR3" t="n">
-        <v>373.5664367675781</v>
+        <v>313.7511901855469</v>
       </c>
       <c r="IS3" t="n">
-        <v>373.7857055664062</v>
+        <v>313.7637329101562</v>
       </c>
       <c r="IT3" t="n">
-        <v>373.7463073730469</v>
+        <v>313.7198181152344</v>
       </c>
       <c r="IU3" t="n">
-        <v>373.6259460449219</v>
+        <v>313.5359497070312</v>
       </c>
       <c r="IV3" t="n">
-        <v>373.739990234375</v>
+        <v>313.4373168945312</v>
       </c>
       <c r="IW3" t="n">
-        <v>373.8048706054688</v>
+        <v>313.5789794921875</v>
       </c>
       <c r="IX3" t="n">
-        <v>373.8450317382812</v>
+        <v>313.6653747558594</v>
       </c>
       <c r="IY3" t="n">
-        <v>373.9516906738281</v>
+        <v>313.7810974121094</v>
       </c>
       <c r="IZ3" t="n">
-        <v>373.9237060546875</v>
+        <v>313.8723449707031</v>
       </c>
       <c r="JA3" t="n">
-        <v>373.8704528808594</v>
+        <v>314.0328369140625</v>
       </c>
       <c r="JB3" t="n">
-        <v>373.8575439453125</v>
+        <v>314.0530700683594</v>
       </c>
       <c r="JC3" t="n">
-        <v>373.8519592285156</v>
+        <v>314.0728149414062</v>
       </c>
       <c r="JD3" t="n">
-        <v>373.8499755859375</v>
+        <v>314.0478820800781</v>
       </c>
       <c r="JE3" t="n">
-        <v>373.8500671386719</v>
+        <v>313.9368896484375</v>
       </c>
       <c r="JF3" t="n">
-        <v>373.8968505859375</v>
+        <v>314.1464538574219</v>
       </c>
       <c r="JG3" t="n">
-        <v>373.9317321777344</v>
+        <v>315.2701110839844</v>
       </c>
       <c r="JH3" t="n">
-        <v>374.0385437011719</v>
+        <v>315.1109619140625</v>
       </c>
       <c r="JI3" t="n">
-        <v>374.2316284179688</v>
+        <v>312.9476318359375</v>
       </c>
       <c r="JJ3" t="n">
-        <v>374.3442993164062</v>
+        <v>313.7860107421875</v>
       </c>
       <c r="JK3" t="n">
-        <v>374.3358154296875</v>
+        <v>313.3051147460938</v>
       </c>
       <c r="JL3" t="n">
-        <v>374.3196716308594</v>
+        <v>313.2224731445312</v>
       </c>
       <c r="JM3" t="n">
-        <v>374.314453125</v>
+        <v>313.7184753417969</v>
       </c>
       <c r="JN3" t="n">
-        <v>374.3115234375</v>
+        <v>313.7367858886719</v>
       </c>
       <c r="JO3" t="n">
-        <v>374.2035827636719</v>
+        <v>313.5048828125</v>
       </c>
       <c r="JP3" t="n">
-        <v>374.1289367675781</v>
+        <v>313.5718688964844</v>
       </c>
       <c r="JQ3" t="n">
-        <v>374.1605224609375</v>
+        <v>313.5688171386719</v>
       </c>
       <c r="JR3" t="n">
-        <v>374.3217468261719</v>
+        <v>313.5213012695312</v>
       </c>
       <c r="JS3" t="n">
-        <v>374.5224914550781</v>
+        <v>313.5855407714844</v>
       </c>
       <c r="JT3" t="n">
-        <v>374.6601867675781</v>
+        <v>313.6741638183594</v>
       </c>
       <c r="JU3" t="n">
-        <v>374.5742797851562</v>
+        <v>314.119140625</v>
       </c>
       <c r="JV3" t="n">
-        <v>374.6358032226562</v>
+        <v>314.2294311523438</v>
       </c>
       <c r="JW3" t="n">
-        <v>374.627685546875</v>
+        <v>314.3486633300781</v>
       </c>
       <c r="JX3" t="n">
-        <v>374.5066833496094</v>
+        <v>314.3950500488281</v>
       </c>
       <c r="JY3" t="n">
-        <v>373.482177734375</v>
+        <v>314.4448547363281</v>
       </c>
       <c r="JZ3" t="n">
-        <v>373.78369140625</v>
+        <v>314.4333190917969</v>
       </c>
       <c r="KA3" t="n">
-        <v>372.534912109375</v>
+        <v>314.4450073242188</v>
       </c>
       <c r="KB3" t="n">
-        <v>372.5176086425781</v>
+        <v>314.8158569335938</v>
       </c>
       <c r="KC3" t="n">
-        <v>372.5052490234375</v>
+        <v>314.654052734375</v>
       </c>
       <c r="KD3" t="n">
-        <v>373.2087707519531</v>
+        <v>314.6163635253906</v>
       </c>
       <c r="KE3" t="n">
-        <v>372.7959289550781</v>
+        <v>314.5813293457031</v>
       </c>
       <c r="KF3" t="n">
-        <v>372.2598571777344</v>
+        <v>314.4163818359375</v>
       </c>
       <c r="KG3" t="n">
-        <v>372.3458862304688</v>
+        <v>314.4189147949219</v>
       </c>
       <c r="KH3" t="n">
-        <v>368.8008422851562</v>
+        <v>314.53515625</v>
       </c>
       <c r="KI3" t="n">
-        <v>368.732177734375</v>
+        <v>314.2845764160156</v>
       </c>
       <c r="KJ3" t="n">
-        <v>367.8680114746094</v>
+        <v>314.2607727050781</v>
       </c>
       <c r="KK3" t="n">
-        <v>367.8546752929688</v>
+        <v>314.5096130371094</v>
       </c>
       <c r="KL3" t="n">
-        <v>371.5331420898438</v>
+        <v>314.7166748046875</v>
       </c>
       <c r="KM3" t="n">
-        <v>376.5382385253906</v>
+        <v>314.5543823242188</v>
       </c>
       <c r="KN3" t="n">
-        <v>382.0634765625</v>
+        <v>314.503173828125</v>
       </c>
       <c r="KO3" t="n">
-        <v>378.7048950195312</v>
+        <v>314.0763854980469</v>
       </c>
       <c r="KP3" t="n">
-        <v>374.3617248535156</v>
+        <v>313.67626953125</v>
       </c>
       <c r="KQ3" t="n">
-        <v>376.5397338867188</v>
+        <v>315.6397094726562</v>
       </c>
       <c r="KR3" t="n">
-        <v>376.2589416503906</v>
+        <v>317.3963623046875</v>
       </c>
       <c r="KS3" t="n">
-        <v>372.1963500976562</v>
+        <v>318.7571716308594</v>
       </c>
       <c r="KT3" t="n">
-        <v>375.6315612792969</v>
+        <v>320.2813720703125</v>
       </c>
       <c r="KU3" t="n">
-        <v>382.0260925292969</v>
+        <v>324.4412536621094</v>
       </c>
       <c r="KV3" t="n">
-        <v>388.8502197265625</v>
+        <v>337.9570007324219</v>
       </c>
       <c r="KW3" t="n">
-        <v>396.6831970214844</v>
+        <v>343.9025573730469</v>
       </c>
       <c r="KX3" t="n">
-        <v>407.2805786132812</v>
+        <v>347.000244140625</v>
       </c>
       <c r="KY3" t="n">
-        <v>407.1774291992188</v>
+        <v>347.5044250488281</v>
       </c>
       <c r="KZ3" t="n">
-        <v>408.0243530273438</v>
+        <v>348.6793823242188</v>
       </c>
       <c r="LA3" t="n">
-        <v>409.4328002929688</v>
+        <v>356.3193664550781</v>
       </c>
       <c r="LB3" t="n">
-        <v>413.6138305664062</v>
+        <v>363.9455871582031</v>
       </c>
       <c r="LC3" t="n">
-        <v>416.1587524414062</v>
+        <v>374.0566711425781</v>
       </c>
       <c r="LD3" t="n">
-        <v>417.0275573730469</v>
+        <v>389.7615356445312</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>404.5736999511719</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>415.276611328125</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>424.6047668457031</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>452.0613403320312</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>472.7100219726562</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>511.841064453125</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>526.1034545898438</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>573.1656494140625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>648.8828735351562</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>619.70068359375</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>620.524169921875</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>638.0670166015625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>674.2689208984375</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>682.6165771484375</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>739.8033447265625</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>639.7102661132812</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>640.0682373046875</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>643.2007446289062</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>643.8981323242188</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>590.9654541015625</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>591.640380859375</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>593.147705078125</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>607.3970336914062</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>638.2743530273438</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>709.7210083007812</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>711.5537109375</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>791.1841430664062</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>652.8565063476562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1035.3056640625</v>
+        <v>796.8727416992188</v>
       </c>
       <c r="B4" t="n">
-        <v>1021.543701171875</v>
+        <v>820.2067260742188</v>
       </c>
       <c r="C4" t="n">
-        <v>1019.28466796875</v>
+        <v>850.147216796875</v>
       </c>
       <c r="D4" t="n">
-        <v>1031.677001953125</v>
+        <v>883.1439819335938</v>
       </c>
       <c r="E4" t="n">
-        <v>1060.971435546875</v>
+        <v>924.2164306640625</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.07763671875</v>
+        <v>954.6326293945312</v>
       </c>
       <c r="G4" t="n">
-        <v>1108.552368164062</v>
+        <v>983.5200805664062</v>
       </c>
       <c r="H4" t="n">
-        <v>1120.811401367188</v>
+        <v>1029.153076171875</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.537353515625</v>
+        <v>1063.988891601562</v>
       </c>
       <c r="J4" t="n">
-        <v>1167.230224609375</v>
+        <v>1089.5390625</v>
       </c>
       <c r="K4" t="n">
-        <v>1205.174560546875</v>
+        <v>1115.954467773438</v>
       </c>
       <c r="L4" t="n">
-        <v>1233.18017578125</v>
+        <v>1140.546020507812</v>
       </c>
       <c r="M4" t="n">
-        <v>1267.095947265625</v>
+        <v>1164.42822265625</v>
       </c>
       <c r="N4" t="n">
-        <v>1304.158203125</v>
+        <v>1195.36669921875</v>
       </c>
       <c r="O4" t="n">
-        <v>1331.8974609375</v>
+        <v>1217.000366210938</v>
       </c>
       <c r="P4" t="n">
-        <v>1355.473022460938</v>
+        <v>1244.5263671875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1374.928466796875</v>
+        <v>1273.010498046875</v>
       </c>
       <c r="R4" t="n">
-        <v>1391.522827148438</v>
+        <v>1292.833984375</v>
       </c>
       <c r="S4" t="n">
-        <v>1417.649780273438</v>
+        <v>1326.980224609375</v>
       </c>
       <c r="T4" t="n">
-        <v>1438.115966796875</v>
+        <v>1356.119995117188</v>
       </c>
       <c r="U4" t="n">
-        <v>1461.526245117188</v>
+        <v>1390.31884765625</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.356689453125</v>
+        <v>1419.853149414062</v>
       </c>
       <c r="W4" t="n">
-        <v>1509.5078125</v>
+        <v>1451.746704101562</v>
       </c>
       <c r="X4" t="n">
-        <v>1537.313720703125</v>
+        <v>1495.583862304688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1565.118041992188</v>
+        <v>1532.1044921875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1592.376342773438</v>
+        <v>1575.460083007812</v>
       </c>
       <c r="AA4" t="n">
-        <v>1626.06689453125</v>
+        <v>1619.215698242188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1659.656616210938</v>
+        <v>1664.547729492188</v>
       </c>
       <c r="AC4" t="n">
-        <v>1690.284790039062</v>
+        <v>1693.647094726562</v>
       </c>
       <c r="AD4" t="n">
-        <v>1731.6748046875</v>
+        <v>1725.471435546875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1760.757202148438</v>
+        <v>1756.787719726562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1781.3037109375</v>
+        <v>1782.937622070312</v>
       </c>
       <c r="AG4" t="n">
-        <v>1796.56494140625</v>
+        <v>1805.152709960938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1813.98828125</v>
+        <v>1828.578491210938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1829.536376953125</v>
+        <v>1846.694458007812</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1851.073852539062</v>
+        <v>1862.588623046875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1861.033569335938</v>
+        <v>1893.994384765625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1878.836791992188</v>
+        <v>1918.643676757812</v>
       </c>
       <c r="AM4" t="n">
-        <v>1894.364868164062</v>
+        <v>1934.450073242188</v>
       </c>
       <c r="AN4" t="n">
-        <v>1903.0517578125</v>
+        <v>1950.806640625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1912.91162109375</v>
+        <v>1965.5859375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1917.217895507812</v>
+        <v>1980.879760742188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1923.699096679688</v>
+        <v>2002.750732421875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1927.228759765625</v>
+        <v>2019.591674804688</v>
       </c>
       <c r="AS4" t="n">
-        <v>1933.633666992188</v>
+        <v>2042.297241210938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1938.250366210938</v>
+        <v>2064.44482421875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1943.496704101562</v>
+        <v>2087.64013671875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1947.65966796875</v>
+        <v>2100.48486328125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1953.843017578125</v>
+        <v>2110.22314453125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1954.67041015625</v>
+        <v>2126.519287109375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1956.89013671875</v>
+        <v>2141.37744140625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1960.237548828125</v>
+        <v>2161.957275390625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1964.873413085938</v>
+        <v>2168.768798828125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1970.952880859375</v>
+        <v>2180.54541015625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1977.030395507812</v>
+        <v>2198.88671875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1977.452270507812</v>
+        <v>2208.789306640625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1978.746826171875</v>
+        <v>2220.4482421875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1980.202270507812</v>
+        <v>2225.8837890625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1981.356567382812</v>
+        <v>2236.87109375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1982.6708984375</v>
+        <v>2238.93603515625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1982.669921875</v>
+        <v>2242.316650390625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1982.594604492188</v>
+        <v>2253.67822265625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1982.670532226562</v>
+        <v>2266.739501953125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1983.41455078125</v>
+        <v>2276.703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1984.12841796875</v>
+        <v>2280.3125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1984.723510742188</v>
+        <v>2280.439208984375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1984.925659179688</v>
+        <v>2281.3427734375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1985.007446289062</v>
+        <v>2282.095458984375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1985.072021484375</v>
+        <v>2283.39697265625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1985.14306640625</v>
+        <v>2285.710205078125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1984.989135742188</v>
+        <v>2287.657958984375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1984.745849609375</v>
+        <v>2286.857666015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1984.440307617188</v>
+        <v>2286.178466796875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1983.923217773438</v>
+        <v>2286.671630859375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1983.360229492188</v>
+        <v>2287.16943359375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1982.18603515625</v>
+        <v>2287.98486328125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1980.446655273438</v>
+        <v>2289.287109375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1977.825927734375</v>
+        <v>2291.23583984375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1970.678955078125</v>
+        <v>2294.2724609375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1968.398559570312</v>
+        <v>2296.827880859375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1968.426635742188</v>
+        <v>2296.03564453125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1968.20703125</v>
+        <v>2294.09814453125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1968.015014648438</v>
+        <v>2292.873291015625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1967.755615234375</v>
+        <v>2291.605712890625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1967.806884765625</v>
+        <v>2291.34423828125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1967.77197265625</v>
+        <v>2291.888671875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1967.80078125</v>
+        <v>2291.92236328125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1967.818115234375</v>
+        <v>2291.88037109375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1967.832885742188</v>
+        <v>2291.300048828125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1967.845825195312</v>
+        <v>2291.085693359375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1967.836791992188</v>
+        <v>2291.274169921875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1967.85693359375</v>
+        <v>2291.41650390625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1967.942626953125</v>
+        <v>2291.605712890625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1967.953002929688</v>
+        <v>2292.008544921875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1967.96875</v>
+        <v>2291.890380859375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1968.083618164062</v>
+        <v>2291.75244140625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1968.14501953125</v>
+        <v>2290.787353515625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1968.407470703125</v>
+        <v>2290.62158203125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1968.764038085938</v>
+        <v>2290.494140625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1968.97021484375</v>
+        <v>2290.42041015625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1969.1875</v>
+        <v>2290.314208984375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1969.532836914062</v>
+        <v>2290.296875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1969.855712890625</v>
+        <v>2290.263671875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1970.136962890625</v>
+        <v>2290.45458984375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1970.637817382812</v>
+        <v>2290.61669921875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1971.68896484375</v>
+        <v>2290.82861328125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1972.1484375</v>
+        <v>2290.748779296875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1972.095947265625</v>
+        <v>2290.7177734375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1972.154174804688</v>
+        <v>2290.62744140625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1972.110717773438</v>
+        <v>2290.645263671875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1972.0068359375</v>
+        <v>2290.68115234375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1971.868408203125</v>
+        <v>2290.814208984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1971.871704101562</v>
+        <v>2291.10302734375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1972.015747070312</v>
+        <v>2291.473388671875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1972.472412109375</v>
+        <v>2292.090576171875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1972.854614257812</v>
+        <v>2292.080810546875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1973.114013671875</v>
+        <v>2292.196044921875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1973.343872070312</v>
+        <v>2292.213623046875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1973.287475585938</v>
+        <v>2292.23486328125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1973.436401367188</v>
+        <v>2292.25634765625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1973.583862304688</v>
+        <v>2292.2119140625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1973.549438476562</v>
+        <v>2292.2392578125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1973.31005859375</v>
+        <v>2292.52783203125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1972.631591796875</v>
+        <v>2292.64990234375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1972.101928710938</v>
+        <v>2292.8115234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1970.928955078125</v>
+        <v>2292.938720703125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1970.568725585938</v>
+        <v>2292.982666015625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1969.732543945312</v>
+        <v>2293.174560546875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1968.1220703125</v>
+        <v>2293.309814453125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1966.8876953125</v>
+        <v>2293.34033203125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1967.219360351562</v>
+        <v>2293.788818359375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1967.414794921875</v>
+        <v>2294.740478515625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1967.590209960938</v>
+        <v>2294.56298828125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1968.221313476562</v>
+        <v>2294.3544921875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1968.661865234375</v>
+        <v>2294.3193359375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1969.912963867188</v>
+        <v>2294.2568359375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1970.527465820312</v>
+        <v>2293.93212890625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1970.38623046875</v>
+        <v>2293.57666015625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1970.1162109375</v>
+        <v>2292.72509765625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1970.1650390625</v>
+        <v>2292.728759765625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1970.125854492188</v>
+        <v>2292.72021484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1970.101806640625</v>
+        <v>2292.659912109375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1970.259887695312</v>
+        <v>2292.8486328125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1970.083251953125</v>
+        <v>2293.127197265625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1969.359252929688</v>
+        <v>2293.390869140625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1968.888671875</v>
+        <v>2293.273681640625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1966.63427734375</v>
+        <v>2293.316162109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1964.410888671875</v>
+        <v>2293.403076171875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1964.174682617188</v>
+        <v>2293.60791015625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1961.377319335938</v>
+        <v>2293.4423828125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1960.18603515625</v>
+        <v>2292.950439453125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1959.961059570312</v>
+        <v>2291.088134765625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1958.454956054688</v>
+        <v>2290.35888671875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1959.66943359375</v>
+        <v>2291.302001953125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1960.302978515625</v>
+        <v>2291.410888671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1961.17431640625</v>
+        <v>2291.365234375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1961.45556640625</v>
+        <v>2291.46728515625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1961.751831054688</v>
+        <v>2291.7333984375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1962.1591796875</v>
+        <v>2292.1328125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1962.292358398438</v>
+        <v>2292.398681640625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1962.328369140625</v>
+        <v>2293.136474609375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1962.290893554688</v>
+        <v>2294.044677734375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1962.18408203125</v>
+        <v>2294.5234375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1962.102783203125</v>
+        <v>2294.764404296875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1961.877197265625</v>
+        <v>2294.610595703125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1961.636596679688</v>
+        <v>2294.7197265625</v>
       </c>
       <c r="FK4" t="n">
-        <v>1961.523071289062</v>
+        <v>2294.723876953125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1961.372680664062</v>
+        <v>2294.76513671875</v>
       </c>
       <c r="FM4" t="n">
-        <v>1961.324829101562</v>
+        <v>2294.76611328125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1961.422485351562</v>
+        <v>2294.774169921875</v>
       </c>
       <c r="FO4" t="n">
-        <v>1961.519897460938</v>
+        <v>2295.07177734375</v>
       </c>
       <c r="FP4" t="n">
-        <v>1961.4462890625</v>
+        <v>2295.41259765625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1961.422607421875</v>
+        <v>2296.025390625</v>
       </c>
       <c r="FR4" t="n">
-        <v>1961.604125976562</v>
+        <v>2296.978759765625</v>
       </c>
       <c r="FS4" t="n">
-        <v>1961.790405273438</v>
+        <v>2296.90869140625</v>
       </c>
       <c r="FT4" t="n">
-        <v>1962.509765625</v>
+        <v>2297.052490234375</v>
       </c>
       <c r="FU4" t="n">
-        <v>1964.089599609375</v>
+        <v>2297.283203125</v>
       </c>
       <c r="FV4" t="n">
-        <v>1964.926391601562</v>
+        <v>2297.30712890625</v>
       </c>
       <c r="FW4" t="n">
-        <v>1966.383666992188</v>
+        <v>2297.175537109375</v>
       </c>
       <c r="FX4" t="n">
-        <v>1966.364624023438</v>
+        <v>2297.16162109375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1965.904052734375</v>
+        <v>2297.14697265625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1965.654052734375</v>
+        <v>2297.153076171875</v>
       </c>
       <c r="GA4" t="n">
-        <v>1965.5</v>
+        <v>2297.119873046875</v>
       </c>
       <c r="GB4" t="n">
-        <v>1965.695068359375</v>
+        <v>2297.031494140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>1966.213256835938</v>
+        <v>2296.70166015625</v>
       </c>
       <c r="GD4" t="n">
-        <v>1966.421875</v>
+        <v>2296.739013671875</v>
       </c>
       <c r="GE4" t="n">
-        <v>1966.370727539062</v>
+        <v>2296.70458984375</v>
       </c>
       <c r="GF4" t="n">
-        <v>1966.142333984375</v>
+        <v>2296.605224609375</v>
       </c>
       <c r="GG4" t="n">
-        <v>1965.966674804688</v>
+        <v>2296.53857421875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1965.55859375</v>
+        <v>2296.62841796875</v>
       </c>
       <c r="GI4" t="n">
-        <v>1964.911499023438</v>
+        <v>2296.739501953125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1963.931030273438</v>
+        <v>2296.897705078125</v>
       </c>
       <c r="GK4" t="n">
-        <v>1962.971923828125</v>
+        <v>2297.847412109375</v>
       </c>
       <c r="GL4" t="n">
-        <v>1963.2421875</v>
+        <v>2298.133544921875</v>
       </c>
       <c r="GM4" t="n">
-        <v>1964.011596679688</v>
+        <v>2298.111572265625</v>
       </c>
       <c r="GN4" t="n">
-        <v>1963.88134765625</v>
+        <v>2298.00390625</v>
       </c>
       <c r="GO4" t="n">
-        <v>1963.409057617188</v>
+        <v>2298.000244140625</v>
       </c>
       <c r="GP4" t="n">
-        <v>1964.082275390625</v>
+        <v>2297.970458984375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1964.857421875</v>
+        <v>2297.94287109375</v>
       </c>
       <c r="GR4" t="n">
-        <v>1964.911865234375</v>
+        <v>2297.927001953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>1965.128662109375</v>
+        <v>2297.908447265625</v>
       </c>
       <c r="GT4" t="n">
-        <v>1964.9755859375</v>
+        <v>2298.3173828125</v>
       </c>
       <c r="GU4" t="n">
-        <v>1964.680297851562</v>
+        <v>2299.03125</v>
       </c>
       <c r="GV4" t="n">
-        <v>1964.25439453125</v>
+        <v>2299.353271484375</v>
       </c>
       <c r="GW4" t="n">
-        <v>1963.794311523438</v>
+        <v>2299.37548828125</v>
       </c>
       <c r="GX4" t="n">
-        <v>1963.713500976562</v>
+        <v>2299.7265625</v>
       </c>
       <c r="GY4" t="n">
-        <v>1963.57177734375</v>
+        <v>2300.024169921875</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1963.677124023438</v>
+        <v>2300.326171875</v>
       </c>
       <c r="HA4" t="n">
-        <v>1963.686157226562</v>
+        <v>2300.26611328125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1963.634155273438</v>
+        <v>2300.33056640625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1963.56689453125</v>
+        <v>2300.326904296875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1963.479125976562</v>
+        <v>2300.2783203125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1963.390869140625</v>
+        <v>2300.469970703125</v>
       </c>
       <c r="HF4" t="n">
-        <v>1962.982421875</v>
+        <v>2300.3349609375</v>
       </c>
       <c r="HG4" t="n">
-        <v>1962.095947265625</v>
+        <v>2300.607421875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1961.763671875</v>
+        <v>2300.72216796875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1961.95947265625</v>
+        <v>2300.170654296875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1961.897094726562</v>
+        <v>2300.26318359375</v>
       </c>
       <c r="HK4" t="n">
-        <v>1961.4130859375</v>
+        <v>2300.33447265625</v>
       </c>
       <c r="HL4" t="n">
-        <v>1960.004760742188</v>
+        <v>2300.36083984375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1959.261962890625</v>
+        <v>2300.4140625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1959.851928710938</v>
+        <v>2300.691162109375</v>
       </c>
       <c r="HO4" t="n">
-        <v>1959.899047851562</v>
+        <v>2301.24267578125</v>
       </c>
       <c r="HP4" t="n">
-        <v>1959.263916015625</v>
+        <v>2301.532470703125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1958.854858398438</v>
+        <v>2301.85107421875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1959.420532226562</v>
+        <v>2301.824951171875</v>
       </c>
       <c r="HS4" t="n">
-        <v>1960.27734375</v>
+        <v>2301.708251953125</v>
       </c>
       <c r="HT4" t="n">
-        <v>1961.544067382812</v>
+        <v>2301.787841796875</v>
       </c>
       <c r="HU4" t="n">
-        <v>1962.242797851562</v>
+        <v>2301.843017578125</v>
       </c>
       <c r="HV4" t="n">
-        <v>1962.27783203125</v>
+        <v>2302.22705078125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1962.3876953125</v>
+        <v>2302.69287109375</v>
       </c>
       <c r="HX4" t="n">
-        <v>1962.48876953125</v>
+        <v>2302.847412109375</v>
       </c>
       <c r="HY4" t="n">
-        <v>1962.685180664062</v>
+        <v>2304.849365234375</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1962.40576171875</v>
+        <v>2305.015625</v>
       </c>
       <c r="IA4" t="n">
-        <v>1961.485107421875</v>
+        <v>2305.05810546875</v>
       </c>
       <c r="IB4" t="n">
-        <v>1960.871948242188</v>
+        <v>2305.46435546875</v>
       </c>
       <c r="IC4" t="n">
-        <v>1960.294677734375</v>
+        <v>2305.43994140625</v>
       </c>
       <c r="ID4" t="n">
-        <v>1960.338623046875</v>
+        <v>2305.388671875</v>
       </c>
       <c r="IE4" t="n">
-        <v>1960.299560546875</v>
+        <v>2305.4013671875</v>
       </c>
       <c r="IF4" t="n">
-        <v>1960.34521484375</v>
+        <v>2304.392822265625</v>
       </c>
       <c r="IG4" t="n">
-        <v>1960.311645507812</v>
+        <v>2304.572265625</v>
       </c>
       <c r="IH4" t="n">
-        <v>1960.357299804688</v>
+        <v>2304.617919921875</v>
       </c>
       <c r="II4" t="n">
-        <v>1959.762939453125</v>
+        <v>2304.168212890625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1959.815673828125</v>
+        <v>2303.5146484375</v>
       </c>
       <c r="IK4" t="n">
-        <v>1959.805786132812</v>
+        <v>2302.7626953125</v>
       </c>
       <c r="IL4" t="n">
-        <v>1959.778930664062</v>
+        <v>2302.5810546875</v>
       </c>
       <c r="IM4" t="n">
-        <v>1959.505249023438</v>
+        <v>2302.435546875</v>
       </c>
       <c r="IN4" t="n">
-        <v>1959.187133789062</v>
+        <v>2302.368896484375</v>
       </c>
       <c r="IO4" t="n">
-        <v>1959.03125</v>
+        <v>2302.15673828125</v>
       </c>
       <c r="IP4" t="n">
-        <v>1958.997924804688</v>
+        <v>2301.818115234375</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1958.978881835938</v>
+        <v>2301.2109375</v>
       </c>
       <c r="IR4" t="n">
-        <v>1958.9638671875</v>
+        <v>2300.595458984375</v>
       </c>
       <c r="IS4" t="n">
-        <v>1959.017700195312</v>
+        <v>2300.575439453125</v>
       </c>
       <c r="IT4" t="n">
-        <v>1959.041870117188</v>
+        <v>2300.740478515625</v>
       </c>
       <c r="IU4" t="n">
-        <v>1959.03759765625</v>
+        <v>2300.818359375</v>
       </c>
       <c r="IV4" t="n">
-        <v>1958.996704101562</v>
+        <v>2300.739990234375</v>
       </c>
       <c r="IW4" t="n">
-        <v>1958.955810546875</v>
+        <v>2300.36865234375</v>
       </c>
       <c r="IX4" t="n">
-        <v>1958.790771484375</v>
+        <v>2300.0341796875</v>
       </c>
       <c r="IY4" t="n">
-        <v>1958.501953125</v>
+        <v>2299.61865234375</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1958.478393554688</v>
+        <v>2298.80322265625</v>
       </c>
       <c r="JA4" t="n">
-        <v>1958.219482421875</v>
+        <v>2295.57568359375</v>
       </c>
       <c r="JB4" t="n">
-        <v>1957.657836914062</v>
+        <v>2295.605224609375</v>
       </c>
       <c r="JC4" t="n">
-        <v>1956.928833007812</v>
+        <v>2294.50390625</v>
       </c>
       <c r="JD4" t="n">
-        <v>1956.314697265625</v>
+        <v>2291.25390625</v>
       </c>
       <c r="JE4" t="n">
-        <v>1956.236083984375</v>
+        <v>2293.229736328125</v>
       </c>
       <c r="JF4" t="n">
-        <v>1956.165405273438</v>
+        <v>2296.149169921875</v>
       </c>
       <c r="JG4" t="n">
-        <v>1956.066650390625</v>
+        <v>2300.8154296875</v>
       </c>
       <c r="JH4" t="n">
-        <v>1956.064453125</v>
+        <v>2299.239013671875</v>
       </c>
       <c r="JI4" t="n">
-        <v>1956.130859375</v>
+        <v>2292.0439453125</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1956.257934570312</v>
+        <v>2297.416259765625</v>
       </c>
       <c r="JK4" t="n">
-        <v>1956.582153320312</v>
+        <v>2296.9501953125</v>
       </c>
       <c r="JL4" t="n">
-        <v>1956.9833984375</v>
+        <v>2296.392822265625</v>
       </c>
       <c r="JM4" t="n">
-        <v>1957.477294921875</v>
+        <v>2298.0986328125</v>
       </c>
       <c r="JN4" t="n">
-        <v>1958.049682617188</v>
+        <v>2297.975341796875</v>
       </c>
       <c r="JO4" t="n">
-        <v>1958.814086914062</v>
+        <v>2297.526611328125</v>
       </c>
       <c r="JP4" t="n">
-        <v>1959.329833984375</v>
+        <v>2297.69482421875</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1959.33984375</v>
+        <v>2297.570556640625</v>
       </c>
       <c r="JR4" t="n">
-        <v>1958.975341796875</v>
+        <v>2296.564453125</v>
       </c>
       <c r="JS4" t="n">
-        <v>1958.61962890625</v>
+        <v>2293.79248046875</v>
       </c>
       <c r="JT4" t="n">
-        <v>1958.42431640625</v>
+        <v>2293.297607421875</v>
       </c>
       <c r="JU4" t="n">
-        <v>1958.29052734375</v>
+        <v>2295.2763671875</v>
       </c>
       <c r="JV4" t="n">
-        <v>1957.865600585938</v>
+        <v>2296.98681640625</v>
       </c>
       <c r="JW4" t="n">
-        <v>1957.06005859375</v>
+        <v>2297.07666015625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1952.613525390625</v>
+        <v>2297.216064453125</v>
       </c>
       <c r="JY4" t="n">
-        <v>1944.578857421875</v>
+        <v>2297.420654296875</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1926.092041015625</v>
+        <v>2297.5302734375</v>
       </c>
       <c r="KA4" t="n">
-        <v>1925.138916015625</v>
+        <v>2297.422119140625</v>
       </c>
       <c r="KB4" t="n">
-        <v>1924.67822265625</v>
+        <v>2297.892333984375</v>
       </c>
       <c r="KC4" t="n">
-        <v>1923.434936523438</v>
+        <v>2297.420654296875</v>
       </c>
       <c r="KD4" t="n">
-        <v>1910.289916992188</v>
+        <v>2296.790771484375</v>
       </c>
       <c r="KE4" t="n">
-        <v>1911.8955078125</v>
+        <v>2295.2841796875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1917.4921875</v>
+        <v>2295.27685546875</v>
       </c>
       <c r="KG4" t="n">
-        <v>1908.773681640625</v>
+        <v>2295.23779296875</v>
       </c>
       <c r="KH4" t="n">
-        <v>1871.473876953125</v>
+        <v>2295.195068359375</v>
       </c>
       <c r="KI4" t="n">
-        <v>1844.575317382812</v>
+        <v>2290.41650390625</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1814.431274414062</v>
+        <v>2285.052490234375</v>
       </c>
       <c r="KK4" t="n">
-        <v>1778.137451171875</v>
+        <v>2284.93115234375</v>
       </c>
       <c r="KL4" t="n">
-        <v>1735.319946289062</v>
+        <v>2285.59423828125</v>
       </c>
       <c r="KM4" t="n">
-        <v>1684.449096679688</v>
+        <v>2286.25830078125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1622.660278320312</v>
+        <v>2286.33349609375</v>
       </c>
       <c r="KO4" t="n">
-        <v>1532.51708984375</v>
+        <v>2285.33935546875</v>
       </c>
       <c r="KP4" t="n">
-        <v>1476.503173828125</v>
+        <v>2285.35009765625</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1424.349365234375</v>
+        <v>2285.227783203125</v>
       </c>
       <c r="KR4" t="n">
-        <v>1384.687622070312</v>
+        <v>2231.795166015625</v>
       </c>
       <c r="KS4" t="n">
-        <v>1320.891845703125</v>
+        <v>2169.1015625</v>
       </c>
       <c r="KT4" t="n">
-        <v>1278.32275390625</v>
+        <v>2111.120849609375</v>
       </c>
       <c r="KU4" t="n">
-        <v>1211.542114257812</v>
+        <v>2069.890625</v>
       </c>
       <c r="KV4" t="n">
-        <v>1164.509765625</v>
+        <v>1958.662353515625</v>
       </c>
       <c r="KW4" t="n">
-        <v>1117.571166992188</v>
+        <v>1872.960693359375</v>
       </c>
       <c r="KX4" t="n">
-        <v>1072.061767578125</v>
+        <v>1756.664184570312</v>
       </c>
       <c r="KY4" t="n">
-        <v>1050.54931640625</v>
+        <v>1676.605712890625</v>
       </c>
       <c r="KZ4" t="n">
-        <v>1026.668579101562</v>
+        <v>1548.850219726562</v>
       </c>
       <c r="LA4" t="n">
-        <v>999.8215942382812</v>
+        <v>1439.000366210938</v>
       </c>
       <c r="LB4" t="n">
-        <v>985.863525390625</v>
+        <v>1334.015258789062</v>
       </c>
       <c r="LC4" t="n">
-        <v>971.23046875</v>
+        <v>1192.22119140625</v>
       </c>
       <c r="LD4" t="n">
-        <v>950.262939453125</v>
+        <v>1057.996337890625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>943.5116577148438</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>852.5845947265625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>793.37255859375</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>699.2757568359375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>621.45068359375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>547.82373046875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>531.9771728515625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>439.3985595703125</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>416.8210754394531</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>432.5205078125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>327.641845703125</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>324.77734375</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>344.3993835449219</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>344.8642883300781</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>282.3178100585938</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>385.7994079589844</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>386.3327331542969</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>391.339111328125</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>392.45068359375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>373.5081787109375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>371.9581604003906</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>369.2918090820312</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>371.0319213867188</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>366.2626953125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>375.6268615722656</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>376.4258728027344</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>331.5254516601562</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>356.6087646484375</v>
       </c>
     </row>
   </sheetData>
